--- a/NQQ_48.xlsx
+++ b/NQQ_48.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t xml:space="preserve">quarter</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t xml:space="preserve">2021Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021Q4</t>
   </si>
   <si>
     <t xml:space="preserve">GVA at Constant Basic Prices (chain linked annually ref to 2019) (Seasonally Adjusted)</t>
@@ -3162,22 +3165,22 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>95832</v>
+        <v>96871</v>
       </c>
       <c r="C106" t="n">
-        <v>6274</v>
+        <v>6287</v>
       </c>
       <c r="D106" t="n">
         <v>-319</v>
       </c>
       <c r="E106" t="n">
-        <v>101787</v>
+        <v>102838</v>
       </c>
       <c r="F106" t="n">
-        <v>-29720</v>
+        <v>-29484</v>
       </c>
       <c r="G106" t="n">
-        <v>72066</v>
+        <v>73354</v>
       </c>
     </row>
     <row r="107">
@@ -3185,22 +3188,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>100390</v>
+        <v>100340</v>
       </c>
       <c r="C107" t="n">
-        <v>5303</v>
+        <v>5290</v>
       </c>
       <c r="D107" t="n">
         <v>-330</v>
       </c>
       <c r="E107" t="n">
-        <v>105363</v>
+        <v>105300</v>
       </c>
       <c r="F107" t="n">
-        <v>-30850</v>
+        <v>-30906</v>
       </c>
       <c r="G107" t="n">
-        <v>74513</v>
+        <v>74394</v>
       </c>
     </row>
     <row r="108">
@@ -3208,22 +3211,45 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>108203</v>
+        <v>108031</v>
       </c>
       <c r="C108" t="n">
-        <v>7463</v>
+        <v>7632</v>
       </c>
       <c r="D108" t="n">
-        <v>-262</v>
+        <v>-354</v>
       </c>
       <c r="E108" t="n">
-        <v>115403</v>
+        <v>115310</v>
       </c>
       <c r="F108" t="n">
-        <v>-27532</v>
+        <v>-27441</v>
       </c>
       <c r="G108" t="n">
-        <v>87870</v>
+        <v>87869</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="n">
+        <v>99049</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6212</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-390</v>
+      </c>
+      <c r="E109" t="n">
+        <v>104870</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-22760</v>
+      </c>
+      <c r="G109" t="n">
+        <v>82111</v>
       </c>
     </row>
   </sheetData>
@@ -3245,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
@@ -3268,7 +3294,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>22106</v>
+        <v>22107</v>
       </c>
       <c r="C2" t="n">
         <v>2494</v>
@@ -3277,13 +3303,13 @@
         <v>-473</v>
       </c>
       <c r="E2" t="n">
-        <v>24126</v>
+        <v>24127</v>
       </c>
       <c r="F2" t="n">
-        <v>-1903</v>
+        <v>-1890</v>
       </c>
       <c r="G2" t="n">
-        <v>22223</v>
+        <v>22237</v>
       </c>
     </row>
     <row r="3">
@@ -3291,7 +3317,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>22184</v>
+        <v>22185</v>
       </c>
       <c r="C3" t="n">
         <v>2579</v>
@@ -3300,13 +3326,13 @@
         <v>-450</v>
       </c>
       <c r="E3" t="n">
-        <v>24313</v>
+        <v>24314</v>
       </c>
       <c r="F3" t="n">
-        <v>-1604</v>
+        <v>-1476</v>
       </c>
       <c r="G3" t="n">
-        <v>22709</v>
+        <v>22838</v>
       </c>
     </row>
     <row r="4">
@@ -3314,7 +3340,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>22611</v>
+        <v>22630</v>
       </c>
       <c r="C4" t="n">
         <v>2663</v>
@@ -3323,13 +3349,13 @@
         <v>-724</v>
       </c>
       <c r="E4" t="n">
-        <v>24550</v>
+        <v>24568</v>
       </c>
       <c r="F4" t="n">
-        <v>-1532</v>
+        <v>-1558</v>
       </c>
       <c r="G4" t="n">
-        <v>23018</v>
+        <v>23010</v>
       </c>
     </row>
     <row r="5">
@@ -3337,7 +3363,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>22444</v>
+        <v>22423</v>
       </c>
       <c r="C5" t="n">
         <v>2733</v>
@@ -3346,13 +3372,13 @@
         <v>-513</v>
       </c>
       <c r="E5" t="n">
-        <v>24664</v>
+        <v>24644</v>
       </c>
       <c r="F5" t="n">
-        <v>-2076</v>
+        <v>-2193</v>
       </c>
       <c r="G5" t="n">
-        <v>22588</v>
+        <v>22450</v>
       </c>
     </row>
     <row r="6">
@@ -3369,13 +3395,13 @@
         <v>-550</v>
       </c>
       <c r="E6" t="n">
-        <v>26025</v>
+        <v>26026</v>
       </c>
       <c r="F6" t="n">
-        <v>-2110</v>
+        <v>-2096</v>
       </c>
       <c r="G6" t="n">
-        <v>23915</v>
+        <v>23930</v>
       </c>
     </row>
     <row r="7">
@@ -3383,7 +3409,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>23995</v>
+        <v>23996</v>
       </c>
       <c r="C7" t="n">
         <v>2853</v>
@@ -3392,13 +3418,13 @@
         <v>-509</v>
       </c>
       <c r="E7" t="n">
-        <v>26339</v>
+        <v>26340</v>
       </c>
       <c r="F7" t="n">
-        <v>-1810</v>
+        <v>-1681</v>
       </c>
       <c r="G7" t="n">
-        <v>24529</v>
+        <v>24659</v>
       </c>
     </row>
     <row r="8">
@@ -3406,7 +3432,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>23863</v>
+        <v>23881</v>
       </c>
       <c r="C8" t="n">
         <v>2943</v>
@@ -3415,13 +3441,13 @@
         <v>-839</v>
       </c>
       <c r="E8" t="n">
-        <v>25967</v>
+        <v>25986</v>
       </c>
       <c r="F8" t="n">
-        <v>-1691</v>
+        <v>-1716</v>
       </c>
       <c r="G8" t="n">
-        <v>24276</v>
+        <v>24269</v>
       </c>
     </row>
     <row r="9">
@@ -3429,7 +3455,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>23781</v>
+        <v>23758</v>
       </c>
       <c r="C9" t="n">
         <v>3023</v>
@@ -3438,13 +3464,13 @@
         <v>-580</v>
       </c>
       <c r="E9" t="n">
-        <v>26223</v>
+        <v>26200</v>
       </c>
       <c r="F9" t="n">
-        <v>-2253</v>
+        <v>-2370</v>
       </c>
       <c r="G9" t="n">
-        <v>23970</v>
+        <v>23830</v>
       </c>
     </row>
     <row r="10">
@@ -3452,7 +3478,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>25364</v>
+        <v>25367</v>
       </c>
       <c r="C10" t="n">
         <v>3138</v>
@@ -3461,13 +3487,13 @@
         <v>-624</v>
       </c>
       <c r="E10" t="n">
-        <v>27877</v>
+        <v>27880</v>
       </c>
       <c r="F10" t="n">
-        <v>-2584</v>
+        <v>-2570</v>
       </c>
       <c r="G10" t="n">
-        <v>25293</v>
+        <v>25310</v>
       </c>
     </row>
     <row r="11">
@@ -3484,13 +3510,13 @@
         <v>-653</v>
       </c>
       <c r="E11" t="n">
-        <v>28946</v>
+        <v>28947</v>
       </c>
       <c r="F11" t="n">
-        <v>-2282</v>
+        <v>-2154</v>
       </c>
       <c r="G11" t="n">
-        <v>26664</v>
+        <v>26793</v>
       </c>
     </row>
     <row r="12">
@@ -3498,7 +3524,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>26515</v>
+        <v>26534</v>
       </c>
       <c r="C12" t="n">
         <v>3354</v>
@@ -3507,13 +3533,13 @@
         <v>-631</v>
       </c>
       <c r="E12" t="n">
-        <v>29237</v>
+        <v>29256</v>
       </c>
       <c r="F12" t="n">
-        <v>-2055</v>
+        <v>-2081</v>
       </c>
       <c r="G12" t="n">
-        <v>27182</v>
+        <v>27176</v>
       </c>
     </row>
     <row r="13">
@@ -3521,22 +3547,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>26810</v>
+        <v>26786</v>
       </c>
       <c r="C13" t="n">
         <v>3418</v>
       </c>
       <c r="D13" t="n">
-        <v>-604</v>
+        <v>-605</v>
       </c>
       <c r="E13" t="n">
-        <v>29623</v>
+        <v>29600</v>
       </c>
       <c r="F13" t="n">
-        <v>-2658</v>
+        <v>-2774</v>
       </c>
       <c r="G13" t="n">
-        <v>26966</v>
+        <v>26825</v>
       </c>
     </row>
     <row r="14">
@@ -3544,7 +3570,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>27835</v>
+        <v>27837</v>
       </c>
       <c r="C14" t="n">
         <v>3457</v>
@@ -3553,13 +3579,13 @@
         <v>-591</v>
       </c>
       <c r="E14" t="n">
-        <v>30701</v>
+        <v>30703</v>
       </c>
       <c r="F14" t="n">
-        <v>-2405</v>
+        <v>-2391</v>
       </c>
       <c r="G14" t="n">
-        <v>28296</v>
+        <v>28312</v>
       </c>
     </row>
     <row r="15">
@@ -3567,7 +3593,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>28402</v>
+        <v>28404</v>
       </c>
       <c r="C15" t="n">
         <v>3690</v>
@@ -3576,13 +3602,13 @@
         <v>-655</v>
       </c>
       <c r="E15" t="n">
-        <v>31438</v>
+        <v>31439</v>
       </c>
       <c r="F15" t="n">
-        <v>-2595</v>
+        <v>-2466</v>
       </c>
       <c r="G15" t="n">
-        <v>28843</v>
+        <v>28973</v>
       </c>
     </row>
     <row r="16">
@@ -3590,7 +3616,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>29296</v>
+        <v>29314</v>
       </c>
       <c r="C16" t="n">
         <v>3680</v>
@@ -3599,13 +3625,13 @@
         <v>-555</v>
       </c>
       <c r="E16" t="n">
-        <v>32421</v>
+        <v>32439</v>
       </c>
       <c r="F16" t="n">
-        <v>-3275</v>
+        <v>-3301</v>
       </c>
       <c r="G16" t="n">
-        <v>29146</v>
+        <v>29138</v>
       </c>
     </row>
     <row r="17">
@@ -3613,22 +3639,22 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>28186</v>
+        <v>28164</v>
       </c>
       <c r="C17" t="n">
         <v>3856</v>
       </c>
       <c r="D17" t="n">
-        <v>-650</v>
+        <v>-651</v>
       </c>
       <c r="E17" t="n">
-        <v>31391</v>
+        <v>31369</v>
       </c>
       <c r="F17" t="n">
-        <v>-3019</v>
+        <v>-3136</v>
       </c>
       <c r="G17" t="n">
-        <v>28371</v>
+        <v>28233</v>
       </c>
     </row>
     <row r="18">
@@ -3636,7 +3662,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>30314</v>
+        <v>30317</v>
       </c>
       <c r="C18" t="n">
         <v>3794</v>
@@ -3645,13 +3671,13 @@
         <v>-562</v>
       </c>
       <c r="E18" t="n">
-        <v>33546</v>
+        <v>33550</v>
       </c>
       <c r="F18" t="n">
-        <v>-2813</v>
+        <v>-2800</v>
       </c>
       <c r="G18" t="n">
-        <v>30733</v>
+        <v>30750</v>
       </c>
     </row>
     <row r="19">
@@ -3659,22 +3685,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>30349</v>
+        <v>30350</v>
       </c>
       <c r="C19" t="n">
         <v>4310</v>
       </c>
       <c r="D19" t="n">
-        <v>-561</v>
+        <v>-562</v>
       </c>
       <c r="E19" t="n">
-        <v>34098</v>
+        <v>34099</v>
       </c>
       <c r="F19" t="n">
-        <v>-3041</v>
+        <v>-2912</v>
       </c>
       <c r="G19" t="n">
-        <v>31057</v>
+        <v>31187</v>
       </c>
     </row>
     <row r="20">
@@ -3682,22 +3708,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>31738</v>
+        <v>31758</v>
       </c>
       <c r="C20" t="n">
         <v>4072</v>
       </c>
       <c r="D20" t="n">
-        <v>-611</v>
+        <v>-610</v>
       </c>
       <c r="E20" t="n">
-        <v>35199</v>
+        <v>35219</v>
       </c>
       <c r="F20" t="n">
-        <v>-4320</v>
+        <v>-4345</v>
       </c>
       <c r="G20" t="n">
-        <v>30880</v>
+        <v>30874</v>
       </c>
     </row>
     <row r="21">
@@ -3705,7 +3731,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>31979</v>
+        <v>31954</v>
       </c>
       <c r="C21" t="n">
         <v>4385</v>
@@ -3714,13 +3740,13 @@
         <v>-557</v>
       </c>
       <c r="E21" t="n">
-        <v>35807</v>
+        <v>35782</v>
       </c>
       <c r="F21" t="n">
-        <v>-4347</v>
+        <v>-4464</v>
       </c>
       <c r="G21" t="n">
-        <v>31460</v>
+        <v>31318</v>
       </c>
     </row>
     <row r="22">
@@ -3728,7 +3754,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>32462</v>
+        <v>32467</v>
       </c>
       <c r="C22" t="n">
         <v>4653</v>
@@ -3737,13 +3763,13 @@
         <v>-714</v>
       </c>
       <c r="E22" t="n">
-        <v>36401</v>
+        <v>36406</v>
       </c>
       <c r="F22" t="n">
-        <v>-3625</v>
+        <v>-3612</v>
       </c>
       <c r="G22" t="n">
-        <v>32775</v>
+        <v>32795</v>
       </c>
     </row>
     <row r="23">
@@ -3751,7 +3777,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>33653</v>
+        <v>33654</v>
       </c>
       <c r="C23" t="n">
         <v>4526</v>
@@ -3760,13 +3786,13 @@
         <v>-547</v>
       </c>
       <c r="E23" t="n">
-        <v>37632</v>
+        <v>37633</v>
       </c>
       <c r="F23" t="n">
-        <v>-2997</v>
+        <v>-2869</v>
       </c>
       <c r="G23" t="n">
-        <v>34634</v>
+        <v>34764</v>
       </c>
     </row>
     <row r="24">
@@ -3774,22 +3800,22 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>33986</v>
+        <v>34004</v>
       </c>
       <c r="C24" t="n">
         <v>4698</v>
       </c>
       <c r="D24" t="n">
-        <v>-452</v>
+        <v>-451</v>
       </c>
       <c r="E24" t="n">
-        <v>38233</v>
+        <v>38251</v>
       </c>
       <c r="F24" t="n">
-        <v>-4485</v>
+        <v>-4510</v>
       </c>
       <c r="G24" t="n">
-        <v>33748</v>
+        <v>33741</v>
       </c>
     </row>
     <row r="25">
@@ -3797,7 +3823,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>34631</v>
+        <v>34607</v>
       </c>
       <c r="C25" t="n">
         <v>4312</v>
@@ -3806,13 +3832,13 @@
         <v>-568</v>
       </c>
       <c r="E25" t="n">
-        <v>38376</v>
+        <v>38351</v>
       </c>
       <c r="F25" t="n">
-        <v>-4949</v>
+        <v>-5066</v>
       </c>
       <c r="G25" t="n">
-        <v>33426</v>
+        <v>33285</v>
       </c>
     </row>
     <row r="26">
@@ -3820,7 +3846,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>35336</v>
+        <v>35341</v>
       </c>
       <c r="C26" t="n">
         <v>4451</v>
@@ -3829,13 +3855,13 @@
         <v>-465</v>
       </c>
       <c r="E26" t="n">
-        <v>39322</v>
+        <v>39327</v>
       </c>
       <c r="F26" t="n">
-        <v>-4290</v>
+        <v>-4276</v>
       </c>
       <c r="G26" t="n">
-        <v>35033</v>
+        <v>35052</v>
       </c>
     </row>
     <row r="27">
@@ -3855,10 +3881,10 @@
         <v>39998</v>
       </c>
       <c r="F27" t="n">
-        <v>-4807</v>
+        <v>-4678</v>
       </c>
       <c r="G27" t="n">
-        <v>35191</v>
+        <v>35319</v>
       </c>
     </row>
     <row r="28">
@@ -3866,7 +3892,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>35793</v>
+        <v>35811</v>
       </c>
       <c r="C28" t="n">
         <v>4406</v>
@@ -3875,13 +3901,13 @@
         <v>-543</v>
       </c>
       <c r="E28" t="n">
-        <v>39656</v>
+        <v>39675</v>
       </c>
       <c r="F28" t="n">
-        <v>-5418</v>
+        <v>-5443</v>
       </c>
       <c r="G28" t="n">
-        <v>34238</v>
+        <v>34231</v>
       </c>
     </row>
     <row r="29">
@@ -3889,7 +3915,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>36327</v>
+        <v>36304</v>
       </c>
       <c r="C29" t="n">
         <v>4482</v>
@@ -3898,13 +3924,13 @@
         <v>-506</v>
       </c>
       <c r="E29" t="n">
-        <v>40303</v>
+        <v>40280</v>
       </c>
       <c r="F29" t="n">
-        <v>-5769</v>
+        <v>-5886</v>
       </c>
       <c r="G29" t="n">
-        <v>34534</v>
+        <v>34394</v>
       </c>
     </row>
     <row r="30">
@@ -3912,7 +3938,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>37447</v>
+        <v>37451</v>
       </c>
       <c r="C30" t="n">
         <v>4502</v>
@@ -3921,13 +3947,13 @@
         <v>-529</v>
       </c>
       <c r="E30" t="n">
-        <v>41420</v>
+        <v>41424</v>
       </c>
       <c r="F30" t="n">
-        <v>-6204</v>
+        <v>-6190</v>
       </c>
       <c r="G30" t="n">
-        <v>35216</v>
+        <v>35234</v>
       </c>
     </row>
     <row r="31">
@@ -3947,10 +3973,10 @@
         <v>41734</v>
       </c>
       <c r="F31" t="n">
-        <v>-5866</v>
+        <v>-5737</v>
       </c>
       <c r="G31" t="n">
-        <v>35868</v>
+        <v>35996</v>
       </c>
     </row>
     <row r="32">
@@ -3958,22 +3984,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>38407</v>
+        <v>38425</v>
       </c>
       <c r="C32" t="n">
         <v>4706</v>
       </c>
       <c r="D32" t="n">
-        <v>-588</v>
+        <v>-587</v>
       </c>
       <c r="E32" t="n">
-        <v>42526</v>
+        <v>42544</v>
       </c>
       <c r="F32" t="n">
-        <v>-6212</v>
+        <v>-6238</v>
       </c>
       <c r="G32" t="n">
-        <v>36313</v>
+        <v>36306</v>
       </c>
     </row>
     <row r="33">
@@ -3981,7 +4007,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>38820</v>
+        <v>38795</v>
       </c>
       <c r="C33" t="n">
         <v>4799</v>
@@ -3990,13 +4016,13 @@
         <v>-655</v>
       </c>
       <c r="E33" t="n">
-        <v>42964</v>
+        <v>42939</v>
       </c>
       <c r="F33" t="n">
-        <v>-7047</v>
+        <v>-7163</v>
       </c>
       <c r="G33" t="n">
-        <v>35918</v>
+        <v>35776</v>
       </c>
     </row>
     <row r="34">
@@ -4004,7 +4030,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>38533</v>
+        <v>38536</v>
       </c>
       <c r="C34" t="n">
         <v>4723</v>
@@ -4013,13 +4039,13 @@
         <v>-535</v>
       </c>
       <c r="E34" t="n">
-        <v>42721</v>
+        <v>42725</v>
       </c>
       <c r="F34" t="n">
-        <v>-6063</v>
+        <v>-6049</v>
       </c>
       <c r="G34" t="n">
-        <v>36659</v>
+        <v>36676</v>
       </c>
     </row>
     <row r="35">
@@ -4027,22 +4053,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>38803</v>
+        <v>38804</v>
       </c>
       <c r="C35" t="n">
         <v>4719</v>
       </c>
       <c r="D35" t="n">
-        <v>-541</v>
+        <v>-542</v>
       </c>
       <c r="E35" t="n">
-        <v>42980</v>
+        <v>42981</v>
       </c>
       <c r="F35" t="n">
-        <v>-5703</v>
+        <v>-5575</v>
       </c>
       <c r="G35" t="n">
-        <v>37277</v>
+        <v>37406</v>
       </c>
     </row>
     <row r="36">
@@ -4050,22 +4076,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>38913</v>
+        <v>38932</v>
       </c>
       <c r="C36" t="n">
         <v>4997</v>
       </c>
       <c r="D36" t="n">
-        <v>-581</v>
+        <v>-580</v>
       </c>
       <c r="E36" t="n">
-        <v>43330</v>
+        <v>43349</v>
       </c>
       <c r="F36" t="n">
-        <v>-5596</v>
+        <v>-5621</v>
       </c>
       <c r="G36" t="n">
-        <v>37734</v>
+        <v>37727</v>
       </c>
     </row>
     <row r="37">
@@ -4073,22 +4099,22 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>41039</v>
+        <v>41018</v>
       </c>
       <c r="C37" t="n">
         <v>5165</v>
       </c>
       <c r="D37" t="n">
-        <v>-613</v>
+        <v>-612</v>
       </c>
       <c r="E37" t="n">
-        <v>45591</v>
+        <v>45570</v>
       </c>
       <c r="F37" t="n">
-        <v>-6671</v>
+        <v>-6788</v>
       </c>
       <c r="G37" t="n">
-        <v>38920</v>
+        <v>38782</v>
       </c>
     </row>
     <row r="38">
@@ -4105,13 +4131,13 @@
         <v>-646</v>
       </c>
       <c r="E38" t="n">
-        <v>45514</v>
+        <v>45513</v>
       </c>
       <c r="F38" t="n">
-        <v>-6163</v>
+        <v>-6149</v>
       </c>
       <c r="G38" t="n">
-        <v>39351</v>
+        <v>39364</v>
       </c>
     </row>
     <row r="39">
@@ -4119,7 +4145,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>41768</v>
+        <v>41770</v>
       </c>
       <c r="C39" t="n">
         <v>5377</v>
@@ -4128,13 +4154,13 @@
         <v>-579</v>
       </c>
       <c r="E39" t="n">
-        <v>46567</v>
+        <v>46568</v>
       </c>
       <c r="F39" t="n">
-        <v>-6224</v>
+        <v>-6096</v>
       </c>
       <c r="G39" t="n">
-        <v>40342</v>
+        <v>40472</v>
       </c>
     </row>
     <row r="40">
@@ -4142,7 +4168,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>41414</v>
+        <v>41434</v>
       </c>
       <c r="C40" t="n">
         <v>5367</v>
@@ -4151,13 +4177,13 @@
         <v>-471</v>
       </c>
       <c r="E40" t="n">
-        <v>46311</v>
+        <v>46331</v>
       </c>
       <c r="F40" t="n">
-        <v>-6159</v>
+        <v>-6185</v>
       </c>
       <c r="G40" t="n">
-        <v>40151</v>
+        <v>40146</v>
       </c>
     </row>
     <row r="41">
@@ -4165,7 +4191,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>42453</v>
+        <v>42431</v>
       </c>
       <c r="C41" t="n">
         <v>5545</v>
@@ -4174,13 +4200,13 @@
         <v>-582</v>
       </c>
       <c r="E41" t="n">
-        <v>47416</v>
+        <v>47394</v>
       </c>
       <c r="F41" t="n">
-        <v>-6727</v>
+        <v>-6844</v>
       </c>
       <c r="G41" t="n">
-        <v>40689</v>
+        <v>40551</v>
       </c>
     </row>
     <row r="42">
@@ -4188,7 +4214,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>42990</v>
+        <v>42991</v>
       </c>
       <c r="C42" t="n">
         <v>5693</v>
@@ -4197,13 +4223,13 @@
         <v>-352</v>
       </c>
       <c r="E42" t="n">
-        <v>48331</v>
+        <v>48332</v>
       </c>
       <c r="F42" t="n">
-        <v>-6676</v>
+        <v>-6662</v>
       </c>
       <c r="G42" t="n">
-        <v>41655</v>
+        <v>41670</v>
       </c>
     </row>
     <row r="43">
@@ -4211,22 +4237,22 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>43714</v>
+        <v>43713</v>
       </c>
       <c r="C43" t="n">
         <v>5920</v>
       </c>
       <c r="D43" t="n">
-        <v>-366</v>
+        <v>-367</v>
       </c>
       <c r="E43" t="n">
         <v>49267</v>
       </c>
       <c r="F43" t="n">
-        <v>-7508</v>
+        <v>-7379</v>
       </c>
       <c r="G43" t="n">
-        <v>41760</v>
+        <v>41887</v>
       </c>
     </row>
     <row r="44">
@@ -4234,7 +4260,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>43020</v>
+        <v>43037</v>
       </c>
       <c r="C44" t="n">
         <v>6087</v>
@@ -4243,13 +4269,13 @@
         <v>-314</v>
       </c>
       <c r="E44" t="n">
-        <v>48792</v>
+        <v>48810</v>
       </c>
       <c r="F44" t="n">
-        <v>-6211</v>
+        <v>-6236</v>
       </c>
       <c r="G44" t="n">
-        <v>42582</v>
+        <v>42574</v>
       </c>
     </row>
     <row r="45">
@@ -4257,7 +4283,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>44958</v>
+        <v>44938</v>
       </c>
       <c r="C45" t="n">
         <v>5902</v>
@@ -4266,13 +4292,13 @@
         <v>-520</v>
       </c>
       <c r="E45" t="n">
-        <v>50339</v>
+        <v>50320</v>
       </c>
       <c r="F45" t="n">
-        <v>-6771</v>
+        <v>-6888</v>
       </c>
       <c r="G45" t="n">
-        <v>43568</v>
+        <v>43432</v>
       </c>
     </row>
     <row r="46">
@@ -4280,7 +4306,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>45128</v>
+        <v>45130</v>
       </c>
       <c r="C46" t="n">
         <v>6382</v>
@@ -4289,13 +4315,13 @@
         <v>-288</v>
       </c>
       <c r="E46" t="n">
-        <v>51223</v>
+        <v>51225</v>
       </c>
       <c r="F46" t="n">
-        <v>-6963</v>
+        <v>-6950</v>
       </c>
       <c r="G46" t="n">
-        <v>44259</v>
+        <v>44275</v>
       </c>
     </row>
     <row r="47">
@@ -4315,10 +4341,10 @@
         <v>51366</v>
       </c>
       <c r="F47" t="n">
-        <v>-6434</v>
+        <v>-6306</v>
       </c>
       <c r="G47" t="n">
-        <v>44932</v>
+        <v>45060</v>
       </c>
     </row>
     <row r="48">
@@ -4326,22 +4352,22 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>45762</v>
+        <v>45781</v>
       </c>
       <c r="C48" t="n">
-        <v>6546</v>
+        <v>6545</v>
       </c>
       <c r="D48" t="n">
-        <v>-335</v>
+        <v>-334</v>
       </c>
       <c r="E48" t="n">
-        <v>51973</v>
+        <v>51992</v>
       </c>
       <c r="F48" t="n">
-        <v>-7851</v>
+        <v>-7877</v>
       </c>
       <c r="G48" t="n">
-        <v>44122</v>
+        <v>44115</v>
       </c>
     </row>
     <row r="49">
@@ -4349,7 +4375,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>45960</v>
+        <v>45940</v>
       </c>
       <c r="C49" t="n">
         <v>6449</v>
@@ -4358,13 +4384,13 @@
         <v>-268</v>
       </c>
       <c r="E49" t="n">
-        <v>52141</v>
+        <v>52121</v>
       </c>
       <c r="F49" t="n">
-        <v>-6175</v>
+        <v>-6292</v>
       </c>
       <c r="G49" t="n">
-        <v>45965</v>
+        <v>45828</v>
       </c>
     </row>
     <row r="50">
@@ -4372,7 +4398,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>48850</v>
+        <v>48853</v>
       </c>
       <c r="C50" t="n">
         <v>6662</v>
@@ -4381,13 +4407,13 @@
         <v>-321</v>
       </c>
       <c r="E50" t="n">
-        <v>55190</v>
+        <v>55193</v>
       </c>
       <c r="F50" t="n">
-        <v>-8423</v>
+        <v>-8409</v>
       </c>
       <c r="G50" t="n">
-        <v>46767</v>
+        <v>46784</v>
       </c>
     </row>
     <row r="51">
@@ -4395,7 +4421,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>48104</v>
+        <v>48103</v>
       </c>
       <c r="C51" t="n">
         <v>6596</v>
@@ -4404,13 +4430,13 @@
         <v>-336</v>
       </c>
       <c r="E51" t="n">
-        <v>54364</v>
+        <v>54363</v>
       </c>
       <c r="F51" t="n">
-        <v>-8280</v>
+        <v>-8151</v>
       </c>
       <c r="G51" t="n">
-        <v>46084</v>
+        <v>46212</v>
       </c>
     </row>
     <row r="52">
@@ -4418,7 +4444,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="n">
-        <v>47279</v>
+        <v>47296</v>
       </c>
       <c r="C52" t="n">
         <v>6047</v>
@@ -4427,13 +4453,13 @@
         <v>-363</v>
       </c>
       <c r="E52" t="n">
-        <v>52963</v>
+        <v>52980</v>
       </c>
       <c r="F52" t="n">
-        <v>-7169</v>
+        <v>-7194</v>
       </c>
       <c r="G52" t="n">
-        <v>45794</v>
+        <v>45786</v>
       </c>
     </row>
     <row r="53">
@@ -4441,7 +4467,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>49504</v>
+        <v>49488</v>
       </c>
       <c r="C53" t="n">
         <v>5898</v>
@@ -4450,13 +4476,13 @@
         <v>-234</v>
       </c>
       <c r="E53" t="n">
-        <v>55168</v>
+        <v>55152</v>
       </c>
       <c r="F53" t="n">
-        <v>-7908</v>
+        <v>-8025</v>
       </c>
       <c r="G53" t="n">
-        <v>47260</v>
+        <v>47127</v>
       </c>
     </row>
     <row r="54">
@@ -4464,7 +4490,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>48340</v>
+        <v>48343</v>
       </c>
       <c r="C54" t="n">
         <v>5723</v>
@@ -4473,13 +4499,13 @@
         <v>-378</v>
       </c>
       <c r="E54" t="n">
-        <v>53686</v>
+        <v>53688</v>
       </c>
       <c r="F54" t="n">
-        <v>-7117</v>
+        <v>-7104</v>
       </c>
       <c r="G54" t="n">
-        <v>46568</v>
+        <v>46585</v>
       </c>
     </row>
     <row r="55">
@@ -4487,7 +4513,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>47357</v>
+        <v>47353</v>
       </c>
       <c r="C55" t="n">
         <v>5343</v>
@@ -4496,13 +4522,13 @@
         <v>-344</v>
       </c>
       <c r="E55" t="n">
-        <v>52356</v>
+        <v>52352</v>
       </c>
       <c r="F55" t="n">
-        <v>-7143</v>
+        <v>-7014</v>
       </c>
       <c r="G55" t="n">
-        <v>45214</v>
+        <v>45338</v>
       </c>
     </row>
     <row r="56">
@@ -4510,7 +4536,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>47127</v>
+        <v>47146</v>
       </c>
       <c r="C56" t="n">
         <v>5128</v>
@@ -4519,13 +4545,13 @@
         <v>-339</v>
       </c>
       <c r="E56" t="n">
-        <v>51916</v>
+        <v>51934</v>
       </c>
       <c r="F56" t="n">
-        <v>-8200</v>
+        <v>-8226</v>
       </c>
       <c r="G56" t="n">
-        <v>43715</v>
+        <v>43708</v>
       </c>
     </row>
     <row r="57">
@@ -4533,7 +4559,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>45518</v>
+        <v>45505</v>
       </c>
       <c r="C57" t="n">
         <v>4483</v>
@@ -4542,13 +4568,13 @@
         <v>-238</v>
       </c>
       <c r="E57" t="n">
-        <v>49763</v>
+        <v>49750</v>
       </c>
       <c r="F57" t="n">
-        <v>-6857</v>
+        <v>-6973</v>
       </c>
       <c r="G57" t="n">
-        <v>42907</v>
+        <v>42777</v>
       </c>
     </row>
     <row r="58">
@@ -4556,7 +4582,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>46089</v>
+        <v>46086</v>
       </c>
       <c r="C58" t="n">
         <v>4202</v>
@@ -4565,13 +4591,13 @@
         <v>-314</v>
       </c>
       <c r="E58" t="n">
-        <v>49977</v>
+        <v>49975</v>
       </c>
       <c r="F58" t="n">
-        <v>-8317</v>
+        <v>-8303</v>
       </c>
       <c r="G58" t="n">
-        <v>41660</v>
+        <v>41671</v>
       </c>
     </row>
     <row r="59">
@@ -4579,22 +4605,22 @@
         <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>45653</v>
+        <v>45650</v>
       </c>
       <c r="C59" t="n">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="D59" t="n">
         <v>-347</v>
       </c>
       <c r="E59" t="n">
-        <v>49727</v>
+        <v>49723</v>
       </c>
       <c r="F59" t="n">
-        <v>-8504</v>
+        <v>-8375</v>
       </c>
       <c r="G59" t="n">
-        <v>41223</v>
+        <v>41348</v>
       </c>
     </row>
     <row r="60">
@@ -4602,7 +4628,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
       <c r="C60" t="n">
         <v>4461</v>
@@ -4611,13 +4637,13 @@
         <v>-325</v>
       </c>
       <c r="E60" t="n">
-        <v>49037</v>
+        <v>49051</v>
       </c>
       <c r="F60" t="n">
-        <v>-8887</v>
+        <v>-8912</v>
       </c>
       <c r="G60" t="n">
-        <v>40151</v>
+        <v>40139</v>
       </c>
     </row>
     <row r="61">
@@ -4625,7 +4651,7 @@
         <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>44435</v>
+        <v>44433</v>
       </c>
       <c r="C61" t="n">
         <v>4308</v>
@@ -4634,13 +4660,13 @@
         <v>-332</v>
       </c>
       <c r="E61" t="n">
-        <v>48411</v>
+        <v>48409</v>
       </c>
       <c r="F61" t="n">
-        <v>-7941</v>
+        <v>-8058</v>
       </c>
       <c r="G61" t="n">
-        <v>40469</v>
+        <v>40350</v>
       </c>
     </row>
     <row r="62">
@@ -4648,7 +4674,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="n">
-        <v>45918</v>
+        <v>45905</v>
       </c>
       <c r="C62" t="n">
         <v>4248</v>
@@ -4657,13 +4683,13 @@
         <v>-321</v>
       </c>
       <c r="E62" t="n">
-        <v>49845</v>
+        <v>49832</v>
       </c>
       <c r="F62" t="n">
-        <v>-8885</v>
+        <v>-8871</v>
       </c>
       <c r="G62" t="n">
-        <v>40960</v>
+        <v>40961</v>
       </c>
     </row>
     <row r="63">
@@ -4671,7 +4697,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>45769</v>
+        <v>45777</v>
       </c>
       <c r="C63" t="n">
         <v>4366</v>
@@ -4680,13 +4706,13 @@
         <v>-260</v>
       </c>
       <c r="E63" t="n">
-        <v>49875</v>
+        <v>49883</v>
       </c>
       <c r="F63" t="n">
-        <v>-8635</v>
+        <v>-8507</v>
       </c>
       <c r="G63" t="n">
-        <v>41240</v>
+        <v>41376</v>
       </c>
     </row>
     <row r="64">
@@ -4694,7 +4720,7 @@
         <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>45935</v>
+        <v>45951</v>
       </c>
       <c r="C64" t="n">
         <v>4450</v>
@@ -4703,13 +4729,13 @@
         <v>-290</v>
       </c>
       <c r="E64" t="n">
-        <v>50095</v>
+        <v>50111</v>
       </c>
       <c r="F64" t="n">
-        <v>-7920</v>
+        <v>-7946</v>
       </c>
       <c r="G64" t="n">
-        <v>42174</v>
+        <v>42165</v>
       </c>
     </row>
     <row r="65">
@@ -4717,7 +4743,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>45882</v>
+        <v>45867</v>
       </c>
       <c r="C65" t="n">
         <v>4296</v>
@@ -4726,13 +4752,13 @@
         <v>-308</v>
       </c>
       <c r="E65" t="n">
-        <v>49871</v>
+        <v>49856</v>
       </c>
       <c r="F65" t="n">
-        <v>-6197</v>
+        <v>-6314</v>
       </c>
       <c r="G65" t="n">
-        <v>43674</v>
+        <v>43542</v>
       </c>
     </row>
     <row r="66">
@@ -4740,7 +4766,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>46329</v>
+        <v>46308</v>
       </c>
       <c r="C66" t="n">
         <v>4230</v>
@@ -4749,13 +4775,13 @@
         <v>-284</v>
       </c>
       <c r="E66" t="n">
-        <v>50275</v>
+        <v>50253</v>
       </c>
       <c r="F66" t="n">
-        <v>-9413</v>
+        <v>-9399</v>
       </c>
       <c r="G66" t="n">
-        <v>40862</v>
+        <v>40854</v>
       </c>
     </row>
     <row r="67">
@@ -4763,7 +4789,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>47156</v>
+        <v>47186</v>
       </c>
       <c r="C67" t="n">
         <v>4095</v>
@@ -4772,13 +4798,13 @@
         <v>-283</v>
       </c>
       <c r="E67" t="n">
-        <v>50968</v>
+        <v>50999</v>
       </c>
       <c r="F67" t="n">
-        <v>-9626</v>
+        <v>-9497</v>
       </c>
       <c r="G67" t="n">
-        <v>41343</v>
+        <v>41501</v>
       </c>
     </row>
     <row r="68">
@@ -4786,7 +4812,7 @@
         <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>46292</v>
+        <v>46321</v>
       </c>
       <c r="C68" t="n">
         <v>4030</v>
@@ -4795,13 +4821,13 @@
         <v>-277</v>
       </c>
       <c r="E68" t="n">
-        <v>50046</v>
+        <v>50075</v>
       </c>
       <c r="F68" t="n">
-        <v>-9293</v>
+        <v>-9318</v>
       </c>
       <c r="G68" t="n">
-        <v>40753</v>
+        <v>40757</v>
       </c>
     </row>
     <row r="69">
@@ -4809,7 +4835,7 @@
         <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>46280</v>
+        <v>46200</v>
       </c>
       <c r="C69" t="n">
         <v>4228</v>
@@ -4818,13 +4844,13 @@
         <v>-285</v>
       </c>
       <c r="E69" t="n">
-        <v>50224</v>
+        <v>50143</v>
       </c>
       <c r="F69" t="n">
-        <v>-9423</v>
+        <v>-9540</v>
       </c>
       <c r="G69" t="n">
-        <v>40800</v>
+        <v>40603</v>
       </c>
     </row>
     <row r="70">
@@ -4832,7 +4858,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>46005</v>
+        <v>46021</v>
       </c>
       <c r="C70" t="n">
         <v>4158</v>
@@ -4841,13 +4867,13 @@
         <v>-277</v>
       </c>
       <c r="E70" t="n">
-        <v>49886</v>
+        <v>49902</v>
       </c>
       <c r="F70" t="n">
-        <v>-10018</v>
+        <v>-10004</v>
       </c>
       <c r="G70" t="n">
-        <v>39868</v>
+        <v>39898</v>
       </c>
     </row>
     <row r="71">
@@ -4855,7 +4881,7 @@
         <v>76</v>
       </c>
       <c r="B71" t="n">
-        <v>47042</v>
+        <v>47094</v>
       </c>
       <c r="C71" t="n">
         <v>4133</v>
@@ -4864,13 +4890,13 @@
         <v>-286</v>
       </c>
       <c r="E71" t="n">
-        <v>50888</v>
+        <v>50941</v>
       </c>
       <c r="F71" t="n">
-        <v>-9306</v>
+        <v>-9177</v>
       </c>
       <c r="G71" t="n">
-        <v>41583</v>
+        <v>41764</v>
       </c>
     </row>
     <row r="72">
@@ -4878,7 +4904,7 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>45926</v>
+        <v>45975</v>
       </c>
       <c r="C72" t="n">
         <v>4247</v>
@@ -4887,13 +4913,13 @@
         <v>-276</v>
       </c>
       <c r="E72" t="n">
-        <v>49897</v>
+        <v>49947</v>
       </c>
       <c r="F72" t="n">
-        <v>-9557</v>
+        <v>-9583</v>
       </c>
       <c r="G72" t="n">
-        <v>40340</v>
+        <v>40364</v>
       </c>
     </row>
     <row r="73">
@@ -4901,7 +4927,7 @@
         <v>78</v>
       </c>
       <c r="B73" t="n">
-        <v>46714</v>
+        <v>46532</v>
       </c>
       <c r="C73" t="n">
         <v>4140</v>
@@ -4910,13 +4936,13 @@
         <v>-308</v>
       </c>
       <c r="E73" t="n">
-        <v>50546</v>
+        <v>50364</v>
       </c>
       <c r="F73" t="n">
-        <v>-9252</v>
+        <v>-9368</v>
       </c>
       <c r="G73" t="n">
-        <v>41295</v>
+        <v>40995</v>
       </c>
     </row>
     <row r="74">
@@ -4924,7 +4950,7 @@
         <v>79</v>
       </c>
       <c r="B74" t="n">
-        <v>45509</v>
+        <v>45597</v>
       </c>
       <c r="C74" t="n">
         <v>4325</v>
@@ -4933,13 +4959,13 @@
         <v>-288</v>
       </c>
       <c r="E74" t="n">
-        <v>49547</v>
+        <v>49634</v>
       </c>
       <c r="F74" t="n">
-        <v>-7915</v>
+        <v>-7901</v>
       </c>
       <c r="G74" t="n">
-        <v>41632</v>
+        <v>41733</v>
       </c>
     </row>
     <row r="75">
@@ -4947,7 +4973,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="n">
-        <v>47062</v>
+        <v>47128</v>
       </c>
       <c r="C75" t="n">
         <v>4204</v>
@@ -4956,13 +4982,13 @@
         <v>-292</v>
       </c>
       <c r="E75" t="n">
-        <v>50974</v>
+        <v>51041</v>
       </c>
       <c r="F75" t="n">
-        <v>-8846</v>
+        <v>-8718</v>
       </c>
       <c r="G75" t="n">
-        <v>42128</v>
+        <v>42323</v>
       </c>
     </row>
     <row r="76">
@@ -4970,7 +4996,7 @@
         <v>81</v>
       </c>
       <c r="B76" t="n">
-        <v>47793</v>
+        <v>47854</v>
       </c>
       <c r="C76" t="n">
         <v>4389</v>
@@ -4979,13 +5005,13 @@
         <v>-284</v>
       </c>
       <c r="E76" t="n">
-        <v>51898</v>
+        <v>51960</v>
       </c>
       <c r="F76" t="n">
-        <v>-8178</v>
+        <v>-8204</v>
       </c>
       <c r="G76" t="n">
-        <v>43720</v>
+        <v>43756</v>
       </c>
     </row>
     <row r="77">
@@ -4993,7 +5019,7 @@
         <v>82</v>
       </c>
       <c r="B77" t="n">
-        <v>47912</v>
+        <v>47635</v>
       </c>
       <c r="C77" t="n">
         <v>4321</v>
@@ -5002,13 +5028,13 @@
         <v>-244</v>
       </c>
       <c r="E77" t="n">
-        <v>51990</v>
+        <v>51713</v>
       </c>
       <c r="F77" t="n">
-        <v>-7009</v>
+        <v>-7126</v>
       </c>
       <c r="G77" t="n">
-        <v>44981</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="78">
@@ -5016,22 +5042,22 @@
         <v>83</v>
       </c>
       <c r="B78" t="n">
-        <v>49397</v>
+        <v>49557</v>
       </c>
       <c r="C78" t="n">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="D78" t="n">
         <v>-254</v>
       </c>
       <c r="E78" t="n">
-        <v>53641</v>
+        <v>53801</v>
       </c>
       <c r="F78" t="n">
-        <v>-8518</v>
+        <v>-8504</v>
       </c>
       <c r="G78" t="n">
-        <v>45123</v>
+        <v>45297</v>
       </c>
     </row>
     <row r="79">
@@ -5039,7 +5065,7 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>51337</v>
+        <v>51404</v>
       </c>
       <c r="C79" t="n">
         <v>4770</v>
@@ -5048,13 +5074,13 @@
         <v>-252</v>
       </c>
       <c r="E79" t="n">
-        <v>55855</v>
+        <v>55922</v>
       </c>
       <c r="F79" t="n">
-        <v>-8817</v>
+        <v>-8688</v>
       </c>
       <c r="G79" t="n">
-        <v>47038</v>
+        <v>47234</v>
       </c>
     </row>
     <row r="80">
@@ -5062,7 +5088,7 @@
         <v>85</v>
       </c>
       <c r="B80" t="n">
-        <v>51634</v>
+        <v>51669</v>
       </c>
       <c r="C80" t="n">
         <v>4524</v>
@@ -5071,13 +5097,13 @@
         <v>-247</v>
       </c>
       <c r="E80" t="n">
-        <v>55911</v>
+        <v>55946</v>
       </c>
       <c r="F80" t="n">
-        <v>-8901</v>
+        <v>-8927</v>
       </c>
       <c r="G80" t="n">
-        <v>47010</v>
+        <v>47019</v>
       </c>
     </row>
     <row r="81">
@@ -5085,7 +5111,7 @@
         <v>86</v>
       </c>
       <c r="B81" t="n">
-        <v>51462</v>
+        <v>51201</v>
       </c>
       <c r="C81" t="n">
         <v>5084</v>
@@ -5094,13 +5120,13 @@
         <v>-247</v>
       </c>
       <c r="E81" t="n">
-        <v>56299</v>
+        <v>56037</v>
       </c>
       <c r="F81" t="n">
-        <v>-7909</v>
+        <v>-8026</v>
       </c>
       <c r="G81" t="n">
-        <v>48390</v>
+        <v>48011</v>
       </c>
     </row>
     <row r="82">
@@ -5108,22 +5134,22 @@
         <v>87</v>
       </c>
       <c r="B82" t="n">
-        <v>64833</v>
+        <v>64999</v>
       </c>
       <c r="C82" t="n">
-        <v>4854</v>
+        <v>4855</v>
       </c>
       <c r="D82" t="n">
         <v>-228</v>
       </c>
       <c r="E82" t="n">
-        <v>69459</v>
+        <v>69625</v>
       </c>
       <c r="F82" t="n">
-        <v>-16645</v>
+        <v>-16632</v>
       </c>
       <c r="G82" t="n">
-        <v>52814</v>
+        <v>52994</v>
       </c>
     </row>
     <row r="83">
@@ -5131,7 +5157,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>63074</v>
+        <v>63134</v>
       </c>
       <c r="C83" t="n">
         <v>5064</v>
@@ -5140,13 +5166,13 @@
         <v>-227</v>
       </c>
       <c r="E83" t="n">
-        <v>67911</v>
+        <v>67971</v>
       </c>
       <c r="F83" t="n">
-        <v>-11498</v>
+        <v>-11370</v>
       </c>
       <c r="G83" t="n">
-        <v>56413</v>
+        <v>56601</v>
       </c>
     </row>
     <row r="84">
@@ -5154,22 +5180,22 @@
         <v>89</v>
       </c>
       <c r="B84" t="n">
-        <v>64937</v>
+        <v>64916</v>
       </c>
       <c r="C84" t="n">
-        <v>5047</v>
+        <v>5046</v>
       </c>
       <c r="D84" t="n">
         <v>-230</v>
       </c>
       <c r="E84" t="n">
-        <v>69753</v>
+        <v>69732</v>
       </c>
       <c r="F84" t="n">
-        <v>-18487</v>
+        <v>-18513</v>
       </c>
       <c r="G84" t="n">
-        <v>51266</v>
+        <v>51219</v>
       </c>
     </row>
     <row r="85">
@@ -5177,22 +5203,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="n">
-        <v>65979</v>
+        <v>65828</v>
       </c>
       <c r="C85" t="n">
-        <v>5053</v>
+        <v>5052</v>
       </c>
       <c r="D85" t="n">
         <v>-226</v>
       </c>
       <c r="E85" t="n">
-        <v>70806</v>
+        <v>70655</v>
       </c>
       <c r="F85" t="n">
-        <v>-16522</v>
+        <v>-16638</v>
       </c>
       <c r="G85" t="n">
-        <v>54284</v>
+        <v>54016</v>
       </c>
     </row>
     <row r="86">
@@ -5200,22 +5226,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="n">
-        <v>63574</v>
+        <v>63699</v>
       </c>
       <c r="C86" t="n">
-        <v>5357</v>
+        <v>5358</v>
       </c>
       <c r="D86" t="n">
-        <v>-238</v>
+        <v>-239</v>
       </c>
       <c r="E86" t="n">
-        <v>68693</v>
+        <v>68818</v>
       </c>
       <c r="F86" t="n">
-        <v>-11623</v>
+        <v>-11609</v>
       </c>
       <c r="G86" t="n">
-        <v>57070</v>
+        <v>57209</v>
       </c>
     </row>
     <row r="87">
@@ -5223,22 +5249,22 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>64532</v>
+        <v>64559</v>
       </c>
       <c r="C87" t="n">
-        <v>5478</v>
+        <v>5477</v>
       </c>
       <c r="D87" t="n">
         <v>-237</v>
       </c>
       <c r="E87" t="n">
-        <v>69772</v>
+        <v>69799</v>
       </c>
       <c r="F87" t="n">
-        <v>-11855</v>
+        <v>-11726</v>
       </c>
       <c r="G87" t="n">
-        <v>57917</v>
+        <v>58073</v>
       </c>
     </row>
     <row r="88">
@@ -5246,22 +5272,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="n">
-        <v>63982</v>
+        <v>63923</v>
       </c>
       <c r="C88" t="n">
-        <v>5195</v>
+        <v>5194</v>
       </c>
       <c r="D88" t="n">
         <v>-237</v>
       </c>
       <c r="E88" t="n">
-        <v>68939</v>
+        <v>68881</v>
       </c>
       <c r="F88" t="n">
-        <v>-15328</v>
+        <v>-15354</v>
       </c>
       <c r="G88" t="n">
-        <v>53611</v>
+        <v>53527</v>
       </c>
     </row>
     <row r="89">
@@ -5269,22 +5295,22 @@
         <v>94</v>
       </c>
       <c r="B89" t="n">
-        <v>72047</v>
+        <v>72020</v>
       </c>
       <c r="C89" t="n">
-        <v>5259</v>
+        <v>5258</v>
       </c>
       <c r="D89" t="n">
         <v>-243</v>
       </c>
       <c r="E89" t="n">
-        <v>77063</v>
+        <v>77034</v>
       </c>
       <c r="F89" t="n">
-        <v>-14323</v>
+        <v>-14440</v>
       </c>
       <c r="G89" t="n">
-        <v>62740</v>
+        <v>62595</v>
       </c>
     </row>
     <row r="90">
@@ -5292,22 +5318,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="n">
-        <v>68405</v>
+        <v>68466</v>
       </c>
       <c r="C90" t="n">
-        <v>5556</v>
+        <v>5558</v>
       </c>
       <c r="D90" t="n">
         <v>-240</v>
       </c>
       <c r="E90" t="n">
-        <v>73721</v>
+        <v>73784</v>
       </c>
       <c r="F90" t="n">
-        <v>-15635</v>
+        <v>-15622</v>
       </c>
       <c r="G90" t="n">
-        <v>58086</v>
+        <v>58162</v>
       </c>
     </row>
     <row r="91">
@@ -5315,22 +5341,22 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>71082</v>
+        <v>71063</v>
       </c>
       <c r="C91" t="n">
-        <v>5232</v>
+        <v>5231</v>
       </c>
       <c r="D91" t="n">
         <v>-240</v>
       </c>
       <c r="E91" t="n">
-        <v>76073</v>
+        <v>76055</v>
       </c>
       <c r="F91" t="n">
-        <v>-16727</v>
+        <v>-16598</v>
       </c>
       <c r="G91" t="n">
-        <v>59347</v>
+        <v>59457</v>
       </c>
     </row>
     <row r="92">
@@ -5338,22 +5364,22 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>73049</v>
+        <v>72984</v>
       </c>
       <c r="C92" t="n">
-        <v>5490</v>
+        <v>5489</v>
       </c>
       <c r="D92" t="n">
-        <v>-245</v>
+        <v>-243</v>
       </c>
       <c r="E92" t="n">
-        <v>78295</v>
+        <v>78230</v>
       </c>
       <c r="F92" t="n">
-        <v>-14837</v>
+        <v>-14862</v>
       </c>
       <c r="G92" t="n">
-        <v>63458</v>
+        <v>63368</v>
       </c>
     </row>
     <row r="93">
@@ -5361,22 +5387,22 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>76981</v>
+        <v>77086</v>
       </c>
       <c r="C93" t="n">
-        <v>5701</v>
+        <v>5699</v>
       </c>
       <c r="D93" t="n">
         <v>-250</v>
       </c>
       <c r="E93" t="n">
-        <v>82431</v>
+        <v>82535</v>
       </c>
       <c r="F93" t="n">
-        <v>-17542</v>
+        <v>-17658</v>
       </c>
       <c r="G93" t="n">
-        <v>64890</v>
+        <v>64876</v>
       </c>
     </row>
     <row r="94">
@@ -5384,22 +5410,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="n">
-        <v>77901</v>
+        <v>77862</v>
       </c>
       <c r="C94" t="n">
-        <v>5537</v>
+        <v>5541</v>
       </c>
       <c r="D94" t="n">
-        <v>-251</v>
+        <v>-252</v>
       </c>
       <c r="E94" t="n">
-        <v>83187</v>
+        <v>83151</v>
       </c>
       <c r="F94" t="n">
-        <v>-18900</v>
+        <v>-18886</v>
       </c>
       <c r="G94" t="n">
-        <v>64287</v>
+        <v>64265</v>
       </c>
     </row>
     <row r="95">
@@ -5407,22 +5433,22 @@
         <v>100</v>
       </c>
       <c r="B95" t="n">
-        <v>80294</v>
+        <v>80210</v>
       </c>
       <c r="C95" t="n">
         <v>5543</v>
       </c>
       <c r="D95" t="n">
-        <v>-252</v>
+        <v>-254</v>
       </c>
       <c r="E95" t="n">
-        <v>85585</v>
+        <v>85499</v>
       </c>
       <c r="F95" t="n">
-        <v>-18004</v>
+        <v>-17875</v>
       </c>
       <c r="G95" t="n">
-        <v>67581</v>
+        <v>67624</v>
       </c>
     </row>
     <row r="96">
@@ -5430,22 +5456,22 @@
         <v>101</v>
       </c>
       <c r="B96" t="n">
-        <v>79012</v>
+        <v>79014</v>
       </c>
       <c r="C96" t="n">
-        <v>5804</v>
+        <v>5802</v>
       </c>
       <c r="D96" t="n">
-        <v>-263</v>
+        <v>-259</v>
       </c>
       <c r="E96" t="n">
-        <v>84553</v>
+        <v>84557</v>
       </c>
       <c r="F96" t="n">
-        <v>-18462</v>
+        <v>-18488</v>
       </c>
       <c r="G96" t="n">
-        <v>66091</v>
+        <v>66069</v>
       </c>
     </row>
     <row r="97">
@@ -5453,22 +5479,22 @@
         <v>102</v>
       </c>
       <c r="B97" t="n">
-        <v>80182</v>
+        <v>80377</v>
       </c>
       <c r="C97" t="n">
-        <v>5749</v>
+        <v>5747</v>
       </c>
       <c r="D97" t="n">
         <v>-269</v>
       </c>
       <c r="E97" t="n">
-        <v>85663</v>
+        <v>85855</v>
       </c>
       <c r="F97" t="n">
-        <v>-22111</v>
+        <v>-22227</v>
       </c>
       <c r="G97" t="n">
-        <v>63552</v>
+        <v>63628</v>
       </c>
     </row>
     <row r="98">
@@ -5476,22 +5502,22 @@
         <v>103</v>
       </c>
       <c r="B98" t="n">
-        <v>81740</v>
+        <v>81578</v>
       </c>
       <c r="C98" t="n">
-        <v>6047</v>
+        <v>6050</v>
       </c>
       <c r="D98" t="n">
-        <v>-242</v>
+        <v>-244</v>
       </c>
       <c r="E98" t="n">
-        <v>87545</v>
+        <v>87384</v>
       </c>
       <c r="F98" t="n">
-        <v>-19626</v>
+        <v>-19613</v>
       </c>
       <c r="G98" t="n">
-        <v>67919</v>
+        <v>67772</v>
       </c>
     </row>
     <row r="99">
@@ -5499,22 +5525,22 @@
         <v>104</v>
       </c>
       <c r="B99" t="n">
-        <v>83671</v>
+        <v>83540</v>
       </c>
       <c r="C99" t="n">
-        <v>6061</v>
+        <v>6068</v>
       </c>
       <c r="D99" t="n">
-        <v>-243</v>
+        <v>-248</v>
       </c>
       <c r="E99" t="n">
-        <v>89488</v>
+        <v>89360</v>
       </c>
       <c r="F99" t="n">
-        <v>-21193</v>
+        <v>-21064</v>
       </c>
       <c r="G99" t="n">
-        <v>68295</v>
+        <v>68296</v>
       </c>
     </row>
     <row r="100">
@@ -5522,22 +5548,22 @@
         <v>105</v>
       </c>
       <c r="B100" t="n">
-        <v>83376</v>
+        <v>83455</v>
       </c>
       <c r="C100" t="n">
-        <v>6005</v>
+        <v>5998</v>
       </c>
       <c r="D100" t="n">
-        <v>-265</v>
+        <v>-257</v>
       </c>
       <c r="E100" t="n">
-        <v>89116</v>
+        <v>89196</v>
       </c>
       <c r="F100" t="n">
-        <v>-20333</v>
+        <v>-20358</v>
       </c>
       <c r="G100" t="n">
-        <v>68783</v>
+        <v>68837</v>
       </c>
     </row>
     <row r="101">
@@ -5545,22 +5571,22 @@
         <v>106</v>
       </c>
       <c r="B101" t="n">
-        <v>84321</v>
+        <v>84653</v>
       </c>
       <c r="C101" t="n">
-        <v>6133</v>
+        <v>6132</v>
       </c>
       <c r="D101" t="n">
         <v>-268</v>
       </c>
       <c r="E101" t="n">
-        <v>90186</v>
+        <v>90517</v>
       </c>
       <c r="F101" t="n">
-        <v>-19800</v>
+        <v>-19917</v>
       </c>
       <c r="G101" t="n">
-        <v>70385</v>
+        <v>70600</v>
       </c>
     </row>
     <row r="102">
@@ -5568,22 +5594,22 @@
         <v>107</v>
       </c>
       <c r="B102" t="n">
-        <v>89323</v>
+        <v>88907</v>
       </c>
       <c r="C102" t="n">
-        <v>4472</v>
+        <v>4474</v>
       </c>
       <c r="D102" t="n">
-        <v>-298</v>
+        <v>-302</v>
       </c>
       <c r="E102" t="n">
-        <v>93496</v>
+        <v>93078</v>
       </c>
       <c r="F102" t="n">
-        <v>-21071</v>
+        <v>-21057</v>
       </c>
       <c r="G102" t="n">
-        <v>72425</v>
+        <v>72021</v>
       </c>
     </row>
     <row r="103">
@@ -5591,22 +5617,22 @@
         <v>108</v>
       </c>
       <c r="B103" t="n">
-        <v>84903</v>
+        <v>84755</v>
       </c>
       <c r="C103" t="n">
-        <v>5799</v>
+        <v>5814</v>
       </c>
       <c r="D103" t="n">
-        <v>-308</v>
+        <v>-317</v>
       </c>
       <c r="E103" t="n">
-        <v>90394</v>
+        <v>90251</v>
       </c>
       <c r="F103" t="n">
-        <v>-22122</v>
+        <v>-21993</v>
       </c>
       <c r="G103" t="n">
-        <v>68273</v>
+        <v>68258</v>
       </c>
     </row>
     <row r="104">
@@ -5614,22 +5640,22 @@
         <v>109</v>
       </c>
       <c r="B104" t="n">
-        <v>93479</v>
+        <v>93641</v>
       </c>
       <c r="C104" t="n">
-        <v>5779</v>
+        <v>5762</v>
       </c>
       <c r="D104" t="n">
-        <v>-305</v>
+        <v>-290</v>
       </c>
       <c r="E104" t="n">
-        <v>98954</v>
+        <v>99113</v>
       </c>
       <c r="F104" t="n">
-        <v>-30450</v>
+        <v>-30475</v>
       </c>
       <c r="G104" t="n">
-        <v>68504</v>
+        <v>68638</v>
       </c>
     </row>
     <row r="105">
@@ -5637,22 +5663,22 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>88902</v>
+        <v>89491</v>
       </c>
       <c r="C105" t="n">
-        <v>5731</v>
+        <v>5739</v>
       </c>
       <c r="D105" t="n">
-        <v>-311</v>
+        <v>-312</v>
       </c>
       <c r="E105" t="n">
-        <v>94322</v>
+        <v>94918</v>
       </c>
       <c r="F105" t="n">
-        <v>-18856</v>
+        <v>-18973</v>
       </c>
       <c r="G105" t="n">
-        <v>75466</v>
+        <v>75946</v>
       </c>
     </row>
     <row r="106">
@@ -5660,22 +5686,22 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>98185</v>
+        <v>98558</v>
       </c>
       <c r="C106" t="n">
-        <v>5929</v>
+        <v>5940</v>
       </c>
       <c r="D106" t="n">
-        <v>-334</v>
+        <v>-340</v>
       </c>
       <c r="E106" t="n">
-        <v>103781</v>
+        <v>104158</v>
       </c>
       <c r="F106" t="n">
-        <v>-29657</v>
+        <v>-29407</v>
       </c>
       <c r="G106" t="n">
-        <v>74123</v>
+        <v>74751</v>
       </c>
     </row>
     <row r="107">
@@ -5683,22 +5709,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>103208</v>
+        <v>102957</v>
       </c>
       <c r="C107" t="n">
-        <v>6343</v>
+        <v>6354</v>
       </c>
       <c r="D107" t="n">
-        <v>-326</v>
+        <v>-339</v>
       </c>
       <c r="E107" t="n">
-        <v>109225</v>
+        <v>108973</v>
       </c>
       <c r="F107" t="n">
-        <v>-30496</v>
+        <v>-30422</v>
       </c>
       <c r="G107" t="n">
-        <v>78729</v>
+        <v>78551</v>
       </c>
     </row>
     <row r="108">
@@ -5706,22 +5732,45 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>104117</v>
+        <v>104145</v>
       </c>
       <c r="C108" t="n">
-        <v>6419</v>
+        <v>6532</v>
       </c>
       <c r="D108" t="n">
-        <v>-279</v>
+        <v>-352</v>
       </c>
       <c r="E108" t="n">
-        <v>110258</v>
+        <v>110324</v>
       </c>
       <c r="F108" t="n">
-        <v>-27553</v>
+        <v>-27487</v>
       </c>
       <c r="G108" t="n">
-        <v>82704</v>
+        <v>82837</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="n">
+        <v>98170</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6599</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-361</v>
+      </c>
+      <c r="E109" t="n">
+        <v>104408</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-23273</v>
+      </c>
+      <c r="G109" t="n">
+        <v>81134</v>
       </c>
     </row>
   </sheetData>
@@ -5743,22 +5792,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
@@ -8158,22 +8207,22 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>95567</v>
+        <v>94556</v>
       </c>
       <c r="C106" t="n">
-        <v>6269</v>
+        <v>6282</v>
       </c>
       <c r="D106" t="n">
         <v>-319</v>
       </c>
       <c r="E106" t="n">
-        <v>101517</v>
+        <v>100519</v>
       </c>
       <c r="F106" t="n">
         <v>-28557</v>
       </c>
       <c r="G106" t="n">
-        <v>72961</v>
+        <v>71962</v>
       </c>
     </row>
     <row r="107">
@@ -8181,22 +8230,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>95510</v>
+        <v>95603</v>
       </c>
       <c r="C107" t="n">
-        <v>5377</v>
+        <v>5363</v>
       </c>
       <c r="D107" t="n">
         <v>-335</v>
       </c>
       <c r="E107" t="n">
-        <v>100552</v>
+        <v>100631</v>
       </c>
       <c r="F107" t="n">
         <v>-29282</v>
       </c>
       <c r="G107" t="n">
-        <v>71270</v>
+        <v>71349</v>
       </c>
     </row>
     <row r="108">
@@ -8204,22 +8253,45 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>106715</v>
+        <v>106828</v>
       </c>
       <c r="C108" t="n">
-        <v>7649</v>
+        <v>7823</v>
       </c>
       <c r="D108" t="n">
-        <v>-269</v>
+        <v>-362</v>
       </c>
       <c r="E108" t="n">
-        <v>114095</v>
+        <v>114288</v>
       </c>
       <c r="F108" t="n">
         <v>-26879</v>
       </c>
       <c r="G108" t="n">
-        <v>87216</v>
+        <v>87409</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="n">
+        <v>100021</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6476</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-407</v>
+      </c>
+      <c r="E109" t="n">
+        <v>106091</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-22744</v>
+      </c>
+      <c r="G109" t="n">
+        <v>83347</v>
       </c>
     </row>
   </sheetData>
@@ -8241,22 +8313,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
@@ -8264,7 +8336,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>11875</v>
+        <v>11876</v>
       </c>
       <c r="C2" t="n">
         <v>1680</v>
@@ -8273,13 +8345,13 @@
         <v>-311</v>
       </c>
       <c r="E2" t="n">
-        <v>13244</v>
+        <v>13245</v>
       </c>
       <c r="F2" t="n">
-        <v>-1415</v>
+        <v>-1412</v>
       </c>
       <c r="G2" t="n">
-        <v>11829</v>
+        <v>11833</v>
       </c>
     </row>
     <row r="3">
@@ -8299,10 +8371,10 @@
         <v>13600</v>
       </c>
       <c r="F3" t="n">
-        <v>-1100</v>
+        <v>-1067</v>
       </c>
       <c r="G3" t="n">
-        <v>12499</v>
+        <v>12533</v>
       </c>
     </row>
     <row r="4">
@@ -8310,7 +8382,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>12521</v>
+        <v>12519</v>
       </c>
       <c r="C4" t="n">
         <v>1784</v>
@@ -8319,13 +8391,13 @@
         <v>-474</v>
       </c>
       <c r="E4" t="n">
-        <v>13830</v>
+        <v>13829</v>
       </c>
       <c r="F4" t="n">
-        <v>-1461</v>
+        <v>-1406</v>
       </c>
       <c r="G4" t="n">
-        <v>12369</v>
+        <v>12423</v>
       </c>
     </row>
     <row r="5">
@@ -8333,7 +8405,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>12482</v>
+        <v>12483</v>
       </c>
       <c r="C5" t="n">
         <v>1832</v>
@@ -8345,10 +8417,10 @@
         <v>13978</v>
       </c>
       <c r="F5" t="n">
-        <v>-1972</v>
+        <v>-2063</v>
       </c>
       <c r="G5" t="n">
-        <v>12006</v>
+        <v>11915</v>
       </c>
     </row>
     <row r="6">
@@ -8356,7 +8428,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>13140</v>
+        <v>13141</v>
       </c>
       <c r="C6" t="n">
         <v>1853</v>
@@ -8365,13 +8437,13 @@
         <v>-359</v>
       </c>
       <c r="E6" t="n">
-        <v>14633</v>
+        <v>14635</v>
       </c>
       <c r="F6" t="n">
-        <v>-1575</v>
+        <v>-1572</v>
       </c>
       <c r="G6" t="n">
-        <v>13058</v>
+        <v>13063</v>
       </c>
     </row>
     <row r="7">
@@ -8391,10 +8463,10 @@
         <v>14933</v>
       </c>
       <c r="F7" t="n">
-        <v>-1242</v>
+        <v>-1208</v>
       </c>
       <c r="G7" t="n">
-        <v>13691</v>
+        <v>13725</v>
       </c>
     </row>
     <row r="8">
@@ -8402,22 +8474,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>13602</v>
+        <v>13601</v>
       </c>
       <c r="C8" t="n">
         <v>1973</v>
       </c>
       <c r="D8" t="n">
-        <v>-550</v>
+        <v>-549</v>
       </c>
       <c r="E8" t="n">
         <v>15025</v>
       </c>
       <c r="F8" t="n">
-        <v>-1599</v>
+        <v>-1544</v>
       </c>
       <c r="G8" t="n">
-        <v>13426</v>
+        <v>13480</v>
       </c>
     </row>
     <row r="9">
@@ -8437,10 +8509,10 @@
         <v>15523</v>
       </c>
       <c r="F9" t="n">
-        <v>-2120</v>
+        <v>-2211</v>
       </c>
       <c r="G9" t="n">
-        <v>13404</v>
+        <v>13312</v>
       </c>
     </row>
     <row r="10">
@@ -8448,7 +8520,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>14402</v>
+        <v>14397</v>
       </c>
       <c r="C10" t="n">
         <v>2099</v>
@@ -8457,13 +8529,13 @@
         <v>-408</v>
       </c>
       <c r="E10" t="n">
-        <v>16093</v>
+        <v>16088</v>
       </c>
       <c r="F10" t="n">
-        <v>-2017</v>
+        <v>-2014</v>
       </c>
       <c r="G10" t="n">
-        <v>14076</v>
+        <v>14074</v>
       </c>
     </row>
     <row r="11">
@@ -8471,7 +8543,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>15257</v>
+        <v>15262</v>
       </c>
       <c r="C11" t="n">
         <v>2184</v>
@@ -8480,13 +8552,13 @@
         <v>-427</v>
       </c>
       <c r="E11" t="n">
-        <v>17015</v>
+        <v>17020</v>
       </c>
       <c r="F11" t="n">
-        <v>-1882</v>
+        <v>-1849</v>
       </c>
       <c r="G11" t="n">
-        <v>15132</v>
+        <v>15171</v>
       </c>
     </row>
     <row r="12">
@@ -8494,7 +8566,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>15895</v>
+        <v>15894</v>
       </c>
       <c r="C12" t="n">
         <v>2249</v>
@@ -8503,13 +8575,13 @@
         <v>-414</v>
       </c>
       <c r="E12" t="n">
-        <v>17729</v>
+        <v>17728</v>
       </c>
       <c r="F12" t="n">
-        <v>-1769</v>
+        <v>-1714</v>
       </c>
       <c r="G12" t="n">
-        <v>15960</v>
+        <v>16014</v>
       </c>
     </row>
     <row r="13">
@@ -8517,7 +8589,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>16619</v>
+        <v>16617</v>
       </c>
       <c r="C13" t="n">
         <v>2312</v>
@@ -8526,13 +8598,13 @@
         <v>-400</v>
       </c>
       <c r="E13" t="n">
-        <v>18531</v>
+        <v>18530</v>
       </c>
       <c r="F13" t="n">
-        <v>-2372</v>
+        <v>-2463</v>
       </c>
       <c r="G13" t="n">
-        <v>16160</v>
+        <v>16067</v>
       </c>
     </row>
     <row r="14">
@@ -8540,7 +8612,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>17063</v>
+        <v>17065</v>
       </c>
       <c r="C14" t="n">
         <v>2355</v>
@@ -8549,13 +8621,13 @@
         <v>-394</v>
       </c>
       <c r="E14" t="n">
-        <v>19024</v>
+        <v>19026</v>
       </c>
       <c r="F14" t="n">
-        <v>-1924</v>
+        <v>-1921</v>
       </c>
       <c r="G14" t="n">
-        <v>17100</v>
+        <v>17105</v>
       </c>
     </row>
     <row r="15">
@@ -8575,10 +8647,10 @@
         <v>19801</v>
       </c>
       <c r="F15" t="n">
-        <v>-2153</v>
+        <v>-2120</v>
       </c>
       <c r="G15" t="n">
-        <v>17648</v>
+        <v>17681</v>
       </c>
     </row>
     <row r="16">
@@ -8586,7 +8658,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>18737</v>
+        <v>18741</v>
       </c>
       <c r="C16" t="n">
         <v>2540</v>
@@ -8595,13 +8667,13 @@
         <v>-375</v>
       </c>
       <c r="E16" t="n">
-        <v>20903</v>
+        <v>20907</v>
       </c>
       <c r="F16" t="n">
-        <v>-2785</v>
+        <v>-2730</v>
       </c>
       <c r="G16" t="n">
-        <v>18118</v>
+        <v>18177</v>
       </c>
     </row>
     <row r="17">
@@ -8609,7 +8681,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>18634</v>
+        <v>18629</v>
       </c>
       <c r="C17" t="n">
         <v>2668</v>
@@ -8618,13 +8690,13 @@
         <v>-440</v>
       </c>
       <c r="E17" t="n">
-        <v>20862</v>
+        <v>20857</v>
       </c>
       <c r="F17" t="n">
-        <v>-2690</v>
+        <v>-2781</v>
       </c>
       <c r="G17" t="n">
-        <v>18173</v>
+        <v>18077</v>
       </c>
     </row>
     <row r="18">
@@ -8632,7 +8704,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>19524</v>
+        <v>19522</v>
       </c>
       <c r="C18" t="n">
         <v>2622</v>
@@ -8641,13 +8713,13 @@
         <v>-380</v>
       </c>
       <c r="E18" t="n">
-        <v>21766</v>
+        <v>21764</v>
       </c>
       <c r="F18" t="n">
-        <v>-2451</v>
+        <v>-2448</v>
       </c>
       <c r="G18" t="n">
-        <v>19315</v>
+        <v>19316</v>
       </c>
     </row>
     <row r="19">
@@ -8655,7 +8727,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>19647</v>
+        <v>19646</v>
       </c>
       <c r="C19" t="n">
         <v>3000</v>
@@ -8664,13 +8736,13 @@
         <v>-382</v>
       </c>
       <c r="E19" t="n">
-        <v>22265</v>
+        <v>22264</v>
       </c>
       <c r="F19" t="n">
-        <v>-2723</v>
+        <v>-2690</v>
       </c>
       <c r="G19" t="n">
-        <v>19542</v>
+        <v>19574</v>
       </c>
     </row>
     <row r="20">
@@ -8678,22 +8750,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>21444</v>
+        <v>21442</v>
       </c>
       <c r="C20" t="n">
         <v>2852</v>
       </c>
       <c r="D20" t="n">
-        <v>-419</v>
+        <v>-418</v>
       </c>
       <c r="E20" t="n">
-        <v>23877</v>
+        <v>23875</v>
       </c>
       <c r="F20" t="n">
-        <v>-3949</v>
+        <v>-3894</v>
       </c>
       <c r="G20" t="n">
-        <v>19928</v>
+        <v>19981</v>
       </c>
     </row>
     <row r="21">
@@ -8701,7 +8773,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>22168</v>
+        <v>22173</v>
       </c>
       <c r="C21" t="n">
         <v>3108</v>
@@ -8710,13 +8782,13 @@
         <v>-387</v>
       </c>
       <c r="E21" t="n">
-        <v>24889</v>
+        <v>24894</v>
       </c>
       <c r="F21" t="n">
-        <v>-4155</v>
+        <v>-4247</v>
       </c>
       <c r="G21" t="n">
-        <v>20733</v>
+        <v>20647</v>
       </c>
     </row>
     <row r="22">
@@ -8724,22 +8796,22 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>22755</v>
+        <v>22754</v>
       </c>
       <c r="C22" t="n">
         <v>3355</v>
       </c>
       <c r="D22" t="n">
-        <v>-505</v>
+        <v>-504</v>
       </c>
       <c r="E22" t="n">
         <v>25605</v>
       </c>
       <c r="F22" t="n">
-        <v>-3261</v>
+        <v>-3258</v>
       </c>
       <c r="G22" t="n">
-        <v>22344</v>
+        <v>22347</v>
       </c>
     </row>
     <row r="23">
@@ -8747,22 +8819,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>23630</v>
+        <v>23629</v>
       </c>
       <c r="C23" t="n">
         <v>3312</v>
       </c>
       <c r="D23" t="n">
-        <v>-392</v>
+        <v>-393</v>
       </c>
       <c r="E23" t="n">
-        <v>26550</v>
+        <v>26549</v>
       </c>
       <c r="F23" t="n">
-        <v>-2826</v>
+        <v>-2793</v>
       </c>
       <c r="G23" t="n">
-        <v>23724</v>
+        <v>23756</v>
       </c>
     </row>
     <row r="24">
@@ -8776,16 +8848,16 @@
         <v>3496</v>
       </c>
       <c r="D24" t="n">
-        <v>-330</v>
+        <v>-329</v>
       </c>
       <c r="E24" t="n">
         <v>27551</v>
       </c>
       <c r="F24" t="n">
-        <v>-4294</v>
+        <v>-4239</v>
       </c>
       <c r="G24" t="n">
-        <v>23256</v>
+        <v>23311</v>
       </c>
     </row>
     <row r="25">
@@ -8793,7 +8865,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>25581</v>
+        <v>25582</v>
       </c>
       <c r="C25" t="n">
         <v>3259</v>
@@ -8802,13 +8874,13 @@
         <v>-421</v>
       </c>
       <c r="E25" t="n">
-        <v>28419</v>
+        <v>28420</v>
       </c>
       <c r="F25" t="n">
-        <v>-4946</v>
+        <v>-5037</v>
       </c>
       <c r="G25" t="n">
-        <v>23473</v>
+        <v>23383</v>
       </c>
     </row>
     <row r="26">
@@ -8816,22 +8888,22 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>27072</v>
+        <v>27077</v>
       </c>
       <c r="C26" t="n">
         <v>3379</v>
       </c>
       <c r="D26" t="n">
-        <v>-347</v>
+        <v>-346</v>
       </c>
       <c r="E26" t="n">
-        <v>30105</v>
+        <v>30110</v>
       </c>
       <c r="F26" t="n">
-        <v>-3909</v>
+        <v>-3906</v>
       </c>
       <c r="G26" t="n">
-        <v>26196</v>
+        <v>26205</v>
       </c>
     </row>
     <row r="27">
@@ -8839,7 +8911,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>27100</v>
+        <v>27099</v>
       </c>
       <c r="C27" t="n">
         <v>3340</v>
@@ -8848,13 +8920,13 @@
         <v>-265</v>
       </c>
       <c r="E27" t="n">
-        <v>30175</v>
+        <v>30174</v>
       </c>
       <c r="F27" t="n">
-        <v>-4640</v>
+        <v>-4607</v>
       </c>
       <c r="G27" t="n">
-        <v>25535</v>
+        <v>25567</v>
       </c>
     </row>
     <row r="28">
@@ -8862,7 +8934,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>27754</v>
+        <v>27755</v>
       </c>
       <c r="C28" t="n">
         <v>3432</v>
@@ -8871,13 +8943,13 @@
         <v>-416</v>
       </c>
       <c r="E28" t="n">
-        <v>30770</v>
+        <v>30771</v>
       </c>
       <c r="F28" t="n">
-        <v>-5108</v>
+        <v>-5053</v>
       </c>
       <c r="G28" t="n">
-        <v>25662</v>
+        <v>25718</v>
       </c>
     </row>
     <row r="29">
@@ -8885,7 +8957,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>27722</v>
+        <v>27711</v>
       </c>
       <c r="C29" t="n">
         <v>3524</v>
@@ -8894,13 +8966,13 @@
         <v>-391</v>
       </c>
       <c r="E29" t="n">
-        <v>30854</v>
+        <v>30843</v>
       </c>
       <c r="F29" t="n">
-        <v>-5485</v>
+        <v>-5576</v>
       </c>
       <c r="G29" t="n">
-        <v>25369</v>
+        <v>25267</v>
       </c>
     </row>
     <row r="30">
@@ -8908,7 +8980,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>29780</v>
+        <v>29774</v>
       </c>
       <c r="C30" t="n">
         <v>3578</v>
@@ -8917,13 +8989,13 @@
         <v>-414</v>
       </c>
       <c r="E30" t="n">
-        <v>32944</v>
+        <v>32938</v>
       </c>
       <c r="F30" t="n">
-        <v>-5659</v>
+        <v>-5656</v>
       </c>
       <c r="G30" t="n">
-        <v>27285</v>
+        <v>27282</v>
       </c>
     </row>
     <row r="31">
@@ -8931,7 +9003,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>29965</v>
+        <v>29975</v>
       </c>
       <c r="C31" t="n">
         <v>3710</v>
@@ -8940,13 +9012,13 @@
         <v>-446</v>
       </c>
       <c r="E31" t="n">
-        <v>33229</v>
+        <v>33238</v>
       </c>
       <c r="F31" t="n">
-        <v>-5984</v>
+        <v>-5951</v>
       </c>
       <c r="G31" t="n">
-        <v>27245</v>
+        <v>27288</v>
       </c>
     </row>
     <row r="32">
@@ -8954,22 +9026,22 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>31384</v>
+        <v>31385</v>
       </c>
       <c r="C32" t="n">
         <v>3826</v>
       </c>
       <c r="D32" t="n">
-        <v>-472</v>
+        <v>-471</v>
       </c>
       <c r="E32" t="n">
-        <v>34739</v>
+        <v>34740</v>
       </c>
       <c r="F32" t="n">
-        <v>-5618</v>
+        <v>-5563</v>
       </c>
       <c r="G32" t="n">
-        <v>29121</v>
+        <v>29177</v>
       </c>
     </row>
     <row r="33">
@@ -8977,7 +9049,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>31576</v>
+        <v>31577</v>
       </c>
       <c r="C33" t="n">
         <v>3952</v>
@@ -8989,10 +9061,10 @@
         <v>34996</v>
       </c>
       <c r="F33" t="n">
-        <v>-6471</v>
+        <v>-6562</v>
       </c>
       <c r="G33" t="n">
-        <v>28524</v>
+        <v>28434</v>
       </c>
     </row>
     <row r="34">
@@ -9009,13 +9081,13 @@
         <v>-441</v>
       </c>
       <c r="E34" t="n">
-        <v>35181</v>
+        <v>35180</v>
       </c>
       <c r="F34" t="n">
-        <v>-5553</v>
+        <v>-5550</v>
       </c>
       <c r="G34" t="n">
-        <v>29628</v>
+        <v>29630</v>
       </c>
     </row>
     <row r="35">
@@ -9023,22 +9095,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>32174</v>
+        <v>32172</v>
       </c>
       <c r="C35" t="n">
         <v>3947</v>
       </c>
       <c r="D35" t="n">
-        <v>-448</v>
+        <v>-449</v>
       </c>
       <c r="E35" t="n">
-        <v>35672</v>
+        <v>35670</v>
       </c>
       <c r="F35" t="n">
-        <v>-5255</v>
+        <v>-5222</v>
       </c>
       <c r="G35" t="n">
-        <v>30417</v>
+        <v>30449</v>
       </c>
     </row>
     <row r="36">
@@ -9046,22 +9118,22 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>32720</v>
+        <v>32717</v>
       </c>
       <c r="C36" t="n">
         <v>4188</v>
       </c>
       <c r="D36" t="n">
-        <v>-483</v>
+        <v>-482</v>
       </c>
       <c r="E36" t="n">
-        <v>36426</v>
+        <v>36423</v>
       </c>
       <c r="F36" t="n">
-        <v>-5078</v>
+        <v>-5023</v>
       </c>
       <c r="G36" t="n">
-        <v>31348</v>
+        <v>31400</v>
       </c>
     </row>
     <row r="37">
@@ -9069,7 +9141,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>34439</v>
+        <v>34442</v>
       </c>
       <c r="C37" t="n">
         <v>4344</v>
@@ -9078,13 +9150,13 @@
         <v>-510</v>
       </c>
       <c r="E37" t="n">
-        <v>38274</v>
+        <v>38276</v>
       </c>
       <c r="F37" t="n">
-        <v>-5884</v>
+        <v>-5975</v>
       </c>
       <c r="G37" t="n">
-        <v>32390</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="38">
@@ -9092,7 +9164,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>34129</v>
+        <v>34131</v>
       </c>
       <c r="C38" t="n">
         <v>4431</v>
@@ -9101,13 +9173,13 @@
         <v>-542</v>
       </c>
       <c r="E38" t="n">
-        <v>38018</v>
+        <v>38020</v>
       </c>
       <c r="F38" t="n">
-        <v>-5506</v>
+        <v>-5503</v>
       </c>
       <c r="G38" t="n">
-        <v>32512</v>
+        <v>32517</v>
       </c>
     </row>
     <row r="39">
@@ -9115,7 +9187,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>34827</v>
+        <v>34825</v>
       </c>
       <c r="C39" t="n">
         <v>4583</v>
@@ -9124,13 +9196,13 @@
         <v>-489</v>
       </c>
       <c r="E39" t="n">
-        <v>38921</v>
+        <v>38919</v>
       </c>
       <c r="F39" t="n">
-        <v>-5659</v>
+        <v>-5626</v>
       </c>
       <c r="G39" t="n">
-        <v>33262</v>
+        <v>33293</v>
       </c>
     </row>
     <row r="40">
@@ -9138,7 +9210,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>34841</v>
+        <v>34835</v>
       </c>
       <c r="C40" t="n">
         <v>4613</v>
@@ -9147,13 +9219,13 @@
         <v>-402</v>
       </c>
       <c r="E40" t="n">
-        <v>39052</v>
+        <v>39046</v>
       </c>
       <c r="F40" t="n">
-        <v>-5599</v>
+        <v>-5544</v>
       </c>
       <c r="G40" t="n">
-        <v>33453</v>
+        <v>33502</v>
       </c>
     </row>
     <row r="41">
@@ -9161,7 +9233,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>35951</v>
+        <v>35963</v>
       </c>
       <c r="C41" t="n">
         <v>4793</v>
@@ -9170,13 +9242,13 @@
         <v>-498</v>
       </c>
       <c r="E41" t="n">
-        <v>40246</v>
+        <v>40258</v>
       </c>
       <c r="F41" t="n">
-        <v>-6227</v>
+        <v>-6318</v>
       </c>
       <c r="G41" t="n">
-        <v>34019</v>
+        <v>33940</v>
       </c>
     </row>
     <row r="42">
@@ -9184,7 +9256,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>36886</v>
+        <v>36875</v>
       </c>
       <c r="C42" t="n">
         <v>4921</v>
@@ -9193,13 +9265,13 @@
         <v>-303</v>
       </c>
       <c r="E42" t="n">
-        <v>41504</v>
+        <v>41493</v>
       </c>
       <c r="F42" t="n">
-        <v>-5961</v>
+        <v>-5958</v>
       </c>
       <c r="G42" t="n">
-        <v>35543</v>
+        <v>35535</v>
       </c>
     </row>
     <row r="43">
@@ -9207,7 +9279,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>37414</v>
+        <v>37427</v>
       </c>
       <c r="C43" t="n">
         <v>5164</v>
@@ -9216,13 +9288,13 @@
         <v>-317</v>
       </c>
       <c r="E43" t="n">
-        <v>42261</v>
+        <v>42274</v>
       </c>
       <c r="F43" t="n">
-        <v>-6775</v>
+        <v>-6741</v>
       </c>
       <c r="G43" t="n">
-        <v>35486</v>
+        <v>35532</v>
       </c>
     </row>
     <row r="44">
@@ -9230,7 +9302,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>37668</v>
+        <v>37672</v>
       </c>
       <c r="C44" t="n">
         <v>5362</v>
@@ -9239,13 +9311,13 @@
         <v>-275</v>
       </c>
       <c r="E44" t="n">
-        <v>42754</v>
+        <v>42758</v>
       </c>
       <c r="F44" t="n">
-        <v>-5788</v>
+        <v>-5733</v>
       </c>
       <c r="G44" t="n">
-        <v>36967</v>
+        <v>37026</v>
       </c>
     </row>
     <row r="45">
@@ -9253,7 +9325,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>39122</v>
+        <v>39124</v>
       </c>
       <c r="C45" t="n">
         <v>5238</v>
@@ -9262,13 +9334,13 @@
         <v>-457</v>
       </c>
       <c r="E45" t="n">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="F45" t="n">
-        <v>-6296</v>
+        <v>-6387</v>
       </c>
       <c r="G45" t="n">
-        <v>37607</v>
+        <v>37519</v>
       </c>
     </row>
     <row r="46">
@@ -9276,7 +9348,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>39909</v>
+        <v>39910</v>
       </c>
       <c r="C46" t="n">
         <v>5694</v>
@@ -9285,13 +9357,13 @@
         <v>-256</v>
       </c>
       <c r="E46" t="n">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="F46" t="n">
-        <v>-6036</v>
+        <v>-6033</v>
       </c>
       <c r="G46" t="n">
-        <v>39310</v>
+        <v>39314</v>
       </c>
     </row>
     <row r="47">
@@ -9299,7 +9371,7 @@
         <v>52</v>
       </c>
       <c r="B47" t="n">
-        <v>40290</v>
+        <v>40286</v>
       </c>
       <c r="C47" t="n">
         <v>5750</v>
@@ -9308,13 +9380,13 @@
         <v>-263</v>
       </c>
       <c r="E47" t="n">
-        <v>45777</v>
+        <v>45772</v>
       </c>
       <c r="F47" t="n">
-        <v>-5711</v>
+        <v>-5678</v>
       </c>
       <c r="G47" t="n">
-        <v>40066</v>
+        <v>40095</v>
       </c>
     </row>
     <row r="48">
@@ -9322,7 +9394,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>40876</v>
+        <v>40871</v>
       </c>
       <c r="C48" t="n">
         <v>6006</v>
@@ -9331,13 +9403,13 @@
         <v>-306</v>
       </c>
       <c r="E48" t="n">
-        <v>46576</v>
+        <v>46572</v>
       </c>
       <c r="F48" t="n">
-        <v>-6957</v>
+        <v>-6902</v>
       </c>
       <c r="G48" t="n">
-        <v>39620</v>
+        <v>39670</v>
       </c>
     </row>
     <row r="49">
@@ -9345,22 +9417,22 @@
         <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>41252</v>
+        <v>41261</v>
       </c>
       <c r="C49" t="n">
         <v>5983</v>
       </c>
       <c r="D49" t="n">
-        <v>-246</v>
+        <v>-247</v>
       </c>
       <c r="E49" t="n">
-        <v>46989</v>
+        <v>46998</v>
       </c>
       <c r="F49" t="n">
-        <v>-5572</v>
+        <v>-5663</v>
       </c>
       <c r="G49" t="n">
-        <v>41416</v>
+        <v>41334</v>
       </c>
     </row>
     <row r="50">
@@ -9368,22 +9440,22 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>43779</v>
+        <v>43787</v>
       </c>
       <c r="C50" t="n">
-        <v>6237</v>
+        <v>6236</v>
       </c>
       <c r="D50" t="n">
         <v>-301</v>
       </c>
       <c r="E50" t="n">
-        <v>49714</v>
+        <v>49722</v>
       </c>
       <c r="F50" t="n">
-        <v>-7299</v>
+        <v>-7296</v>
       </c>
       <c r="G50" t="n">
-        <v>42416</v>
+        <v>42427</v>
       </c>
     </row>
     <row r="51">
@@ -9391,7 +9463,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>43566</v>
+        <v>43561</v>
       </c>
       <c r="C51" t="n">
         <v>6275</v>
@@ -9400,13 +9472,13 @@
         <v>-319</v>
       </c>
       <c r="E51" t="n">
-        <v>49523</v>
+        <v>49518</v>
       </c>
       <c r="F51" t="n">
-        <v>-7358</v>
+        <v>-7325</v>
       </c>
       <c r="G51" t="n">
-        <v>42165</v>
+        <v>42193</v>
       </c>
     </row>
     <row r="52">
@@ -9414,7 +9486,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="n">
-        <v>42846</v>
+        <v>42844</v>
       </c>
       <c r="C52" t="n">
         <v>5811</v>
@@ -9423,13 +9495,13 @@
         <v>-348</v>
       </c>
       <c r="E52" t="n">
-        <v>48309</v>
+        <v>48307</v>
       </c>
       <c r="F52" t="n">
-        <v>-6416</v>
+        <v>-6362</v>
       </c>
       <c r="G52" t="n">
-        <v>41893</v>
+        <v>41946</v>
       </c>
     </row>
     <row r="53">
@@ -9437,7 +9509,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>43776</v>
+        <v>43770</v>
       </c>
       <c r="C53" t="n">
         <v>5740</v>
@@ -9446,13 +9518,13 @@
         <v>-226</v>
       </c>
       <c r="E53" t="n">
-        <v>49290</v>
+        <v>49285</v>
       </c>
       <c r="F53" t="n">
-        <v>-7076</v>
+        <v>-7167</v>
       </c>
       <c r="G53" t="n">
-        <v>42214</v>
+        <v>42118</v>
       </c>
     </row>
     <row r="54">
@@ -9460,7 +9532,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>42810</v>
+        <v>42798</v>
       </c>
       <c r="C54" t="n">
         <v>5599</v>
@@ -9469,13 +9541,13 @@
         <v>-370</v>
       </c>
       <c r="E54" t="n">
-        <v>48039</v>
+        <v>48027</v>
       </c>
       <c r="F54" t="n">
-        <v>-6336</v>
+        <v>-6333</v>
       </c>
       <c r="G54" t="n">
-        <v>41703</v>
+        <v>41694</v>
       </c>
     </row>
     <row r="55">
@@ -9483,7 +9555,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>42248</v>
+        <v>42259</v>
       </c>
       <c r="C55" t="n">
         <v>5315</v>
@@ -9492,13 +9564,13 @@
         <v>-341</v>
       </c>
       <c r="E55" t="n">
-        <v>47222</v>
+        <v>47233</v>
       </c>
       <c r="F55" t="n">
-        <v>-6384</v>
+        <v>-6351</v>
       </c>
       <c r="G55" t="n">
-        <v>40837</v>
+        <v>40882</v>
       </c>
     </row>
     <row r="56">
@@ -9506,7 +9578,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>42159</v>
+        <v>42155</v>
       </c>
       <c r="C56" t="n">
         <v>5135</v>
@@ -9515,13 +9587,13 @@
         <v>-339</v>
       </c>
       <c r="E56" t="n">
-        <v>46956</v>
+        <v>46951</v>
       </c>
       <c r="F56" t="n">
-        <v>-7494</v>
+        <v>-7439</v>
       </c>
       <c r="G56" t="n">
-        <v>39461</v>
+        <v>39512</v>
       </c>
     </row>
     <row r="57">
@@ -9529,7 +9601,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>40815</v>
+        <v>40821</v>
       </c>
       <c r="C57" t="n">
         <v>4473</v>
@@ -9538,13 +9610,13 @@
         <v>-236</v>
       </c>
       <c r="E57" t="n">
-        <v>45052</v>
+        <v>45058</v>
       </c>
       <c r="F57" t="n">
-        <v>-6502</v>
+        <v>-6594</v>
       </c>
       <c r="G57" t="n">
-        <v>38550</v>
+        <v>38464</v>
       </c>
     </row>
     <row r="58">
@@ -9552,7 +9624,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>39296</v>
+        <v>39298</v>
       </c>
       <c r="C58" t="n">
         <v>4045</v>
@@ -9561,13 +9633,13 @@
         <v>-303</v>
       </c>
       <c r="E58" t="n">
-        <v>43038</v>
+        <v>43040</v>
       </c>
       <c r="F58" t="n">
-        <v>-7209</v>
+        <v>-7206</v>
       </c>
       <c r="G58" t="n">
-        <v>35829</v>
+        <v>35834</v>
       </c>
     </row>
     <row r="59">
@@ -9575,7 +9647,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>39252</v>
+        <v>39248</v>
       </c>
       <c r="C59" t="n">
         <v>4198</v>
@@ -9584,13 +9656,13 @@
         <v>-328</v>
       </c>
       <c r="E59" t="n">
-        <v>43122</v>
+        <v>43118</v>
       </c>
       <c r="F59" t="n">
-        <v>-7519</v>
+        <v>-7486</v>
       </c>
       <c r="G59" t="n">
-        <v>35602</v>
+        <v>35631</v>
       </c>
     </row>
     <row r="60">
@@ -9598,7 +9670,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>38163</v>
+        <v>38165</v>
       </c>
       <c r="C60" t="n">
         <v>4194</v>
@@ -9607,13 +9679,13 @@
         <v>-304</v>
       </c>
       <c r="E60" t="n">
-        <v>42052</v>
+        <v>42055</v>
       </c>
       <c r="F60" t="n">
-        <v>-7783</v>
+        <v>-7728</v>
       </c>
       <c r="G60" t="n">
-        <v>34270</v>
+        <v>34327</v>
       </c>
     </row>
     <row r="61">
@@ -9621,7 +9693,7 @@
         <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>37740</v>
+        <v>37742</v>
       </c>
       <c r="C61" t="n">
         <v>4044</v>
@@ -9630,13 +9702,13 @@
         <v>-311</v>
       </c>
       <c r="E61" t="n">
-        <v>41473</v>
+        <v>41475</v>
       </c>
       <c r="F61" t="n">
-        <v>-6902</v>
+        <v>-6993</v>
       </c>
       <c r="G61" t="n">
-        <v>34571</v>
+        <v>34482</v>
       </c>
     </row>
     <row r="62">
@@ -9644,7 +9716,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="n">
-        <v>37876</v>
+        <v>37872</v>
       </c>
       <c r="C62" t="n">
         <v>3954</v>
@@ -9653,13 +9725,13 @@
         <v>-299</v>
       </c>
       <c r="E62" t="n">
-        <v>41532</v>
+        <v>41527</v>
       </c>
       <c r="F62" t="n">
-        <v>-7813</v>
+        <v>-7809</v>
       </c>
       <c r="G62" t="n">
-        <v>33719</v>
+        <v>33717</v>
       </c>
     </row>
     <row r="63">
@@ -9667,7 +9739,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>37898</v>
+        <v>37893</v>
       </c>
       <c r="C63" t="n">
         <v>4087</v>
@@ -9676,13 +9748,13 @@
         <v>-242</v>
       </c>
       <c r="E63" t="n">
-        <v>41743</v>
+        <v>41738</v>
       </c>
       <c r="F63" t="n">
-        <v>-7693</v>
+        <v>-7660</v>
       </c>
       <c r="G63" t="n">
-        <v>34050</v>
+        <v>34077</v>
       </c>
     </row>
     <row r="64">
@@ -9690,7 +9762,7 @@
         <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>38138</v>
+        <v>38127</v>
       </c>
       <c r="C64" t="n">
         <v>4192</v>
@@ -9699,13 +9771,13 @@
         <v>-272</v>
       </c>
       <c r="E64" t="n">
-        <v>42057</v>
+        <v>42047</v>
       </c>
       <c r="F64" t="n">
-        <v>-7259</v>
+        <v>-7204</v>
       </c>
       <c r="G64" t="n">
-        <v>34798</v>
+        <v>34843</v>
       </c>
     </row>
     <row r="65">
@@ -9713,7 +9785,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>38198</v>
+        <v>38218</v>
       </c>
       <c r="C65" t="n">
         <v>4066</v>
@@ -9722,13 +9794,13 @@
         <v>-290</v>
       </c>
       <c r="E65" t="n">
-        <v>41974</v>
+        <v>41994</v>
       </c>
       <c r="F65" t="n">
-        <v>-5692</v>
+        <v>-5783</v>
       </c>
       <c r="G65" t="n">
-        <v>36282</v>
+        <v>36211</v>
       </c>
     </row>
     <row r="66">
@@ -9736,7 +9808,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>38944</v>
+        <v>38950</v>
       </c>
       <c r="C66" t="n">
         <v>4030</v>
@@ -9745,13 +9817,13 @@
         <v>-270</v>
       </c>
       <c r="E66" t="n">
-        <v>42703</v>
+        <v>42709</v>
       </c>
       <c r="F66" t="n">
-        <v>-8204</v>
+        <v>-8201</v>
       </c>
       <c r="G66" t="n">
-        <v>34499</v>
+        <v>34509</v>
       </c>
     </row>
     <row r="67">
@@ -9759,7 +9831,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>39702</v>
+        <v>39696</v>
       </c>
       <c r="C67" t="n">
         <v>3939</v>
@@ -9768,13 +9840,13 @@
         <v>-271</v>
       </c>
       <c r="E67" t="n">
-        <v>43370</v>
+        <v>43365</v>
       </c>
       <c r="F67" t="n">
-        <v>-8481</v>
+        <v>-8448</v>
       </c>
       <c r="G67" t="n">
-        <v>34889</v>
+        <v>34917</v>
       </c>
     </row>
     <row r="68">
@@ -9791,13 +9863,13 @@
         <v>-266</v>
       </c>
       <c r="E68" t="n">
-        <v>43085</v>
+        <v>43084</v>
       </c>
       <c r="F68" t="n">
-        <v>-8447</v>
+        <v>-8392</v>
       </c>
       <c r="G68" t="n">
-        <v>34638</v>
+        <v>34693</v>
       </c>
     </row>
     <row r="69">
@@ -9805,7 +9877,7 @@
         <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>38697</v>
+        <v>38706</v>
       </c>
       <c r="C69" t="n">
         <v>4107</v>
@@ -9814,13 +9886,13 @@
         <v>-276</v>
       </c>
       <c r="E69" t="n">
-        <v>42528</v>
+        <v>42538</v>
       </c>
       <c r="F69" t="n">
-        <v>-8656</v>
+        <v>-8747</v>
       </c>
       <c r="G69" t="n">
-        <v>33872</v>
+        <v>33790</v>
       </c>
     </row>
     <row r="70">
@@ -9828,7 +9900,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>40109</v>
+        <v>40114</v>
       </c>
       <c r="C70" t="n">
         <v>4052</v>
@@ -9837,13 +9909,13 @@
         <v>-269</v>
       </c>
       <c r="E70" t="n">
-        <v>43892</v>
+        <v>43896</v>
       </c>
       <c r="F70" t="n">
-        <v>-9199</v>
+        <v>-9196</v>
       </c>
       <c r="G70" t="n">
-        <v>34692</v>
+        <v>34700</v>
       </c>
     </row>
     <row r="71">
@@ -9851,22 +9923,22 @@
         <v>76</v>
       </c>
       <c r="B71" t="n">
-        <v>40207</v>
+        <v>40204</v>
       </c>
       <c r="C71" t="n">
-        <v>4043</v>
+        <v>4042</v>
       </c>
       <c r="D71" t="n">
         <v>-279</v>
       </c>
       <c r="E71" t="n">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="F71" t="n">
-        <v>-8509</v>
+        <v>-8476</v>
       </c>
       <c r="G71" t="n">
-        <v>35461</v>
+        <v>35492</v>
       </c>
     </row>
     <row r="72">
@@ -9874,7 +9946,7 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>39822</v>
+        <v>39813</v>
       </c>
       <c r="C72" t="n">
         <v>4167</v>
@@ -9883,13 +9955,13 @@
         <v>-270</v>
       </c>
       <c r="E72" t="n">
-        <v>43719</v>
+        <v>43710</v>
       </c>
       <c r="F72" t="n">
-        <v>-9044</v>
+        <v>-8989</v>
       </c>
       <c r="G72" t="n">
-        <v>34675</v>
+        <v>34721</v>
       </c>
     </row>
     <row r="73">
@@ -9897,7 +9969,7 @@
         <v>78</v>
       </c>
       <c r="B73" t="n">
-        <v>39744</v>
+        <v>39745</v>
       </c>
       <c r="C73" t="n">
         <v>4065</v>
@@ -9906,13 +9978,13 @@
         <v>-302</v>
       </c>
       <c r="E73" t="n">
-        <v>43507</v>
+        <v>43508</v>
       </c>
       <c r="F73" t="n">
-        <v>-8593</v>
+        <v>-8684</v>
       </c>
       <c r="G73" t="n">
-        <v>34914</v>
+        <v>34824</v>
       </c>
     </row>
     <row r="74">
@@ -9920,7 +9992,7 @@
         <v>79</v>
       </c>
       <c r="B74" t="n">
-        <v>39604</v>
+        <v>39594</v>
       </c>
       <c r="C74" t="n">
         <v>4257</v>
@@ -9929,13 +10001,13 @@
         <v>-283</v>
       </c>
       <c r="E74" t="n">
-        <v>43578</v>
+        <v>43568</v>
       </c>
       <c r="F74" t="n">
-        <v>-7235</v>
+        <v>-7232</v>
       </c>
       <c r="G74" t="n">
-        <v>36342</v>
+        <v>36336</v>
       </c>
     </row>
     <row r="75">
@@ -9943,7 +10015,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="n">
-        <v>40824</v>
+        <v>40836</v>
       </c>
       <c r="C75" t="n">
         <v>4133</v>
@@ -9952,13 +10024,13 @@
         <v>-286</v>
       </c>
       <c r="E75" t="n">
-        <v>44670</v>
+        <v>44682</v>
       </c>
       <c r="F75" t="n">
-        <v>-8070</v>
+        <v>-8037</v>
       </c>
       <c r="G75" t="n">
-        <v>36600</v>
+        <v>36645</v>
       </c>
     </row>
     <row r="76">
@@ -9966,7 +10038,7 @@
         <v>81</v>
       </c>
       <c r="B76" t="n">
-        <v>41193</v>
+        <v>41188</v>
       </c>
       <c r="C76" t="n">
         <v>4318</v>
@@ -9975,13 +10047,13 @@
         <v>-279</v>
       </c>
       <c r="E76" t="n">
-        <v>45233</v>
+        <v>45227</v>
       </c>
       <c r="F76" t="n">
-        <v>-7529</v>
+        <v>-7474</v>
       </c>
       <c r="G76" t="n">
-        <v>37704</v>
+        <v>37753</v>
       </c>
     </row>
     <row r="77">
@@ -9989,7 +10061,7 @@
         <v>82</v>
       </c>
       <c r="B77" t="n">
-        <v>41642</v>
+        <v>41648</v>
       </c>
       <c r="C77" t="n">
         <v>4250</v>
@@ -9998,13 +10070,13 @@
         <v>-239</v>
       </c>
       <c r="E77" t="n">
-        <v>45653</v>
+        <v>45659</v>
       </c>
       <c r="F77" t="n">
-        <v>-6451</v>
+        <v>-6542</v>
       </c>
       <c r="G77" t="n">
-        <v>39202</v>
+        <v>39117</v>
       </c>
     </row>
     <row r="78">
@@ -10012,7 +10084,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="n">
-        <v>42599</v>
+        <v>42585</v>
       </c>
       <c r="C78" t="n">
         <v>4435</v>
@@ -10021,13 +10093,13 @@
         <v>-250</v>
       </c>
       <c r="E78" t="n">
-        <v>46784</v>
+        <v>46770</v>
       </c>
       <c r="F78" t="n">
-        <v>-7617</v>
+        <v>-7614</v>
       </c>
       <c r="G78" t="n">
-        <v>39167</v>
+        <v>39156</v>
       </c>
     </row>
     <row r="79">
@@ -10035,7 +10107,7 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>44446</v>
+        <v>44457</v>
       </c>
       <c r="C79" t="n">
         <v>4703</v>
@@ -10044,13 +10116,13 @@
         <v>-249</v>
       </c>
       <c r="E79" t="n">
-        <v>48900</v>
+        <v>48911</v>
       </c>
       <c r="F79" t="n">
-        <v>-8063</v>
+        <v>-8029</v>
       </c>
       <c r="G79" t="n">
-        <v>40838</v>
+        <v>40882</v>
       </c>
     </row>
     <row r="80">
@@ -10070,10 +10142,10 @@
         <v>48723</v>
       </c>
       <c r="F80" t="n">
-        <v>-8226</v>
+        <v>-8171</v>
       </c>
       <c r="G80" t="n">
-        <v>40498</v>
+        <v>40553</v>
       </c>
     </row>
     <row r="81">
@@ -10081,22 +10153,22 @@
         <v>86</v>
       </c>
       <c r="B81" t="n">
-        <v>45565</v>
+        <v>45551</v>
       </c>
       <c r="C81" t="n">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="D81" t="n">
         <v>-243</v>
       </c>
       <c r="E81" t="n">
-        <v>50322</v>
+        <v>50308</v>
       </c>
       <c r="F81" t="n">
-        <v>-7502</v>
+        <v>-7593</v>
       </c>
       <c r="G81" t="n">
-        <v>42820</v>
+        <v>42714</v>
       </c>
     </row>
     <row r="82">
@@ -10104,22 +10176,22 @@
         <v>87</v>
       </c>
       <c r="B82" t="n">
-        <v>59083</v>
+        <v>59065</v>
       </c>
       <c r="C82" t="n">
-        <v>4764</v>
+        <v>4765</v>
       </c>
       <c r="D82" t="n">
         <v>-224</v>
       </c>
       <c r="E82" t="n">
-        <v>63623</v>
+        <v>63606</v>
       </c>
       <c r="F82" t="n">
-        <v>-16115</v>
+        <v>-16112</v>
       </c>
       <c r="G82" t="n">
-        <v>47508</v>
+        <v>47494</v>
       </c>
     </row>
     <row r="83">
@@ -10127,22 +10199,22 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>59232</v>
+        <v>59241</v>
       </c>
       <c r="C83" t="n">
-        <v>4974</v>
+        <v>4973</v>
       </c>
       <c r="D83" t="n">
         <v>-223</v>
       </c>
       <c r="E83" t="n">
-        <v>63983</v>
+        <v>63991</v>
       </c>
       <c r="F83" t="n">
-        <v>-11380</v>
+        <v>-11347</v>
       </c>
       <c r="G83" t="n">
-        <v>52603</v>
+        <v>52645</v>
       </c>
     </row>
     <row r="84">
@@ -10150,7 +10222,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="n">
-        <v>61246</v>
+        <v>61268</v>
       </c>
       <c r="C84" t="n">
         <v>4965</v>
@@ -10159,13 +10231,13 @@
         <v>-226</v>
       </c>
       <c r="E84" t="n">
-        <v>65986</v>
+        <v>66006</v>
       </c>
       <c r="F84" t="n">
-        <v>-18189</v>
+        <v>-18134</v>
       </c>
       <c r="G84" t="n">
-        <v>47796</v>
+        <v>47872</v>
       </c>
     </row>
     <row r="85">
@@ -10173,22 +10245,22 @@
         <v>90</v>
       </c>
       <c r="B85" t="n">
-        <v>64486</v>
+        <v>64463</v>
       </c>
       <c r="C85" t="n">
-        <v>4965</v>
+        <v>4964</v>
       </c>
       <c r="D85" t="n">
         <v>-222</v>
       </c>
       <c r="E85" t="n">
-        <v>69229</v>
+        <v>69205</v>
       </c>
       <c r="F85" t="n">
-        <v>-16358</v>
+        <v>-16450</v>
       </c>
       <c r="G85" t="n">
-        <v>52871</v>
+        <v>52755</v>
       </c>
     </row>
     <row r="86">
@@ -10196,22 +10268,22 @@
         <v>91</v>
       </c>
       <c r="B86" t="n">
-        <v>60036</v>
+        <v>60017</v>
       </c>
       <c r="C86" t="n">
-        <v>5254</v>
+        <v>5256</v>
       </c>
       <c r="D86" t="n">
         <v>-234</v>
       </c>
       <c r="E86" t="n">
-        <v>65056</v>
+        <v>65039</v>
       </c>
       <c r="F86" t="n">
-        <v>-11075</v>
+        <v>-11072</v>
       </c>
       <c r="G86" t="n">
-        <v>53981</v>
+        <v>53967</v>
       </c>
     </row>
     <row r="87">
@@ -10219,22 +10291,22 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>59632</v>
+        <v>59658</v>
       </c>
       <c r="C87" t="n">
-        <v>5389</v>
+        <v>5388</v>
       </c>
       <c r="D87" t="n">
         <v>-233</v>
       </c>
       <c r="E87" t="n">
-        <v>64787</v>
+        <v>64812</v>
       </c>
       <c r="F87" t="n">
-        <v>-11288</v>
+        <v>-11254</v>
       </c>
       <c r="G87" t="n">
-        <v>53499</v>
+        <v>53558</v>
       </c>
     </row>
     <row r="88">
@@ -10242,22 +10314,22 @@
         <v>93</v>
       </c>
       <c r="B88" t="n">
-        <v>61416</v>
+        <v>61463</v>
       </c>
       <c r="C88" t="n">
-        <v>5112</v>
+        <v>5111</v>
       </c>
       <c r="D88" t="n">
         <v>-233</v>
       </c>
       <c r="E88" t="n">
-        <v>66295</v>
+        <v>66341</v>
       </c>
       <c r="F88" t="n">
-        <v>-14789</v>
+        <v>-14734</v>
       </c>
       <c r="G88" t="n">
-        <v>51506</v>
+        <v>51607</v>
       </c>
     </row>
     <row r="89">
@@ -10265,22 +10337,22 @@
         <v>94</v>
       </c>
       <c r="B89" t="n">
-        <v>68155</v>
+        <v>68084</v>
       </c>
       <c r="C89" t="n">
-        <v>5165</v>
+        <v>5163</v>
       </c>
       <c r="D89" t="n">
-        <v>-239</v>
+        <v>-238</v>
       </c>
       <c r="E89" t="n">
-        <v>73082</v>
+        <v>73009</v>
       </c>
       <c r="F89" t="n">
-        <v>-13930</v>
+        <v>-14021</v>
       </c>
       <c r="G89" t="n">
-        <v>59152</v>
+        <v>58988</v>
       </c>
     </row>
     <row r="90">
@@ -10288,22 +10360,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="n">
-        <v>64616</v>
+        <v>64661</v>
       </c>
       <c r="C90" t="n">
-        <v>5477</v>
+        <v>5481</v>
       </c>
       <c r="D90" t="n">
-        <v>-236</v>
+        <v>-237</v>
       </c>
       <c r="E90" t="n">
-        <v>69857</v>
+        <v>69905</v>
       </c>
       <c r="F90" t="n">
-        <v>-15207</v>
+        <v>-15204</v>
       </c>
       <c r="G90" t="n">
-        <v>54650</v>
+        <v>54702</v>
       </c>
     </row>
     <row r="91">
@@ -10311,22 +10383,22 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>67304</v>
+        <v>67278</v>
       </c>
       <c r="C91" t="n">
-        <v>5158</v>
+        <v>5157</v>
       </c>
       <c r="D91" t="n">
-        <v>-236</v>
+        <v>-237</v>
       </c>
       <c r="E91" t="n">
-        <v>72226</v>
+        <v>72199</v>
       </c>
       <c r="F91" t="n">
-        <v>-16340</v>
+        <v>-16306</v>
       </c>
       <c r="G91" t="n">
-        <v>55886</v>
+        <v>55893</v>
       </c>
     </row>
     <row r="92">
@@ -10334,22 +10406,22 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>69128</v>
+        <v>69209</v>
       </c>
       <c r="C92" t="n">
-        <v>5411</v>
+        <v>5410</v>
       </c>
       <c r="D92" t="n">
-        <v>-241</v>
+        <v>-240</v>
       </c>
       <c r="E92" t="n">
-        <v>74298</v>
+        <v>74379</v>
       </c>
       <c r="F92" t="n">
-        <v>-14266</v>
+        <v>-14211</v>
       </c>
       <c r="G92" t="n">
-        <v>60032</v>
+        <v>60167</v>
       </c>
     </row>
     <row r="93">
@@ -10357,22 +10429,22 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>74084</v>
+        <v>73923</v>
       </c>
       <c r="C93" t="n">
-        <v>5626</v>
+        <v>5623</v>
       </c>
       <c r="D93" t="n">
-        <v>-247</v>
+        <v>-246</v>
       </c>
       <c r="E93" t="n">
-        <v>79463</v>
+        <v>79300</v>
       </c>
       <c r="F93" t="n">
-        <v>-16439</v>
+        <v>-16530</v>
       </c>
       <c r="G93" t="n">
-        <v>63025</v>
+        <v>62769</v>
       </c>
     </row>
     <row r="94">
@@ -10380,22 +10452,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="n">
-        <v>74872</v>
+        <v>75007</v>
       </c>
       <c r="C94" t="n">
-        <v>5473</v>
+        <v>5477</v>
       </c>
       <c r="D94" t="n">
-        <v>-248</v>
+        <v>-249</v>
       </c>
       <c r="E94" t="n">
-        <v>80097</v>
+        <v>80235</v>
       </c>
       <c r="F94" t="n">
-        <v>-18126</v>
+        <v>-18123</v>
       </c>
       <c r="G94" t="n">
-        <v>61971</v>
+        <v>62112</v>
       </c>
     </row>
     <row r="95">
@@ -10403,22 +10475,22 @@
         <v>100</v>
       </c>
       <c r="B95" t="n">
-        <v>76318</v>
+        <v>76266</v>
       </c>
       <c r="C95" t="n">
-        <v>5473</v>
+        <v>5475</v>
       </c>
       <c r="D95" t="n">
-        <v>-249</v>
+        <v>-251</v>
       </c>
       <c r="E95" t="n">
-        <v>81543</v>
+        <v>81490</v>
       </c>
       <c r="F95" t="n">
-        <v>-17265</v>
+        <v>-17232</v>
       </c>
       <c r="G95" t="n">
-        <v>64278</v>
+        <v>64258</v>
       </c>
     </row>
     <row r="96">
@@ -10426,22 +10498,22 @@
         <v>101</v>
       </c>
       <c r="B96" t="n">
-        <v>75945</v>
+        <v>76065</v>
       </c>
       <c r="C96" t="n">
-        <v>5763</v>
+        <v>5762</v>
       </c>
       <c r="D96" t="n">
-        <v>-261</v>
+        <v>-258</v>
       </c>
       <c r="E96" t="n">
-        <v>81448</v>
+        <v>81569</v>
       </c>
       <c r="F96" t="n">
-        <v>-17987</v>
+        <v>-17933</v>
       </c>
       <c r="G96" t="n">
-        <v>63460</v>
+        <v>63637</v>
       </c>
     </row>
     <row r="97">
@@ -10449,22 +10521,22 @@
         <v>102</v>
       </c>
       <c r="B97" t="n">
-        <v>77029</v>
+        <v>76740</v>
       </c>
       <c r="C97" t="n">
-        <v>5714</v>
+        <v>5709</v>
       </c>
       <c r="D97" t="n">
-        <v>-267</v>
+        <v>-266</v>
       </c>
       <c r="E97" t="n">
-        <v>82476</v>
+        <v>82183</v>
       </c>
       <c r="F97" t="n">
-        <v>-21275</v>
+        <v>-21367</v>
       </c>
       <c r="G97" t="n">
-        <v>61200</v>
+        <v>60816</v>
       </c>
     </row>
     <row r="98">
@@ -10472,22 +10544,22 @@
         <v>103</v>
       </c>
       <c r="B98" t="n">
-        <v>80373</v>
+        <v>80615</v>
       </c>
       <c r="C98" t="n">
-        <v>6026</v>
+        <v>6028</v>
       </c>
       <c r="D98" t="n">
-        <v>-240</v>
+        <v>-242</v>
       </c>
       <c r="E98" t="n">
-        <v>86159</v>
+        <v>86401</v>
       </c>
       <c r="F98" t="n">
-        <v>-19685</v>
+        <v>-19682</v>
       </c>
       <c r="G98" t="n">
-        <v>66474</v>
+        <v>66719</v>
       </c>
     </row>
     <row r="99">
@@ -10495,22 +10567,22 @@
         <v>104</v>
       </c>
       <c r="B99" t="n">
-        <v>83068</v>
+        <v>82945</v>
       </c>
       <c r="C99" t="n">
-        <v>6057</v>
+        <v>6066</v>
       </c>
       <c r="D99" t="n">
-        <v>-243</v>
+        <v>-248</v>
       </c>
       <c r="E99" t="n">
-        <v>88882</v>
+        <v>88764</v>
       </c>
       <c r="F99" t="n">
-        <v>-21103</v>
+        <v>-21069</v>
       </c>
       <c r="G99" t="n">
-        <v>67779</v>
+        <v>67695</v>
       </c>
     </row>
     <row r="100">
@@ -10518,22 +10590,22 @@
         <v>105</v>
       </c>
       <c r="B100" t="n">
-        <v>83492</v>
+        <v>83680</v>
       </c>
       <c r="C100" t="n">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="D100" t="n">
-        <v>-265</v>
+        <v>-258</v>
       </c>
       <c r="E100" t="n">
-        <v>89232</v>
+        <v>89426</v>
       </c>
       <c r="F100" t="n">
-        <v>-20442</v>
+        <v>-20387</v>
       </c>
       <c r="G100" t="n">
-        <v>68790</v>
+        <v>69039</v>
       </c>
     </row>
     <row r="101">
@@ -10541,22 +10613,22 @@
         <v>106</v>
       </c>
       <c r="B101" t="n">
-        <v>85939</v>
+        <v>85591</v>
       </c>
       <c r="C101" t="n">
-        <v>6162</v>
+        <v>6148</v>
       </c>
       <c r="D101" t="n">
-        <v>-270</v>
+        <v>-268</v>
       </c>
       <c r="E101" t="n">
-        <v>91831</v>
+        <v>91471</v>
       </c>
       <c r="F101" t="n">
-        <v>-19723</v>
+        <v>-19814</v>
       </c>
       <c r="G101" t="n">
-        <v>72108</v>
+        <v>71656</v>
       </c>
     </row>
     <row r="102">
@@ -10564,22 +10636,22 @@
         <v>107</v>
       </c>
       <c r="B102" t="n">
-        <v>88539</v>
+        <v>88830</v>
       </c>
       <c r="C102" t="n">
-        <v>4501</v>
+        <v>4504</v>
       </c>
       <c r="D102" t="n">
-        <v>-299</v>
+        <v>-304</v>
       </c>
       <c r="E102" t="n">
-        <v>92741</v>
+        <v>93030</v>
       </c>
       <c r="F102" t="n">
-        <v>-21041</v>
+        <v>-21038</v>
       </c>
       <c r="G102" t="n">
-        <v>71699</v>
+        <v>71991</v>
       </c>
     </row>
     <row r="103">
@@ -10587,22 +10659,22 @@
         <v>108</v>
       </c>
       <c r="B103" t="n">
-        <v>83473</v>
+        <v>83315</v>
       </c>
       <c r="C103" t="n">
-        <v>5777</v>
+        <v>5793</v>
       </c>
       <c r="D103" t="n">
-        <v>-307</v>
+        <v>-316</v>
       </c>
       <c r="E103" t="n">
-        <v>88944</v>
+        <v>88792</v>
       </c>
       <c r="F103" t="n">
-        <v>-21619</v>
+        <v>-21586</v>
       </c>
       <c r="G103" t="n">
-        <v>67324</v>
+        <v>67206</v>
       </c>
     </row>
     <row r="104">
@@ -10610,22 +10682,22 @@
         <v>109</v>
       </c>
       <c r="B104" t="n">
-        <v>91253</v>
+        <v>91437</v>
       </c>
       <c r="C104" t="n">
-        <v>5728</v>
+        <v>5725</v>
       </c>
       <c r="D104" t="n">
-        <v>-302</v>
+        <v>-289</v>
       </c>
       <c r="E104" t="n">
-        <v>96679</v>
+        <v>96873</v>
       </c>
       <c r="F104" t="n">
-        <v>-29130</v>
+        <v>-29075</v>
       </c>
       <c r="G104" t="n">
-        <v>67549</v>
+        <v>67798</v>
       </c>
     </row>
     <row r="105">
@@ -10633,22 +10705,22 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>88399</v>
+        <v>88031</v>
       </c>
       <c r="C105" t="n">
-        <v>5697</v>
+        <v>5679</v>
       </c>
       <c r="D105" t="n">
-        <v>-310</v>
+        <v>-307</v>
       </c>
       <c r="E105" t="n">
-        <v>93786</v>
+        <v>93403</v>
       </c>
       <c r="F105" t="n">
-        <v>-18445</v>
+        <v>-18536</v>
       </c>
       <c r="G105" t="n">
-        <v>75341</v>
+        <v>74866</v>
       </c>
     </row>
     <row r="106">
@@ -10656,22 +10728,22 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>95627</v>
+        <v>94988</v>
       </c>
       <c r="C106" t="n">
-        <v>5951</v>
+        <v>5967</v>
       </c>
       <c r="D106" t="n">
-        <v>-334</v>
+        <v>-342</v>
       </c>
       <c r="E106" t="n">
-        <v>101244</v>
+        <v>100613</v>
       </c>
       <c r="F106" t="n">
-        <v>-28352</v>
+        <v>-28349</v>
       </c>
       <c r="G106" t="n">
-        <v>72893</v>
+        <v>72264</v>
       </c>
     </row>
     <row r="107">
@@ -10679,22 +10751,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>100002</v>
+        <v>99814</v>
       </c>
       <c r="C107" t="n">
-        <v>6412</v>
+        <v>6422</v>
       </c>
       <c r="D107" t="n">
-        <v>-329</v>
+        <v>-343</v>
       </c>
       <c r="E107" t="n">
-        <v>106085</v>
+        <v>105892</v>
       </c>
       <c r="F107" t="n">
-        <v>-28951</v>
+        <v>-28918</v>
       </c>
       <c r="G107" t="n">
-        <v>77134</v>
+        <v>76974</v>
       </c>
     </row>
     <row r="108">
@@ -10702,22 +10774,45 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>102628</v>
+        <v>102918</v>
       </c>
       <c r="C108" t="n">
-        <v>6544</v>
+        <v>6688</v>
       </c>
       <c r="D108" t="n">
-        <v>-284</v>
+        <v>-362</v>
       </c>
       <c r="E108" t="n">
-        <v>108887</v>
+        <v>109244</v>
       </c>
       <c r="F108" t="n">
-        <v>-26941</v>
+        <v>-26886</v>
       </c>
       <c r="G108" t="n">
-        <v>81946</v>
+        <v>82357</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="n">
+        <v>98398</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6865</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-375</v>
+      </c>
+      <c r="E109" t="n">
+        <v>104887</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-23310</v>
+      </c>
+      <c r="G109" t="n">
+        <v>81578</v>
       </c>
     </row>
   </sheetData>

--- a/NQQ_48.xlsx
+++ b/NQQ_48.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t xml:space="preserve">quarter</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t xml:space="preserve">2021Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022Q1</t>
   </si>
   <si>
     <t xml:space="preserve">GVA at Constant Basic Prices (chain linked annually ref to 2019) (Seasonally Adjusted)</t>
@@ -3252,6 +3255,29 @@
         <v>82111</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="n">
+        <v>107367</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7063</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-307</v>
+      </c>
+      <c r="E110" t="n">
+        <v>114123</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-34755</v>
+      </c>
+      <c r="G110" t="n">
+        <v>79368</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3271,22 +3297,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2">
@@ -3294,7 +3320,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>22107</v>
+        <v>22125</v>
       </c>
       <c r="C2" t="n">
         <v>2494</v>
@@ -3303,13 +3329,13 @@
         <v>-473</v>
       </c>
       <c r="E2" t="n">
-        <v>24127</v>
+        <v>24146</v>
       </c>
       <c r="F2" t="n">
-        <v>-1890</v>
+        <v>-1884</v>
       </c>
       <c r="G2" t="n">
-        <v>22237</v>
+        <v>22262</v>
       </c>
     </row>
     <row r="3">
@@ -3317,7 +3343,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>22185</v>
+        <v>22184</v>
       </c>
       <c r="C3" t="n">
         <v>2579</v>
@@ -3326,13 +3352,13 @@
         <v>-450</v>
       </c>
       <c r="E3" t="n">
-        <v>24314</v>
+        <v>24313</v>
       </c>
       <c r="F3" t="n">
-        <v>-1476</v>
+        <v>-1619</v>
       </c>
       <c r="G3" t="n">
-        <v>22838</v>
+        <v>22694</v>
       </c>
     </row>
     <row r="4">
@@ -3340,7 +3366,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>22630</v>
+        <v>22638</v>
       </c>
       <c r="C4" t="n">
         <v>2663</v>
@@ -3349,13 +3375,13 @@
         <v>-724</v>
       </c>
       <c r="E4" t="n">
-        <v>24568</v>
+        <v>24576</v>
       </c>
       <c r="F4" t="n">
-        <v>-1558</v>
+        <v>-1617</v>
       </c>
       <c r="G4" t="n">
-        <v>23010</v>
+        <v>22959</v>
       </c>
     </row>
     <row r="5">
@@ -3363,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>22423</v>
+        <v>22399</v>
       </c>
       <c r="C5" t="n">
         <v>2733</v>
@@ -3372,13 +3398,13 @@
         <v>-513</v>
       </c>
       <c r="E5" t="n">
-        <v>24644</v>
+        <v>24619</v>
       </c>
       <c r="F5" t="n">
-        <v>-2193</v>
+        <v>-1996</v>
       </c>
       <c r="G5" t="n">
-        <v>22450</v>
+        <v>22623</v>
       </c>
     </row>
     <row r="6">
@@ -3386,7 +3412,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>23806</v>
+        <v>23828</v>
       </c>
       <c r="C6" t="n">
         <v>2770</v>
@@ -3395,13 +3421,13 @@
         <v>-550</v>
       </c>
       <c r="E6" t="n">
-        <v>26026</v>
+        <v>26048</v>
       </c>
       <c r="F6" t="n">
-        <v>-2096</v>
+        <v>-2090</v>
       </c>
       <c r="G6" t="n">
-        <v>23930</v>
+        <v>23957</v>
       </c>
     </row>
     <row r="7">
@@ -3409,7 +3435,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>23996</v>
+        <v>23995</v>
       </c>
       <c r="C7" t="n">
         <v>2853</v>
@@ -3418,13 +3444,13 @@
         <v>-509</v>
       </c>
       <c r="E7" t="n">
-        <v>26340</v>
+        <v>26339</v>
       </c>
       <c r="F7" t="n">
-        <v>-1681</v>
+        <v>-1825</v>
       </c>
       <c r="G7" t="n">
-        <v>24659</v>
+        <v>24514</v>
       </c>
     </row>
     <row r="8">
@@ -3432,7 +3458,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>23881</v>
+        <v>23886</v>
       </c>
       <c r="C8" t="n">
         <v>2943</v>
@@ -3441,13 +3467,13 @@
         <v>-839</v>
       </c>
       <c r="E8" t="n">
-        <v>25986</v>
+        <v>25991</v>
       </c>
       <c r="F8" t="n">
-        <v>-1716</v>
+        <v>-1776</v>
       </c>
       <c r="G8" t="n">
-        <v>24269</v>
+        <v>24215</v>
       </c>
     </row>
     <row r="9">
@@ -3455,7 +3481,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>23758</v>
+        <v>23730</v>
       </c>
       <c r="C9" t="n">
         <v>3023</v>
@@ -3464,13 +3490,13 @@
         <v>-580</v>
       </c>
       <c r="E9" t="n">
-        <v>26200</v>
+        <v>26173</v>
       </c>
       <c r="F9" t="n">
-        <v>-2370</v>
+        <v>-2173</v>
       </c>
       <c r="G9" t="n">
-        <v>23830</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="10">
@@ -3478,7 +3504,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>25367</v>
+        <v>25386</v>
       </c>
       <c r="C10" t="n">
         <v>3138</v>
@@ -3487,13 +3513,13 @@
         <v>-624</v>
       </c>
       <c r="E10" t="n">
-        <v>27880</v>
+        <v>27900</v>
       </c>
       <c r="F10" t="n">
-        <v>-2570</v>
+        <v>-2564</v>
       </c>
       <c r="G10" t="n">
-        <v>25310</v>
+        <v>25336</v>
       </c>
     </row>
     <row r="11">
@@ -3501,7 +3527,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>26335</v>
+        <v>26336</v>
       </c>
       <c r="C11" t="n">
         <v>3264</v>
@@ -3513,10 +3539,10 @@
         <v>28947</v>
       </c>
       <c r="F11" t="n">
-        <v>-2154</v>
+        <v>-2297</v>
       </c>
       <c r="G11" t="n">
-        <v>26793</v>
+        <v>26650</v>
       </c>
     </row>
     <row r="12">
@@ -3524,7 +3550,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>26534</v>
+        <v>26540</v>
       </c>
       <c r="C12" t="n">
         <v>3354</v>
@@ -3533,13 +3559,13 @@
         <v>-631</v>
       </c>
       <c r="E12" t="n">
-        <v>29256</v>
+        <v>29263</v>
       </c>
       <c r="F12" t="n">
-        <v>-2081</v>
+        <v>-2140</v>
       </c>
       <c r="G12" t="n">
-        <v>27176</v>
+        <v>27123</v>
       </c>
     </row>
     <row r="13">
@@ -3547,7 +3573,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>26786</v>
+        <v>26758</v>
       </c>
       <c r="C13" t="n">
         <v>3418</v>
@@ -3556,13 +3582,13 @@
         <v>-605</v>
       </c>
       <c r="E13" t="n">
-        <v>29600</v>
+        <v>29571</v>
       </c>
       <c r="F13" t="n">
-        <v>-2774</v>
+        <v>-2577</v>
       </c>
       <c r="G13" t="n">
-        <v>26825</v>
+        <v>26994</v>
       </c>
     </row>
     <row r="14">
@@ -3570,7 +3596,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>27837</v>
+        <v>27855</v>
       </c>
       <c r="C14" t="n">
         <v>3457</v>
@@ -3579,13 +3605,13 @@
         <v>-591</v>
       </c>
       <c r="E14" t="n">
-        <v>30703</v>
+        <v>30721</v>
       </c>
       <c r="F14" t="n">
-        <v>-2391</v>
+        <v>-2385</v>
       </c>
       <c r="G14" t="n">
-        <v>28312</v>
+        <v>28336</v>
       </c>
     </row>
     <row r="15">
@@ -3593,7 +3619,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>28404</v>
+        <v>28403</v>
       </c>
       <c r="C15" t="n">
         <v>3690</v>
@@ -3602,13 +3628,13 @@
         <v>-655</v>
       </c>
       <c r="E15" t="n">
-        <v>31439</v>
+        <v>31438</v>
       </c>
       <c r="F15" t="n">
-        <v>-2466</v>
+        <v>-2610</v>
       </c>
       <c r="G15" t="n">
-        <v>28973</v>
+        <v>28828</v>
       </c>
     </row>
     <row r="16">
@@ -3616,7 +3642,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>29314</v>
+        <v>29320</v>
       </c>
       <c r="C16" t="n">
         <v>3680</v>
@@ -3625,13 +3651,13 @@
         <v>-555</v>
       </c>
       <c r="E16" t="n">
-        <v>32439</v>
+        <v>32444</v>
       </c>
       <c r="F16" t="n">
-        <v>-3301</v>
+        <v>-3360</v>
       </c>
       <c r="G16" t="n">
-        <v>29138</v>
+        <v>29084</v>
       </c>
     </row>
     <row r="17">
@@ -3639,7 +3665,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>28164</v>
+        <v>28137</v>
       </c>
       <c r="C17" t="n">
         <v>3856</v>
@@ -3648,13 +3674,13 @@
         <v>-651</v>
       </c>
       <c r="E17" t="n">
-        <v>31369</v>
+        <v>31342</v>
       </c>
       <c r="F17" t="n">
-        <v>-3136</v>
+        <v>-2939</v>
       </c>
       <c r="G17" t="n">
-        <v>28233</v>
+        <v>28403</v>
       </c>
     </row>
     <row r="18">
@@ -3662,7 +3688,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>30317</v>
+        <v>30336</v>
       </c>
       <c r="C18" t="n">
         <v>3794</v>
@@ -3671,13 +3697,13 @@
         <v>-562</v>
       </c>
       <c r="E18" t="n">
-        <v>33550</v>
+        <v>33568</v>
       </c>
       <c r="F18" t="n">
-        <v>-2800</v>
+        <v>-2794</v>
       </c>
       <c r="G18" t="n">
-        <v>30750</v>
+        <v>30774</v>
       </c>
     </row>
     <row r="19">
@@ -3694,13 +3720,13 @@
         <v>-562</v>
       </c>
       <c r="E19" t="n">
-        <v>34099</v>
+        <v>34098</v>
       </c>
       <c r="F19" t="n">
-        <v>-2912</v>
+        <v>-3056</v>
       </c>
       <c r="G19" t="n">
-        <v>31187</v>
+        <v>31042</v>
       </c>
     </row>
     <row r="20">
@@ -3708,7 +3734,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>31758</v>
+        <v>31766</v>
       </c>
       <c r="C20" t="n">
         <v>4072</v>
@@ -3717,13 +3743,13 @@
         <v>-610</v>
       </c>
       <c r="E20" t="n">
-        <v>35219</v>
+        <v>35228</v>
       </c>
       <c r="F20" t="n">
-        <v>-4345</v>
+        <v>-4404</v>
       </c>
       <c r="G20" t="n">
-        <v>30874</v>
+        <v>30823</v>
       </c>
     </row>
     <row r="21">
@@ -3731,7 +3757,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>31954</v>
+        <v>31931</v>
       </c>
       <c r="C21" t="n">
         <v>4385</v>
@@ -3740,13 +3766,13 @@
         <v>-557</v>
       </c>
       <c r="E21" t="n">
-        <v>35782</v>
+        <v>35759</v>
       </c>
       <c r="F21" t="n">
-        <v>-4464</v>
+        <v>-4267</v>
       </c>
       <c r="G21" t="n">
-        <v>31318</v>
+        <v>31492</v>
       </c>
     </row>
     <row r="22">
@@ -3754,7 +3780,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>32467</v>
+        <v>32485</v>
       </c>
       <c r="C22" t="n">
         <v>4653</v>
@@ -3763,13 +3789,13 @@
         <v>-714</v>
       </c>
       <c r="E22" t="n">
-        <v>36406</v>
+        <v>36424</v>
       </c>
       <c r="F22" t="n">
-        <v>-3612</v>
+        <v>-3606</v>
       </c>
       <c r="G22" t="n">
-        <v>32795</v>
+        <v>32819</v>
       </c>
     </row>
     <row r="23">
@@ -3777,7 +3803,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>33654</v>
+        <v>33653</v>
       </c>
       <c r="C23" t="n">
         <v>4526</v>
@@ -3786,13 +3812,13 @@
         <v>-547</v>
       </c>
       <c r="E23" t="n">
-        <v>37633</v>
+        <v>37632</v>
       </c>
       <c r="F23" t="n">
-        <v>-2869</v>
+        <v>-3013</v>
       </c>
       <c r="G23" t="n">
-        <v>34764</v>
+        <v>34619</v>
       </c>
     </row>
     <row r="24">
@@ -3800,7 +3826,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>34004</v>
+        <v>34013</v>
       </c>
       <c r="C24" t="n">
         <v>4698</v>
@@ -3809,13 +3835,13 @@
         <v>-451</v>
       </c>
       <c r="E24" t="n">
-        <v>38251</v>
+        <v>38260</v>
       </c>
       <c r="F24" t="n">
-        <v>-4510</v>
+        <v>-4569</v>
       </c>
       <c r="G24" t="n">
-        <v>33741</v>
+        <v>33691</v>
       </c>
     </row>
     <row r="25">
@@ -3823,7 +3849,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>34607</v>
+        <v>34580</v>
       </c>
       <c r="C25" t="n">
         <v>4312</v>
@@ -3832,13 +3858,13 @@
         <v>-568</v>
       </c>
       <c r="E25" t="n">
-        <v>38351</v>
+        <v>38324</v>
       </c>
       <c r="F25" t="n">
-        <v>-5066</v>
+        <v>-4869</v>
       </c>
       <c r="G25" t="n">
-        <v>33285</v>
+        <v>33455</v>
       </c>
     </row>
     <row r="26">
@@ -3846,7 +3872,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>35341</v>
+        <v>35365</v>
       </c>
       <c r="C26" t="n">
         <v>4451</v>
@@ -3855,13 +3881,13 @@
         <v>-465</v>
       </c>
       <c r="E26" t="n">
-        <v>39327</v>
+        <v>39351</v>
       </c>
       <c r="F26" t="n">
-        <v>-4276</v>
+        <v>-4270</v>
       </c>
       <c r="G26" t="n">
-        <v>35052</v>
+        <v>35081</v>
       </c>
     </row>
     <row r="27">
@@ -3869,7 +3895,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>36013</v>
+        <v>36012</v>
       </c>
       <c r="C27" t="n">
         <v>4335</v>
@@ -3878,13 +3904,13 @@
         <v>-350</v>
       </c>
       <c r="E27" t="n">
-        <v>39998</v>
+        <v>39997</v>
       </c>
       <c r="F27" t="n">
-        <v>-4678</v>
+        <v>-4822</v>
       </c>
       <c r="G27" t="n">
-        <v>35319</v>
+        <v>35175</v>
       </c>
     </row>
     <row r="28">
@@ -3892,7 +3918,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>35811</v>
+        <v>35816</v>
       </c>
       <c r="C28" t="n">
         <v>4406</v>
@@ -3901,13 +3927,13 @@
         <v>-543</v>
       </c>
       <c r="E28" t="n">
-        <v>39675</v>
+        <v>39679</v>
       </c>
       <c r="F28" t="n">
-        <v>-5443</v>
+        <v>-5503</v>
       </c>
       <c r="G28" t="n">
-        <v>34231</v>
+        <v>34176</v>
       </c>
     </row>
     <row r="29">
@@ -3915,7 +3941,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>36304</v>
+        <v>36276</v>
       </c>
       <c r="C29" t="n">
         <v>4482</v>
@@ -3924,13 +3950,13 @@
         <v>-506</v>
       </c>
       <c r="E29" t="n">
-        <v>40280</v>
+        <v>40252</v>
       </c>
       <c r="F29" t="n">
-        <v>-5886</v>
+        <v>-5689</v>
       </c>
       <c r="G29" t="n">
-        <v>34394</v>
+        <v>34564</v>
       </c>
     </row>
     <row r="30">
@@ -3938,7 +3964,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>37451</v>
+        <v>37477</v>
       </c>
       <c r="C30" t="n">
         <v>4502</v>
@@ -3947,13 +3973,13 @@
         <v>-529</v>
       </c>
       <c r="E30" t="n">
-        <v>41424</v>
+        <v>41451</v>
       </c>
       <c r="F30" t="n">
-        <v>-6190</v>
+        <v>-6184</v>
       </c>
       <c r="G30" t="n">
-        <v>35234</v>
+        <v>35267</v>
       </c>
     </row>
     <row r="31">
@@ -3961,7 +3987,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>37689</v>
+        <v>37690</v>
       </c>
       <c r="C31" t="n">
         <v>4606</v>
@@ -3970,13 +3996,13 @@
         <v>-561</v>
       </c>
       <c r="E31" t="n">
-        <v>41734</v>
+        <v>41735</v>
       </c>
       <c r="F31" t="n">
-        <v>-5737</v>
+        <v>-5881</v>
       </c>
       <c r="G31" t="n">
-        <v>35996</v>
+        <v>35854</v>
       </c>
     </row>
     <row r="32">
@@ -3984,7 +4010,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>38425</v>
+        <v>38430</v>
       </c>
       <c r="C32" t="n">
         <v>4706</v>
@@ -3993,13 +4019,13 @@
         <v>-587</v>
       </c>
       <c r="E32" t="n">
-        <v>42544</v>
+        <v>42549</v>
       </c>
       <c r="F32" t="n">
-        <v>-6238</v>
+        <v>-6297</v>
       </c>
       <c r="G32" t="n">
-        <v>36306</v>
+        <v>36252</v>
       </c>
     </row>
     <row r="33">
@@ -4007,7 +4033,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>38795</v>
+        <v>38760</v>
       </c>
       <c r="C33" t="n">
         <v>4799</v>
@@ -4016,13 +4042,13 @@
         <v>-655</v>
       </c>
       <c r="E33" t="n">
-        <v>42939</v>
+        <v>42904</v>
       </c>
       <c r="F33" t="n">
-        <v>-7163</v>
+        <v>-6966</v>
       </c>
       <c r="G33" t="n">
-        <v>35776</v>
+        <v>35938</v>
       </c>
     </row>
     <row r="34">
@@ -4030,7 +4056,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>38536</v>
+        <v>38565</v>
       </c>
       <c r="C34" t="n">
         <v>4723</v>
@@ -4039,13 +4065,13 @@
         <v>-535</v>
       </c>
       <c r="E34" t="n">
-        <v>42725</v>
+        <v>42753</v>
       </c>
       <c r="F34" t="n">
-        <v>-6049</v>
+        <v>-6043</v>
       </c>
       <c r="G34" t="n">
-        <v>36676</v>
+        <v>36710</v>
       </c>
     </row>
     <row r="35">
@@ -4053,22 +4079,22 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>38804</v>
+        <v>38802</v>
       </c>
       <c r="C35" t="n">
         <v>4719</v>
       </c>
       <c r="D35" t="n">
-        <v>-542</v>
+        <v>-541</v>
       </c>
       <c r="E35" t="n">
-        <v>42981</v>
+        <v>42980</v>
       </c>
       <c r="F35" t="n">
-        <v>-5575</v>
+        <v>-5718</v>
       </c>
       <c r="G35" t="n">
-        <v>37406</v>
+        <v>37261</v>
       </c>
     </row>
     <row r="36">
@@ -4076,7 +4102,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>38932</v>
+        <v>38939</v>
       </c>
       <c r="C36" t="n">
         <v>4997</v>
@@ -4085,13 +4111,13 @@
         <v>-580</v>
       </c>
       <c r="E36" t="n">
-        <v>43349</v>
+        <v>43356</v>
       </c>
       <c r="F36" t="n">
-        <v>-5621</v>
+        <v>-5681</v>
       </c>
       <c r="G36" t="n">
-        <v>37727</v>
+        <v>37675</v>
       </c>
     </row>
     <row r="37">
@@ -4099,22 +4125,22 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>41018</v>
+        <v>40982</v>
       </c>
       <c r="C37" t="n">
         <v>5165</v>
       </c>
       <c r="D37" t="n">
-        <v>-612</v>
+        <v>-613</v>
       </c>
       <c r="E37" t="n">
-        <v>45570</v>
+        <v>45534</v>
       </c>
       <c r="F37" t="n">
-        <v>-6788</v>
+        <v>-6591</v>
       </c>
       <c r="G37" t="n">
-        <v>38782</v>
+        <v>38943</v>
       </c>
     </row>
     <row r="38">
@@ -4122,7 +4148,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>40922</v>
+        <v>40946</v>
       </c>
       <c r="C38" t="n">
         <v>5238</v>
@@ -4131,13 +4157,13 @@
         <v>-646</v>
       </c>
       <c r="E38" t="n">
-        <v>45513</v>
+        <v>45538</v>
       </c>
       <c r="F38" t="n">
-        <v>-6149</v>
+        <v>-6143</v>
       </c>
       <c r="G38" t="n">
-        <v>39364</v>
+        <v>39395</v>
       </c>
     </row>
     <row r="39">
@@ -4145,7 +4171,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>41770</v>
+        <v>41768</v>
       </c>
       <c r="C39" t="n">
         <v>5377</v>
@@ -4154,13 +4180,13 @@
         <v>-579</v>
       </c>
       <c r="E39" t="n">
-        <v>46568</v>
+        <v>46566</v>
       </c>
       <c r="F39" t="n">
-        <v>-6096</v>
+        <v>-6240</v>
       </c>
       <c r="G39" t="n">
-        <v>40472</v>
+        <v>40327</v>
       </c>
     </row>
     <row r="40">
@@ -4168,7 +4194,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>41434</v>
+        <v>41444</v>
       </c>
       <c r="C40" t="n">
         <v>5367</v>
@@ -4177,13 +4203,13 @@
         <v>-471</v>
       </c>
       <c r="E40" t="n">
-        <v>46331</v>
+        <v>46341</v>
       </c>
       <c r="F40" t="n">
-        <v>-6185</v>
+        <v>-6244</v>
       </c>
       <c r="G40" t="n">
-        <v>40146</v>
+        <v>40097</v>
       </c>
     </row>
     <row r="41">
@@ -4191,7 +4217,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>42431</v>
+        <v>42405</v>
       </c>
       <c r="C41" t="n">
         <v>5545</v>
@@ -4200,13 +4226,13 @@
         <v>-582</v>
       </c>
       <c r="E41" t="n">
-        <v>47394</v>
+        <v>47368</v>
       </c>
       <c r="F41" t="n">
-        <v>-6844</v>
+        <v>-6647</v>
       </c>
       <c r="G41" t="n">
-        <v>40551</v>
+        <v>40721</v>
       </c>
     </row>
     <row r="42">
@@ -4214,7 +4240,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>42991</v>
+        <v>43006</v>
       </c>
       <c r="C42" t="n">
         <v>5693</v>
@@ -4223,13 +4249,13 @@
         <v>-352</v>
       </c>
       <c r="E42" t="n">
-        <v>48332</v>
+        <v>48347</v>
       </c>
       <c r="F42" t="n">
-        <v>-6662</v>
+        <v>-6656</v>
       </c>
       <c r="G42" t="n">
-        <v>41670</v>
+        <v>41691</v>
       </c>
     </row>
     <row r="43">
@@ -4237,22 +4263,22 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>43713</v>
+        <v>43715</v>
       </c>
       <c r="C43" t="n">
         <v>5920</v>
       </c>
       <c r="D43" t="n">
-        <v>-367</v>
+        <v>-366</v>
       </c>
       <c r="E43" t="n">
-        <v>49267</v>
+        <v>49268</v>
       </c>
       <c r="F43" t="n">
-        <v>-7379</v>
+        <v>-7523</v>
       </c>
       <c r="G43" t="n">
-        <v>41887</v>
+        <v>41745</v>
       </c>
     </row>
     <row r="44">
@@ -4260,7 +4286,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>43037</v>
+        <v>43044</v>
       </c>
       <c r="C44" t="n">
         <v>6087</v>
@@ -4269,13 +4295,13 @@
         <v>-314</v>
       </c>
       <c r="E44" t="n">
-        <v>48810</v>
+        <v>48817</v>
       </c>
       <c r="F44" t="n">
-        <v>-6236</v>
+        <v>-6295</v>
       </c>
       <c r="G44" t="n">
-        <v>42574</v>
+        <v>42521</v>
       </c>
     </row>
     <row r="45">
@@ -4283,7 +4309,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>44938</v>
+        <v>44921</v>
       </c>
       <c r="C45" t="n">
         <v>5902</v>
@@ -4292,13 +4318,13 @@
         <v>-520</v>
       </c>
       <c r="E45" t="n">
-        <v>50320</v>
+        <v>50303</v>
       </c>
       <c r="F45" t="n">
-        <v>-6888</v>
+        <v>-6691</v>
       </c>
       <c r="G45" t="n">
-        <v>43432</v>
+        <v>43612</v>
       </c>
     </row>
     <row r="46">
@@ -4306,7 +4332,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>45130</v>
+        <v>45154</v>
       </c>
       <c r="C46" t="n">
         <v>6382</v>
@@ -4315,13 +4341,13 @@
         <v>-288</v>
       </c>
       <c r="E46" t="n">
-        <v>51225</v>
+        <v>51249</v>
       </c>
       <c r="F46" t="n">
-        <v>-6950</v>
+        <v>-6944</v>
       </c>
       <c r="G46" t="n">
-        <v>44275</v>
+        <v>44305</v>
       </c>
     </row>
     <row r="47">
@@ -4329,7 +4355,7 @@
         <v>52</v>
       </c>
       <c r="B47" t="n">
-        <v>45313</v>
+        <v>45311</v>
       </c>
       <c r="C47" t="n">
         <v>6345</v>
@@ -4338,13 +4364,13 @@
         <v>-292</v>
       </c>
       <c r="E47" t="n">
-        <v>51366</v>
+        <v>51363</v>
       </c>
       <c r="F47" t="n">
-        <v>-6306</v>
+        <v>-6450</v>
       </c>
       <c r="G47" t="n">
-        <v>45060</v>
+        <v>44914</v>
       </c>
     </row>
     <row r="48">
@@ -4352,7 +4378,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>45781</v>
+        <v>45790</v>
       </c>
       <c r="C48" t="n">
         <v>6545</v>
@@ -4361,13 +4387,13 @@
         <v>-334</v>
       </c>
       <c r="E48" t="n">
-        <v>51992</v>
+        <v>52001</v>
       </c>
       <c r="F48" t="n">
-        <v>-7877</v>
+        <v>-7936</v>
       </c>
       <c r="G48" t="n">
-        <v>44115</v>
+        <v>44065</v>
       </c>
     </row>
     <row r="49">
@@ -4375,7 +4401,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>45940</v>
+        <v>45914</v>
       </c>
       <c r="C49" t="n">
         <v>6449</v>
@@ -4384,13 +4410,13 @@
         <v>-268</v>
       </c>
       <c r="E49" t="n">
-        <v>52121</v>
+        <v>52095</v>
       </c>
       <c r="F49" t="n">
-        <v>-6292</v>
+        <v>-6095</v>
       </c>
       <c r="G49" t="n">
-        <v>45828</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="50">
@@ -4398,7 +4424,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>48853</v>
+        <v>48878</v>
       </c>
       <c r="C50" t="n">
         <v>6662</v>
@@ -4407,13 +4433,13 @@
         <v>-321</v>
       </c>
       <c r="E50" t="n">
-        <v>55193</v>
+        <v>55218</v>
       </c>
       <c r="F50" t="n">
-        <v>-8409</v>
+        <v>-8403</v>
       </c>
       <c r="G50" t="n">
-        <v>46784</v>
+        <v>46815</v>
       </c>
     </row>
     <row r="51">
@@ -4421,7 +4447,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>48103</v>
+        <v>48099</v>
       </c>
       <c r="C51" t="n">
         <v>6596</v>
@@ -4430,13 +4456,13 @@
         <v>-336</v>
       </c>
       <c r="E51" t="n">
-        <v>54363</v>
+        <v>54359</v>
       </c>
       <c r="F51" t="n">
-        <v>-8151</v>
+        <v>-8295</v>
       </c>
       <c r="G51" t="n">
-        <v>46212</v>
+        <v>46064</v>
       </c>
     </row>
     <row r="52">
@@ -4444,7 +4470,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="n">
-        <v>47296</v>
+        <v>47300</v>
       </c>
       <c r="C52" t="n">
         <v>6047</v>
@@ -4453,13 +4479,13 @@
         <v>-363</v>
       </c>
       <c r="E52" t="n">
-        <v>52980</v>
+        <v>52984</v>
       </c>
       <c r="F52" t="n">
-        <v>-7194</v>
+        <v>-7253</v>
       </c>
       <c r="G52" t="n">
-        <v>45786</v>
+        <v>45731</v>
       </c>
     </row>
     <row r="53">
@@ -4467,7 +4493,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>49488</v>
+        <v>49466</v>
       </c>
       <c r="C53" t="n">
         <v>5898</v>
@@ -4476,13 +4502,13 @@
         <v>-234</v>
       </c>
       <c r="E53" t="n">
-        <v>55152</v>
+        <v>55130</v>
       </c>
       <c r="F53" t="n">
-        <v>-8025</v>
+        <v>-7828</v>
       </c>
       <c r="G53" t="n">
-        <v>47127</v>
+        <v>47302</v>
       </c>
     </row>
     <row r="54">
@@ -4490,7 +4516,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>48343</v>
+        <v>48362</v>
       </c>
       <c r="C54" t="n">
         <v>5723</v>
@@ -4499,13 +4525,13 @@
         <v>-378</v>
       </c>
       <c r="E54" t="n">
-        <v>53688</v>
+        <v>53708</v>
       </c>
       <c r="F54" t="n">
-        <v>-7104</v>
+        <v>-7097</v>
       </c>
       <c r="G54" t="n">
-        <v>46585</v>
+        <v>46610</v>
       </c>
     </row>
     <row r="55">
@@ -4513,7 +4539,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>47353</v>
+        <v>47351</v>
       </c>
       <c r="C55" t="n">
         <v>5343</v>
@@ -4522,13 +4548,13 @@
         <v>-344</v>
       </c>
       <c r="E55" t="n">
-        <v>52352</v>
+        <v>52351</v>
       </c>
       <c r="F55" t="n">
-        <v>-7014</v>
+        <v>-7158</v>
       </c>
       <c r="G55" t="n">
-        <v>45338</v>
+        <v>45193</v>
       </c>
     </row>
     <row r="56">
@@ -4536,7 +4562,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>47146</v>
+        <v>47155</v>
       </c>
       <c r="C56" t="n">
         <v>5128</v>
@@ -4545,13 +4571,13 @@
         <v>-339</v>
       </c>
       <c r="E56" t="n">
-        <v>51934</v>
+        <v>51944</v>
       </c>
       <c r="F56" t="n">
-        <v>-8226</v>
+        <v>-8285</v>
       </c>
       <c r="G56" t="n">
-        <v>43708</v>
+        <v>43659</v>
       </c>
     </row>
     <row r="57">
@@ -4559,7 +4585,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>45505</v>
+        <v>45475</v>
       </c>
       <c r="C57" t="n">
         <v>4483</v>
@@ -4568,13 +4594,13 @@
         <v>-238</v>
       </c>
       <c r="E57" t="n">
-        <v>49750</v>
+        <v>49720</v>
       </c>
       <c r="F57" t="n">
-        <v>-6973</v>
+        <v>-6776</v>
       </c>
       <c r="G57" t="n">
-        <v>42777</v>
+        <v>42944</v>
       </c>
     </row>
     <row r="58">
@@ -4582,7 +4608,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>46086</v>
+        <v>46101</v>
       </c>
       <c r="C58" t="n">
         <v>4202</v>
@@ -4591,13 +4617,13 @@
         <v>-314</v>
       </c>
       <c r="E58" t="n">
-        <v>49975</v>
+        <v>49990</v>
       </c>
       <c r="F58" t="n">
-        <v>-8303</v>
+        <v>-8297</v>
       </c>
       <c r="G58" t="n">
-        <v>41671</v>
+        <v>41693</v>
       </c>
     </row>
     <row r="59">
@@ -4605,7 +4631,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>45650</v>
+        <v>45644</v>
       </c>
       <c r="C59" t="n">
         <v>4421</v>
@@ -4614,13 +4640,13 @@
         <v>-347</v>
       </c>
       <c r="E59" t="n">
-        <v>49723</v>
+        <v>49718</v>
       </c>
       <c r="F59" t="n">
-        <v>-8375</v>
+        <v>-8519</v>
       </c>
       <c r="G59" t="n">
-        <v>41348</v>
+        <v>41199</v>
       </c>
     </row>
     <row r="60">
@@ -4628,7 +4654,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>44915</v>
+        <v>44926</v>
       </c>
       <c r="C60" t="n">
         <v>4461</v>
@@ -4637,13 +4663,13 @@
         <v>-325</v>
       </c>
       <c r="E60" t="n">
-        <v>49051</v>
+        <v>49062</v>
       </c>
       <c r="F60" t="n">
-        <v>-8912</v>
+        <v>-8971</v>
       </c>
       <c r="G60" t="n">
-        <v>40139</v>
+        <v>40091</v>
       </c>
     </row>
     <row r="61">
@@ -4651,7 +4677,7 @@
         <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>44433</v>
+        <v>44407</v>
       </c>
       <c r="C61" t="n">
         <v>4308</v>
@@ -4660,13 +4686,13 @@
         <v>-332</v>
       </c>
       <c r="E61" t="n">
-        <v>48409</v>
+        <v>48383</v>
       </c>
       <c r="F61" t="n">
-        <v>-8058</v>
+        <v>-7861</v>
       </c>
       <c r="G61" t="n">
-        <v>40350</v>
+        <v>40522</v>
       </c>
     </row>
     <row r="62">
@@ -4674,7 +4700,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="n">
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="C62" t="n">
         <v>4248</v>
@@ -4683,13 +4709,13 @@
         <v>-321</v>
       </c>
       <c r="E62" t="n">
-        <v>49832</v>
+        <v>49840</v>
       </c>
       <c r="F62" t="n">
-        <v>-8871</v>
+        <v>-8865</v>
       </c>
       <c r="G62" t="n">
-        <v>40961</v>
+        <v>40974</v>
       </c>
     </row>
     <row r="63">
@@ -4697,7 +4723,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>45777</v>
+        <v>45772</v>
       </c>
       <c r="C63" t="n">
         <v>4366</v>
@@ -4706,13 +4732,13 @@
         <v>-260</v>
       </c>
       <c r="E63" t="n">
-        <v>49883</v>
+        <v>49878</v>
       </c>
       <c r="F63" t="n">
-        <v>-8507</v>
+        <v>-8650</v>
       </c>
       <c r="G63" t="n">
-        <v>41376</v>
+        <v>41228</v>
       </c>
     </row>
     <row r="64">
@@ -4720,7 +4746,7 @@
         <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>45951</v>
+        <v>45976</v>
       </c>
       <c r="C64" t="n">
         <v>4450</v>
@@ -4729,13 +4755,13 @@
         <v>-290</v>
       </c>
       <c r="E64" t="n">
-        <v>50111</v>
+        <v>50136</v>
       </c>
       <c r="F64" t="n">
-        <v>-7946</v>
+        <v>-8005</v>
       </c>
       <c r="G64" t="n">
-        <v>42165</v>
+        <v>42131</v>
       </c>
     </row>
     <row r="65">
@@ -4743,7 +4769,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>45867</v>
+        <v>45850</v>
       </c>
       <c r="C65" t="n">
         <v>4296</v>
@@ -4752,13 +4778,13 @@
         <v>-308</v>
       </c>
       <c r="E65" t="n">
-        <v>49856</v>
+        <v>49839</v>
       </c>
       <c r="F65" t="n">
-        <v>-6314</v>
+        <v>-6117</v>
       </c>
       <c r="G65" t="n">
-        <v>43542</v>
+        <v>43722</v>
       </c>
     </row>
     <row r="66">
@@ -4766,7 +4792,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>46308</v>
+        <v>46295</v>
       </c>
       <c r="C66" t="n">
         <v>4230</v>
@@ -4775,13 +4801,13 @@
         <v>-284</v>
       </c>
       <c r="E66" t="n">
-        <v>50253</v>
+        <v>50241</v>
       </c>
       <c r="F66" t="n">
-        <v>-9399</v>
+        <v>-9393</v>
       </c>
       <c r="G66" t="n">
-        <v>40854</v>
+        <v>40848</v>
       </c>
     </row>
     <row r="67">
@@ -4789,7 +4815,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>47186</v>
+        <v>47188</v>
       </c>
       <c r="C67" t="n">
         <v>4095</v>
@@ -4798,13 +4824,13 @@
         <v>-283</v>
       </c>
       <c r="E67" t="n">
-        <v>50999</v>
+        <v>51001</v>
       </c>
       <c r="F67" t="n">
-        <v>-9497</v>
+        <v>-9641</v>
       </c>
       <c r="G67" t="n">
-        <v>41501</v>
+        <v>41360</v>
       </c>
     </row>
     <row r="68">
@@ -4812,7 +4838,7 @@
         <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>46321</v>
+        <v>46357</v>
       </c>
       <c r="C68" t="n">
         <v>4030</v>
@@ -4821,13 +4847,13 @@
         <v>-277</v>
       </c>
       <c r="E68" t="n">
-        <v>50075</v>
+        <v>50111</v>
       </c>
       <c r="F68" t="n">
-        <v>-9318</v>
+        <v>-9377</v>
       </c>
       <c r="G68" t="n">
-        <v>40757</v>
+        <v>40734</v>
       </c>
     </row>
     <row r="69">
@@ -4835,7 +4861,7 @@
         <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>46200</v>
+        <v>46193</v>
       </c>
       <c r="C69" t="n">
         <v>4228</v>
@@ -4844,13 +4870,13 @@
         <v>-285</v>
       </c>
       <c r="E69" t="n">
-        <v>50143</v>
+        <v>50137</v>
       </c>
       <c r="F69" t="n">
-        <v>-9540</v>
+        <v>-9343</v>
       </c>
       <c r="G69" t="n">
-        <v>40603</v>
+        <v>40793</v>
       </c>
     </row>
     <row r="70">
@@ -4858,7 +4884,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>46021</v>
+        <v>45988</v>
       </c>
       <c r="C70" t="n">
         <v>4158</v>
@@ -4867,13 +4893,13 @@
         <v>-277</v>
       </c>
       <c r="E70" t="n">
-        <v>49902</v>
+        <v>49869</v>
       </c>
       <c r="F70" t="n">
-        <v>-10004</v>
+        <v>-9998</v>
       </c>
       <c r="G70" t="n">
-        <v>39898</v>
+        <v>39871</v>
       </c>
     </row>
     <row r="71">
@@ -4881,7 +4907,7 @@
         <v>76</v>
       </c>
       <c r="B71" t="n">
-        <v>47094</v>
+        <v>47090</v>
       </c>
       <c r="C71" t="n">
         <v>4133</v>
@@ -4890,13 +4916,13 @@
         <v>-286</v>
       </c>
       <c r="E71" t="n">
-        <v>50941</v>
+        <v>50936</v>
       </c>
       <c r="F71" t="n">
-        <v>-9177</v>
+        <v>-9321</v>
       </c>
       <c r="G71" t="n">
-        <v>41764</v>
+        <v>41615</v>
       </c>
     </row>
     <row r="72">
@@ -4904,7 +4930,7 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>45975</v>
+        <v>46062</v>
       </c>
       <c r="C72" t="n">
         <v>4247</v>
@@ -4913,13 +4939,13 @@
         <v>-276</v>
       </c>
       <c r="E72" t="n">
-        <v>49947</v>
+        <v>50034</v>
       </c>
       <c r="F72" t="n">
-        <v>-9583</v>
+        <v>-9642</v>
       </c>
       <c r="G72" t="n">
-        <v>40364</v>
+        <v>40392</v>
       </c>
     </row>
     <row r="73">
@@ -4927,7 +4953,7 @@
         <v>78</v>
       </c>
       <c r="B73" t="n">
-        <v>46532</v>
+        <v>46502</v>
       </c>
       <c r="C73" t="n">
         <v>4140</v>
@@ -4936,13 +4962,13 @@
         <v>-308</v>
       </c>
       <c r="E73" t="n">
-        <v>50364</v>
+        <v>50334</v>
       </c>
       <c r="F73" t="n">
-        <v>-9368</v>
+        <v>-9171</v>
       </c>
       <c r="G73" t="n">
-        <v>40995</v>
+        <v>41163</v>
       </c>
     </row>
     <row r="74">
@@ -4950,7 +4976,7 @@
         <v>79</v>
       </c>
       <c r="B74" t="n">
-        <v>45597</v>
+        <v>45528</v>
       </c>
       <c r="C74" t="n">
         <v>4325</v>
@@ -4959,13 +4985,13 @@
         <v>-288</v>
       </c>
       <c r="E74" t="n">
-        <v>49634</v>
+        <v>49566</v>
       </c>
       <c r="F74" t="n">
-        <v>-7901</v>
+        <v>-7895</v>
       </c>
       <c r="G74" t="n">
-        <v>41733</v>
+        <v>41671</v>
       </c>
     </row>
     <row r="75">
@@ -4973,7 +4999,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="n">
-        <v>47128</v>
+        <v>47126</v>
       </c>
       <c r="C75" t="n">
         <v>4204</v>
@@ -4982,13 +5008,13 @@
         <v>-292</v>
       </c>
       <c r="E75" t="n">
-        <v>51041</v>
+        <v>51039</v>
       </c>
       <c r="F75" t="n">
-        <v>-8718</v>
+        <v>-8861</v>
       </c>
       <c r="G75" t="n">
-        <v>42323</v>
+        <v>42177</v>
       </c>
     </row>
     <row r="76">
@@ -4996,7 +5022,7 @@
         <v>81</v>
       </c>
       <c r="B76" t="n">
-        <v>47854</v>
+        <v>47992</v>
       </c>
       <c r="C76" t="n">
         <v>4389</v>
@@ -5005,13 +5031,13 @@
         <v>-284</v>
       </c>
       <c r="E76" t="n">
-        <v>51960</v>
+        <v>52097</v>
       </c>
       <c r="F76" t="n">
-        <v>-8204</v>
+        <v>-8263</v>
       </c>
       <c r="G76" t="n">
-        <v>43756</v>
+        <v>43834</v>
       </c>
     </row>
     <row r="77">
@@ -5019,7 +5045,7 @@
         <v>82</v>
       </c>
       <c r="B77" t="n">
-        <v>47635</v>
+        <v>47594</v>
       </c>
       <c r="C77" t="n">
         <v>4321</v>
@@ -5028,13 +5054,13 @@
         <v>-244</v>
       </c>
       <c r="E77" t="n">
-        <v>51713</v>
+        <v>51672</v>
       </c>
       <c r="F77" t="n">
-        <v>-7126</v>
+        <v>-6929</v>
       </c>
       <c r="G77" t="n">
-        <v>44587</v>
+        <v>44743</v>
       </c>
     </row>
     <row r="78">
@@ -5042,7 +5068,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="n">
-        <v>49557</v>
+        <v>49446</v>
       </c>
       <c r="C78" t="n">
         <v>4498</v>
@@ -5051,13 +5077,13 @@
         <v>-254</v>
       </c>
       <c r="E78" t="n">
-        <v>53801</v>
+        <v>53690</v>
       </c>
       <c r="F78" t="n">
-        <v>-8504</v>
+        <v>-8498</v>
       </c>
       <c r="G78" t="n">
-        <v>45297</v>
+        <v>45192</v>
       </c>
     </row>
     <row r="79">
@@ -5065,7 +5091,7 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>51404</v>
+        <v>51396</v>
       </c>
       <c r="C79" t="n">
         <v>4770</v>
@@ -5074,13 +5100,13 @@
         <v>-252</v>
       </c>
       <c r="E79" t="n">
-        <v>55922</v>
+        <v>55914</v>
       </c>
       <c r="F79" t="n">
-        <v>-8688</v>
+        <v>-8832</v>
       </c>
       <c r="G79" t="n">
-        <v>47234</v>
+        <v>47081</v>
       </c>
     </row>
     <row r="80">
@@ -5088,7 +5114,7 @@
         <v>85</v>
       </c>
       <c r="B80" t="n">
-        <v>51669</v>
+        <v>51871</v>
       </c>
       <c r="C80" t="n">
         <v>4524</v>
@@ -5097,13 +5123,13 @@
         <v>-247</v>
       </c>
       <c r="E80" t="n">
-        <v>55946</v>
+        <v>56148</v>
       </c>
       <c r="F80" t="n">
-        <v>-8927</v>
+        <v>-8986</v>
       </c>
       <c r="G80" t="n">
-        <v>47019</v>
+        <v>47161</v>
       </c>
     </row>
     <row r="81">
@@ -5111,7 +5137,7 @@
         <v>86</v>
       </c>
       <c r="B81" t="n">
-        <v>51201</v>
+        <v>51150</v>
       </c>
       <c r="C81" t="n">
         <v>5084</v>
@@ -5120,13 +5146,13 @@
         <v>-247</v>
       </c>
       <c r="E81" t="n">
-        <v>56037</v>
+        <v>55987</v>
       </c>
       <c r="F81" t="n">
-        <v>-8026</v>
+        <v>-7829</v>
       </c>
       <c r="G81" t="n">
-        <v>48011</v>
+        <v>48157</v>
       </c>
     </row>
     <row r="82">
@@ -5134,7 +5160,7 @@
         <v>87</v>
       </c>
       <c r="B82" t="n">
-        <v>64999</v>
+        <v>64732</v>
       </c>
       <c r="C82" t="n">
         <v>4855</v>
@@ -5143,13 +5169,13 @@
         <v>-228</v>
       </c>
       <c r="E82" t="n">
-        <v>69625</v>
+        <v>69359</v>
       </c>
       <c r="F82" t="n">
-        <v>-16632</v>
+        <v>-16626</v>
       </c>
       <c r="G82" t="n">
-        <v>52994</v>
+        <v>52733</v>
       </c>
     </row>
     <row r="83">
@@ -5157,7 +5183,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>63134</v>
+        <v>63170</v>
       </c>
       <c r="C83" t="n">
         <v>5064</v>
@@ -5166,13 +5192,13 @@
         <v>-227</v>
       </c>
       <c r="E83" t="n">
-        <v>67971</v>
+        <v>68007</v>
       </c>
       <c r="F83" t="n">
-        <v>-11370</v>
+        <v>-11514</v>
       </c>
       <c r="G83" t="n">
-        <v>56601</v>
+        <v>56493</v>
       </c>
     </row>
     <row r="84">
@@ -5180,7 +5206,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="n">
-        <v>64916</v>
+        <v>65168</v>
       </c>
       <c r="C84" t="n">
         <v>5046</v>
@@ -5189,13 +5215,13 @@
         <v>-230</v>
       </c>
       <c r="E84" t="n">
-        <v>69732</v>
+        <v>69984</v>
       </c>
       <c r="F84" t="n">
-        <v>-18513</v>
+        <v>-18572</v>
       </c>
       <c r="G84" t="n">
-        <v>51219</v>
+        <v>51412</v>
       </c>
     </row>
     <row r="85">
@@ -5203,7 +5229,7 @@
         <v>90</v>
       </c>
       <c r="B85" t="n">
-        <v>65828</v>
+        <v>65784</v>
       </c>
       <c r="C85" t="n">
         <v>5052</v>
@@ -5212,13 +5238,13 @@
         <v>-226</v>
       </c>
       <c r="E85" t="n">
-        <v>70655</v>
+        <v>70610</v>
       </c>
       <c r="F85" t="n">
-        <v>-16638</v>
+        <v>-16441</v>
       </c>
       <c r="G85" t="n">
-        <v>54016</v>
+        <v>54169</v>
       </c>
     </row>
     <row r="86">
@@ -5226,7 +5252,7 @@
         <v>91</v>
       </c>
       <c r="B86" t="n">
-        <v>63699</v>
+        <v>63477</v>
       </c>
       <c r="C86" t="n">
         <v>5358</v>
@@ -5235,13 +5261,13 @@
         <v>-239</v>
       </c>
       <c r="E86" t="n">
-        <v>68818</v>
+        <v>68596</v>
       </c>
       <c r="F86" t="n">
-        <v>-11609</v>
+        <v>-11603</v>
       </c>
       <c r="G86" t="n">
-        <v>57209</v>
+        <v>56993</v>
       </c>
     </row>
     <row r="87">
@@ -5249,22 +5275,22 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>64559</v>
+        <v>64600</v>
       </c>
       <c r="C87" t="n">
         <v>5477</v>
       </c>
       <c r="D87" t="n">
-        <v>-237</v>
+        <v>-238</v>
       </c>
       <c r="E87" t="n">
-        <v>69799</v>
+        <v>69840</v>
       </c>
       <c r="F87" t="n">
-        <v>-11726</v>
+        <v>-11870</v>
       </c>
       <c r="G87" t="n">
-        <v>58073</v>
+        <v>57970</v>
       </c>
     </row>
     <row r="88">
@@ -5272,7 +5298,7 @@
         <v>93</v>
       </c>
       <c r="B88" t="n">
-        <v>63923</v>
+        <v>64108</v>
       </c>
       <c r="C88" t="n">
         <v>5194</v>
@@ -5281,13 +5307,13 @@
         <v>-237</v>
       </c>
       <c r="E88" t="n">
-        <v>68881</v>
+        <v>69065</v>
       </c>
       <c r="F88" t="n">
-        <v>-15354</v>
+        <v>-15413</v>
       </c>
       <c r="G88" t="n">
-        <v>53527</v>
+        <v>53652</v>
       </c>
     </row>
     <row r="89">
@@ -5295,22 +5321,22 @@
         <v>94</v>
       </c>
       <c r="B89" t="n">
-        <v>72020</v>
+        <v>71998</v>
       </c>
       <c r="C89" t="n">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="D89" t="n">
-        <v>-243</v>
+        <v>-242</v>
       </c>
       <c r="E89" t="n">
-        <v>77034</v>
+        <v>77013</v>
       </c>
       <c r="F89" t="n">
-        <v>-14440</v>
+        <v>-14243</v>
       </c>
       <c r="G89" t="n">
-        <v>62595</v>
+        <v>62770</v>
       </c>
     </row>
     <row r="90">
@@ -5318,22 +5344,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="n">
-        <v>68466</v>
+        <v>68269</v>
       </c>
       <c r="C90" t="n">
-        <v>5558</v>
+        <v>5559</v>
       </c>
       <c r="D90" t="n">
         <v>-240</v>
       </c>
       <c r="E90" t="n">
-        <v>73784</v>
+        <v>73588</v>
       </c>
       <c r="F90" t="n">
-        <v>-15622</v>
+        <v>-15615</v>
       </c>
       <c r="G90" t="n">
-        <v>58162</v>
+        <v>57972</v>
       </c>
     </row>
     <row r="91">
@@ -5341,7 +5367,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>71063</v>
+        <v>71099</v>
       </c>
       <c r="C91" t="n">
         <v>5231</v>
@@ -5350,13 +5376,13 @@
         <v>-240</v>
       </c>
       <c r="E91" t="n">
-        <v>76055</v>
+        <v>76091</v>
       </c>
       <c r="F91" t="n">
-        <v>-16598</v>
+        <v>-16742</v>
       </c>
       <c r="G91" t="n">
-        <v>59457</v>
+        <v>59349</v>
       </c>
     </row>
     <row r="92">
@@ -5364,22 +5390,22 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>72984</v>
+        <v>73158</v>
       </c>
       <c r="C92" t="n">
         <v>5489</v>
       </c>
       <c r="D92" t="n">
-        <v>-243</v>
+        <v>-244</v>
       </c>
       <c r="E92" t="n">
-        <v>78230</v>
+        <v>78403</v>
       </c>
       <c r="F92" t="n">
-        <v>-14862</v>
+        <v>-14921</v>
       </c>
       <c r="G92" t="n">
-        <v>63368</v>
+        <v>63482</v>
       </c>
     </row>
     <row r="93">
@@ -5387,22 +5413,22 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>77086</v>
+        <v>77058</v>
       </c>
       <c r="C93" t="n">
-        <v>5699</v>
+        <v>5698</v>
       </c>
       <c r="D93" t="n">
-        <v>-250</v>
+        <v>-249</v>
       </c>
       <c r="E93" t="n">
-        <v>82535</v>
+        <v>82507</v>
       </c>
       <c r="F93" t="n">
-        <v>-17658</v>
+        <v>-17461</v>
       </c>
       <c r="G93" t="n">
-        <v>64876</v>
+        <v>65046</v>
       </c>
     </row>
     <row r="94">
@@ -5410,22 +5436,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="n">
-        <v>77862</v>
+        <v>77689</v>
       </c>
       <c r="C94" t="n">
-        <v>5541</v>
+        <v>5542</v>
       </c>
       <c r="D94" t="n">
-        <v>-252</v>
+        <v>-253</v>
       </c>
       <c r="E94" t="n">
-        <v>83151</v>
+        <v>82977</v>
       </c>
       <c r="F94" t="n">
-        <v>-18886</v>
+        <v>-18880</v>
       </c>
       <c r="G94" t="n">
-        <v>64265</v>
+        <v>64097</v>
       </c>
     </row>
     <row r="95">
@@ -5433,7 +5459,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="n">
-        <v>80210</v>
+        <v>80211</v>
       </c>
       <c r="C95" t="n">
         <v>5543</v>
@@ -5442,13 +5468,13 @@
         <v>-254</v>
       </c>
       <c r="E95" t="n">
-        <v>85499</v>
+        <v>85500</v>
       </c>
       <c r="F95" t="n">
-        <v>-17875</v>
+        <v>-18019</v>
       </c>
       <c r="G95" t="n">
-        <v>67624</v>
+        <v>67481</v>
       </c>
     </row>
     <row r="96">
@@ -5456,22 +5482,22 @@
         <v>101</v>
       </c>
       <c r="B96" t="n">
-        <v>79014</v>
+        <v>79238</v>
       </c>
       <c r="C96" t="n">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="D96" t="n">
-        <v>-259</v>
+        <v>-261</v>
       </c>
       <c r="E96" t="n">
-        <v>84557</v>
+        <v>84778</v>
       </c>
       <c r="F96" t="n">
-        <v>-18488</v>
+        <v>-18547</v>
       </c>
       <c r="G96" t="n">
-        <v>66069</v>
+        <v>66232</v>
       </c>
     </row>
     <row r="97">
@@ -5479,22 +5505,22 @@
         <v>102</v>
       </c>
       <c r="B97" t="n">
-        <v>80377</v>
+        <v>80341</v>
       </c>
       <c r="C97" t="n">
-        <v>5747</v>
+        <v>5746</v>
       </c>
       <c r="D97" t="n">
-        <v>-269</v>
+        <v>-266</v>
       </c>
       <c r="E97" t="n">
-        <v>85855</v>
+        <v>85821</v>
       </c>
       <c r="F97" t="n">
-        <v>-22227</v>
+        <v>-22030</v>
       </c>
       <c r="G97" t="n">
-        <v>63628</v>
+        <v>63791</v>
       </c>
     </row>
     <row r="98">
@@ -5502,22 +5528,22 @@
         <v>103</v>
       </c>
       <c r="B98" t="n">
-        <v>81578</v>
+        <v>81362</v>
       </c>
       <c r="C98" t="n">
-        <v>6050</v>
+        <v>6052</v>
       </c>
       <c r="D98" t="n">
-        <v>-244</v>
+        <v>-247</v>
       </c>
       <c r="E98" t="n">
-        <v>87384</v>
+        <v>87168</v>
       </c>
       <c r="F98" t="n">
-        <v>-19613</v>
+        <v>-19607</v>
       </c>
       <c r="G98" t="n">
-        <v>67772</v>
+        <v>67561</v>
       </c>
     </row>
     <row r="99">
@@ -5525,22 +5551,22 @@
         <v>104</v>
       </c>
       <c r="B99" t="n">
-        <v>83540</v>
+        <v>83535</v>
       </c>
       <c r="C99" t="n">
         <v>6068</v>
       </c>
       <c r="D99" t="n">
-        <v>-248</v>
+        <v>-247</v>
       </c>
       <c r="E99" t="n">
-        <v>89360</v>
+        <v>89356</v>
       </c>
       <c r="F99" t="n">
-        <v>-21064</v>
+        <v>-21208</v>
       </c>
       <c r="G99" t="n">
-        <v>68296</v>
+        <v>68148</v>
       </c>
     </row>
     <row r="100">
@@ -5548,22 +5574,22 @@
         <v>105</v>
       </c>
       <c r="B100" t="n">
-        <v>83455</v>
+        <v>83755</v>
       </c>
       <c r="C100" t="n">
-        <v>5998</v>
+        <v>5995</v>
       </c>
       <c r="D100" t="n">
-        <v>-257</v>
+        <v>-259</v>
       </c>
       <c r="E100" t="n">
-        <v>89196</v>
+        <v>89492</v>
       </c>
       <c r="F100" t="n">
-        <v>-20358</v>
+        <v>-20417</v>
       </c>
       <c r="G100" t="n">
-        <v>68837</v>
+        <v>69074</v>
       </c>
     </row>
     <row r="101">
@@ -5571,22 +5597,22 @@
         <v>106</v>
       </c>
       <c r="B101" t="n">
-        <v>84653</v>
+        <v>84592</v>
       </c>
       <c r="C101" t="n">
-        <v>6132</v>
+        <v>6130</v>
       </c>
       <c r="D101" t="n">
-        <v>-268</v>
+        <v>-264</v>
       </c>
       <c r="E101" t="n">
-        <v>90517</v>
+        <v>90458</v>
       </c>
       <c r="F101" t="n">
-        <v>-19917</v>
+        <v>-19720</v>
       </c>
       <c r="G101" t="n">
-        <v>70600</v>
+        <v>70738</v>
       </c>
     </row>
     <row r="102">
@@ -5594,22 +5620,22 @@
         <v>107</v>
       </c>
       <c r="B102" t="n">
-        <v>88907</v>
+        <v>88650</v>
       </c>
       <c r="C102" t="n">
-        <v>4474</v>
+        <v>4479</v>
       </c>
       <c r="D102" t="n">
-        <v>-302</v>
+        <v>-309</v>
       </c>
       <c r="E102" t="n">
-        <v>93078</v>
+        <v>92819</v>
       </c>
       <c r="F102" t="n">
-        <v>-21057</v>
+        <v>-21051</v>
       </c>
       <c r="G102" t="n">
-        <v>72021</v>
+        <v>71768</v>
       </c>
     </row>
     <row r="103">
@@ -5617,22 +5643,22 @@
         <v>108</v>
       </c>
       <c r="B103" t="n">
-        <v>84755</v>
+        <v>84717</v>
       </c>
       <c r="C103" t="n">
-        <v>5814</v>
+        <v>5812</v>
       </c>
       <c r="D103" t="n">
-        <v>-317</v>
+        <v>-315</v>
       </c>
       <c r="E103" t="n">
-        <v>90251</v>
+        <v>90215</v>
       </c>
       <c r="F103" t="n">
-        <v>-21993</v>
+        <v>-22137</v>
       </c>
       <c r="G103" t="n">
-        <v>68258</v>
+        <v>68078</v>
       </c>
     </row>
     <row r="104">
@@ -5640,22 +5666,22 @@
         <v>109</v>
       </c>
       <c r="B104" t="n">
-        <v>93641</v>
+        <v>94083</v>
       </c>
       <c r="C104" t="n">
-        <v>5762</v>
+        <v>5757</v>
       </c>
       <c r="D104" t="n">
-        <v>-290</v>
+        <v>-291</v>
       </c>
       <c r="E104" t="n">
-        <v>99113</v>
+        <v>99549</v>
       </c>
       <c r="F104" t="n">
-        <v>-30475</v>
+        <v>-30535</v>
       </c>
       <c r="G104" t="n">
-        <v>68638</v>
+        <v>69015</v>
       </c>
     </row>
     <row r="105">
@@ -5663,22 +5689,22 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>89491</v>
+        <v>89362</v>
       </c>
       <c r="C105" t="n">
-        <v>5739</v>
+        <v>5734</v>
       </c>
       <c r="D105" t="n">
-        <v>-312</v>
+        <v>-305</v>
       </c>
       <c r="E105" t="n">
-        <v>94918</v>
+        <v>94791</v>
       </c>
       <c r="F105" t="n">
-        <v>-18973</v>
+        <v>-18776</v>
       </c>
       <c r="G105" t="n">
-        <v>75946</v>
+        <v>76015</v>
       </c>
     </row>
     <row r="106">
@@ -5686,22 +5712,22 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>98558</v>
+        <v>98160</v>
       </c>
       <c r="C106" t="n">
-        <v>5940</v>
+        <v>5955</v>
       </c>
       <c r="D106" t="n">
-        <v>-340</v>
+        <v>-352</v>
       </c>
       <c r="E106" t="n">
-        <v>104158</v>
+        <v>103763</v>
       </c>
       <c r="F106" t="n">
-        <v>-29407</v>
+        <v>-29401</v>
       </c>
       <c r="G106" t="n">
-        <v>74751</v>
+        <v>74362</v>
       </c>
     </row>
     <row r="107">
@@ -5709,22 +5735,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>102957</v>
+        <v>102899</v>
       </c>
       <c r="C107" t="n">
-        <v>6354</v>
+        <v>6351</v>
       </c>
       <c r="D107" t="n">
-        <v>-339</v>
+        <v>-335</v>
       </c>
       <c r="E107" t="n">
-        <v>108973</v>
+        <v>108915</v>
       </c>
       <c r="F107" t="n">
-        <v>-30422</v>
+        <v>-30566</v>
       </c>
       <c r="G107" t="n">
-        <v>78551</v>
+        <v>78349</v>
       </c>
     </row>
     <row r="108">
@@ -5732,22 +5758,22 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>104145</v>
+        <v>104847</v>
       </c>
       <c r="C108" t="n">
-        <v>6532</v>
+        <v>6523</v>
       </c>
       <c r="D108" t="n">
-        <v>-352</v>
+        <v>-353</v>
       </c>
       <c r="E108" t="n">
-        <v>110324</v>
+        <v>111017</v>
       </c>
       <c r="F108" t="n">
-        <v>-27487</v>
+        <v>-27546</v>
       </c>
       <c r="G108" t="n">
-        <v>82837</v>
+        <v>83471</v>
       </c>
     </row>
     <row r="109">
@@ -5755,22 +5781,45 @@
         <v>114</v>
       </c>
       <c r="B109" t="n">
-        <v>98170</v>
+        <v>97943</v>
       </c>
       <c r="C109" t="n">
-        <v>6599</v>
+        <v>6589</v>
       </c>
       <c r="D109" t="n">
-        <v>-361</v>
+        <v>-354</v>
       </c>
       <c r="E109" t="n">
-        <v>104408</v>
+        <v>104178</v>
       </c>
       <c r="F109" t="n">
-        <v>-23273</v>
+        <v>-23076</v>
       </c>
       <c r="G109" t="n">
-        <v>81134</v>
+        <v>81102</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109097</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6723</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-338</v>
+      </c>
+      <c r="E110" t="n">
+        <v>115482</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-34672</v>
+      </c>
+      <c r="G110" t="n">
+        <v>80810</v>
       </c>
     </row>
   </sheetData>
@@ -5792,22 +5841,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
@@ -8292,6 +8341,29 @@
       </c>
       <c r="G109" t="n">
         <v>83347</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="n">
+        <v>109474</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7465</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-325</v>
+      </c>
+      <c r="E110" t="n">
+        <v>116614</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-35085</v>
+      </c>
+      <c r="G110" t="n">
+        <v>81529</v>
       </c>
     </row>
   </sheetData>
@@ -8313,22 +8385,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
@@ -8336,7 +8408,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>11876</v>
+        <v>11878</v>
       </c>
       <c r="C2" t="n">
         <v>1680</v>
@@ -8345,13 +8417,13 @@
         <v>-311</v>
       </c>
       <c r="E2" t="n">
-        <v>13245</v>
+        <v>13247</v>
       </c>
       <c r="F2" t="n">
-        <v>-1412</v>
+        <v>-1411</v>
       </c>
       <c r="G2" t="n">
-        <v>11833</v>
+        <v>11836</v>
       </c>
     </row>
     <row r="3">
@@ -8359,7 +8431,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>12165</v>
+        <v>12168</v>
       </c>
       <c r="C3" t="n">
         <v>1729</v>
@@ -8368,13 +8440,13 @@
         <v>-295</v>
       </c>
       <c r="E3" t="n">
-        <v>13600</v>
+        <v>13603</v>
       </c>
       <c r="F3" t="n">
-        <v>-1067</v>
+        <v>-1100</v>
       </c>
       <c r="G3" t="n">
-        <v>12533</v>
+        <v>12503</v>
       </c>
     </row>
     <row r="4">
@@ -8382,7 +8454,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>12519</v>
+        <v>12522</v>
       </c>
       <c r="C4" t="n">
         <v>1784</v>
@@ -8391,13 +8463,13 @@
         <v>-474</v>
       </c>
       <c r="E4" t="n">
-        <v>13829</v>
+        <v>13832</v>
       </c>
       <c r="F4" t="n">
-        <v>-1406</v>
+        <v>-1462</v>
       </c>
       <c r="G4" t="n">
-        <v>12423</v>
+        <v>12370</v>
       </c>
     </row>
     <row r="5">
@@ -8405,7 +8477,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>12483</v>
+        <v>12473</v>
       </c>
       <c r="C5" t="n">
         <v>1832</v>
@@ -8414,13 +8486,13 @@
         <v>-336</v>
       </c>
       <c r="E5" t="n">
-        <v>13978</v>
+        <v>13969</v>
       </c>
       <c r="F5" t="n">
-        <v>-2063</v>
+        <v>-1975</v>
       </c>
       <c r="G5" t="n">
-        <v>11915</v>
+        <v>11993</v>
       </c>
     </row>
     <row r="6">
@@ -8428,7 +8500,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>13141</v>
+        <v>13144</v>
       </c>
       <c r="C6" t="n">
         <v>1853</v>
@@ -8437,13 +8509,13 @@
         <v>-359</v>
       </c>
       <c r="E6" t="n">
-        <v>14635</v>
+        <v>14637</v>
       </c>
       <c r="F6" t="n">
-        <v>-1572</v>
+        <v>-1571</v>
       </c>
       <c r="G6" t="n">
-        <v>13063</v>
+        <v>13066</v>
       </c>
     </row>
     <row r="7">
@@ -8451,7 +8523,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>13356</v>
+        <v>13358</v>
       </c>
       <c r="C7" t="n">
         <v>1910</v>
@@ -8460,13 +8532,13 @@
         <v>-333</v>
       </c>
       <c r="E7" t="n">
-        <v>14933</v>
+        <v>14935</v>
       </c>
       <c r="F7" t="n">
-        <v>-1208</v>
+        <v>-1241</v>
       </c>
       <c r="G7" t="n">
-        <v>13725</v>
+        <v>13693</v>
       </c>
     </row>
     <row r="8">
@@ -8474,7 +8546,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>13601</v>
+        <v>13603</v>
       </c>
       <c r="C8" t="n">
         <v>1973</v>
@@ -8483,13 +8555,13 @@
         <v>-549</v>
       </c>
       <c r="E8" t="n">
-        <v>15025</v>
+        <v>15027</v>
       </c>
       <c r="F8" t="n">
-        <v>-1544</v>
+        <v>-1600</v>
       </c>
       <c r="G8" t="n">
-        <v>13480</v>
+        <v>13427</v>
       </c>
     </row>
     <row r="9">
@@ -8497,7 +8569,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>13880</v>
+        <v>13874</v>
       </c>
       <c r="C9" t="n">
         <v>2023</v>
@@ -8506,13 +8578,13 @@
         <v>-379</v>
       </c>
       <c r="E9" t="n">
-        <v>15523</v>
+        <v>15517</v>
       </c>
       <c r="F9" t="n">
-        <v>-2211</v>
+        <v>-2123</v>
       </c>
       <c r="G9" t="n">
-        <v>13312</v>
+        <v>13394</v>
       </c>
     </row>
     <row r="10">
@@ -8520,7 +8592,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>14397</v>
+        <v>14405</v>
       </c>
       <c r="C10" t="n">
         <v>2099</v>
@@ -8529,13 +8601,13 @@
         <v>-408</v>
       </c>
       <c r="E10" t="n">
-        <v>16088</v>
+        <v>16096</v>
       </c>
       <c r="F10" t="n">
-        <v>-2014</v>
+        <v>-2013</v>
       </c>
       <c r="G10" t="n">
-        <v>14074</v>
+        <v>14083</v>
       </c>
     </row>
     <row r="11">
@@ -8543,7 +8615,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>15262</v>
+        <v>15260</v>
       </c>
       <c r="C11" t="n">
         <v>2184</v>
@@ -8552,13 +8624,13 @@
         <v>-427</v>
       </c>
       <c r="E11" t="n">
-        <v>17020</v>
+        <v>17017</v>
       </c>
       <c r="F11" t="n">
-        <v>-1849</v>
+        <v>-1882</v>
       </c>
       <c r="G11" t="n">
-        <v>15171</v>
+        <v>15136</v>
       </c>
     </row>
     <row r="12">
@@ -8566,7 +8638,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>15894</v>
+        <v>15893</v>
       </c>
       <c r="C12" t="n">
         <v>2249</v>
@@ -8575,13 +8647,13 @@
         <v>-414</v>
       </c>
       <c r="E12" t="n">
-        <v>17728</v>
+        <v>17727</v>
       </c>
       <c r="F12" t="n">
-        <v>-1714</v>
+        <v>-1770</v>
       </c>
       <c r="G12" t="n">
-        <v>16014</v>
+        <v>15957</v>
       </c>
     </row>
     <row r="13">
@@ -8589,7 +8661,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>16617</v>
+        <v>16614</v>
       </c>
       <c r="C13" t="n">
         <v>2312</v>
@@ -8598,13 +8670,13 @@
         <v>-400</v>
       </c>
       <c r="E13" t="n">
-        <v>18530</v>
+        <v>18527</v>
       </c>
       <c r="F13" t="n">
-        <v>-2463</v>
+        <v>-2375</v>
       </c>
       <c r="G13" t="n">
-        <v>16067</v>
+        <v>16151</v>
       </c>
     </row>
     <row r="14">
@@ -8612,7 +8684,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>17065</v>
+        <v>17066</v>
       </c>
       <c r="C14" t="n">
         <v>2355</v>
@@ -8621,13 +8693,13 @@
         <v>-394</v>
       </c>
       <c r="E14" t="n">
-        <v>19026</v>
+        <v>19027</v>
       </c>
       <c r="F14" t="n">
-        <v>-1921</v>
+        <v>-1920</v>
       </c>
       <c r="G14" t="n">
-        <v>17105</v>
+        <v>17107</v>
       </c>
     </row>
     <row r="15">
@@ -8635,7 +8707,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>17706</v>
+        <v>17708</v>
       </c>
       <c r="C15" t="n">
         <v>2535</v>
@@ -8644,13 +8716,13 @@
         <v>-440</v>
       </c>
       <c r="E15" t="n">
-        <v>19801</v>
+        <v>19803</v>
       </c>
       <c r="F15" t="n">
-        <v>-2120</v>
+        <v>-2153</v>
       </c>
       <c r="G15" t="n">
-        <v>17681</v>
+        <v>17650</v>
       </c>
     </row>
     <row r="16">
@@ -8658,7 +8730,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="n">
-        <v>18741</v>
+        <v>18735</v>
       </c>
       <c r="C16" t="n">
         <v>2540</v>
@@ -8667,13 +8739,13 @@
         <v>-375</v>
       </c>
       <c r="E16" t="n">
-        <v>20907</v>
+        <v>20901</v>
       </c>
       <c r="F16" t="n">
-        <v>-2730</v>
+        <v>-2785</v>
       </c>
       <c r="G16" t="n">
-        <v>18177</v>
+        <v>18116</v>
       </c>
     </row>
     <row r="17">
@@ -8681,7 +8753,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="n">
-        <v>18629</v>
+        <v>18631</v>
       </c>
       <c r="C17" t="n">
         <v>2668</v>
@@ -8690,13 +8762,13 @@
         <v>-440</v>
       </c>
       <c r="E17" t="n">
-        <v>20857</v>
+        <v>20859</v>
       </c>
       <c r="F17" t="n">
-        <v>-2781</v>
+        <v>-2693</v>
       </c>
       <c r="G17" t="n">
-        <v>18077</v>
+        <v>18166</v>
       </c>
     </row>
     <row r="18">
@@ -8704,7 +8776,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="n">
-        <v>19522</v>
+        <v>19524</v>
       </c>
       <c r="C18" t="n">
         <v>2622</v>
@@ -8713,13 +8785,13 @@
         <v>-380</v>
       </c>
       <c r="E18" t="n">
-        <v>21764</v>
+        <v>21766</v>
       </c>
       <c r="F18" t="n">
-        <v>-2448</v>
+        <v>-2447</v>
       </c>
       <c r="G18" t="n">
-        <v>19316</v>
+        <v>19319</v>
       </c>
     </row>
     <row r="19">
@@ -8727,7 +8799,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="n">
-        <v>19646</v>
+        <v>19645</v>
       </c>
       <c r="C19" t="n">
         <v>3000</v>
@@ -8736,13 +8808,13 @@
         <v>-382</v>
       </c>
       <c r="E19" t="n">
-        <v>22264</v>
+        <v>22263</v>
       </c>
       <c r="F19" t="n">
-        <v>-2690</v>
+        <v>-2723</v>
       </c>
       <c r="G19" t="n">
-        <v>19574</v>
+        <v>19540</v>
       </c>
     </row>
     <row r="20">
@@ -8750,7 +8822,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>21442</v>
+        <v>21437</v>
       </c>
       <c r="C20" t="n">
         <v>2852</v>
@@ -8759,13 +8831,13 @@
         <v>-418</v>
       </c>
       <c r="E20" t="n">
-        <v>23875</v>
+        <v>23871</v>
       </c>
       <c r="F20" t="n">
-        <v>-3894</v>
+        <v>-3950</v>
       </c>
       <c r="G20" t="n">
-        <v>19981</v>
+        <v>19921</v>
       </c>
     </row>
     <row r="21">
@@ -8773,7 +8845,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="n">
-        <v>22173</v>
+        <v>22172</v>
       </c>
       <c r="C21" t="n">
         <v>3108</v>
@@ -8782,13 +8854,13 @@
         <v>-387</v>
       </c>
       <c r="E21" t="n">
-        <v>24894</v>
+        <v>24893</v>
       </c>
       <c r="F21" t="n">
-        <v>-4247</v>
+        <v>-4159</v>
       </c>
       <c r="G21" t="n">
-        <v>20647</v>
+        <v>20734</v>
       </c>
     </row>
     <row r="22">
@@ -8796,19 +8868,19 @@
         <v>27</v>
       </c>
       <c r="B22" t="n">
-        <v>22754</v>
+        <v>22753</v>
       </c>
       <c r="C22" t="n">
         <v>3355</v>
       </c>
       <c r="D22" t="n">
-        <v>-504</v>
+        <v>-505</v>
       </c>
       <c r="E22" t="n">
-        <v>25605</v>
+        <v>25604</v>
       </c>
       <c r="F22" t="n">
-        <v>-3258</v>
+        <v>-3257</v>
       </c>
       <c r="G22" t="n">
         <v>22347</v>
@@ -8819,22 +8891,22 @@
         <v>28</v>
       </c>
       <c r="B23" t="n">
-        <v>23629</v>
+        <v>23625</v>
       </c>
       <c r="C23" t="n">
         <v>3312</v>
       </c>
       <c r="D23" t="n">
-        <v>-393</v>
+        <v>-392</v>
       </c>
       <c r="E23" t="n">
-        <v>26549</v>
+        <v>26545</v>
       </c>
       <c r="F23" t="n">
-        <v>-2793</v>
+        <v>-2826</v>
       </c>
       <c r="G23" t="n">
-        <v>23756</v>
+        <v>23719</v>
       </c>
     </row>
     <row r="24">
@@ -8842,7 +8914,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="n">
-        <v>24384</v>
+        <v>24382</v>
       </c>
       <c r="C24" t="n">
         <v>3496</v>
@@ -8851,13 +8923,13 @@
         <v>-329</v>
       </c>
       <c r="E24" t="n">
-        <v>27551</v>
+        <v>27549</v>
       </c>
       <c r="F24" t="n">
-        <v>-4239</v>
+        <v>-4295</v>
       </c>
       <c r="G24" t="n">
-        <v>23311</v>
+        <v>23254</v>
       </c>
     </row>
     <row r="25">
@@ -8865,7 +8937,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="n">
-        <v>25582</v>
+        <v>25585</v>
       </c>
       <c r="C25" t="n">
         <v>3259</v>
@@ -8874,13 +8946,13 @@
         <v>-421</v>
       </c>
       <c r="E25" t="n">
-        <v>28420</v>
+        <v>28423</v>
       </c>
       <c r="F25" t="n">
-        <v>-5037</v>
+        <v>-4950</v>
       </c>
       <c r="G25" t="n">
-        <v>23383</v>
+        <v>23473</v>
       </c>
     </row>
     <row r="26">
@@ -8888,7 +8960,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="n">
-        <v>27077</v>
+        <v>27081</v>
       </c>
       <c r="C26" t="n">
         <v>3379</v>
@@ -8897,13 +8969,13 @@
         <v>-346</v>
       </c>
       <c r="E26" t="n">
-        <v>30110</v>
+        <v>30114</v>
       </c>
       <c r="F26" t="n">
-        <v>-3906</v>
+        <v>-3905</v>
       </c>
       <c r="G26" t="n">
-        <v>26205</v>
+        <v>26209</v>
       </c>
     </row>
     <row r="27">
@@ -8911,7 +8983,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="n">
-        <v>27099</v>
+        <v>27091</v>
       </c>
       <c r="C27" t="n">
         <v>3340</v>
@@ -8920,13 +8992,13 @@
         <v>-265</v>
       </c>
       <c r="E27" t="n">
-        <v>30174</v>
+        <v>30166</v>
       </c>
       <c r="F27" t="n">
-        <v>-4607</v>
+        <v>-4640</v>
       </c>
       <c r="G27" t="n">
-        <v>25567</v>
+        <v>25526</v>
       </c>
     </row>
     <row r="28">
@@ -8934,7 +9006,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="n">
-        <v>27755</v>
+        <v>27754</v>
       </c>
       <c r="C28" t="n">
         <v>3432</v>
@@ -8943,13 +9015,13 @@
         <v>-416</v>
       </c>
       <c r="E28" t="n">
-        <v>30771</v>
+        <v>30770</v>
       </c>
       <c r="F28" t="n">
-        <v>-5053</v>
+        <v>-5109</v>
       </c>
       <c r="G28" t="n">
-        <v>25718</v>
+        <v>25662</v>
       </c>
     </row>
     <row r="29">
@@ -8957,7 +9029,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="n">
-        <v>27711</v>
+        <v>27720</v>
       </c>
       <c r="C29" t="n">
         <v>3524</v>
@@ -8966,13 +9038,13 @@
         <v>-391</v>
       </c>
       <c r="E29" t="n">
-        <v>30843</v>
+        <v>30852</v>
       </c>
       <c r="F29" t="n">
-        <v>-5576</v>
+        <v>-5489</v>
       </c>
       <c r="G29" t="n">
-        <v>25267</v>
+        <v>25364</v>
       </c>
     </row>
     <row r="30">
@@ -8980,7 +9052,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="n">
-        <v>29774</v>
+        <v>29780</v>
       </c>
       <c r="C30" t="n">
         <v>3578</v>
@@ -8989,13 +9061,13 @@
         <v>-414</v>
       </c>
       <c r="E30" t="n">
-        <v>32938</v>
+        <v>32944</v>
       </c>
       <c r="F30" t="n">
-        <v>-5656</v>
+        <v>-5655</v>
       </c>
       <c r="G30" t="n">
-        <v>27282</v>
+        <v>27289</v>
       </c>
     </row>
     <row r="31">
@@ -9003,7 +9075,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="n">
-        <v>29975</v>
+        <v>29965</v>
       </c>
       <c r="C31" t="n">
         <v>3710</v>
@@ -9012,13 +9084,13 @@
         <v>-446</v>
       </c>
       <c r="E31" t="n">
-        <v>33238</v>
+        <v>33228</v>
       </c>
       <c r="F31" t="n">
-        <v>-5951</v>
+        <v>-5984</v>
       </c>
       <c r="G31" t="n">
-        <v>27288</v>
+        <v>27245</v>
       </c>
     </row>
     <row r="32">
@@ -9026,7 +9098,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="n">
-        <v>31385</v>
+        <v>31382</v>
       </c>
       <c r="C32" t="n">
         <v>3826</v>
@@ -9035,13 +9107,13 @@
         <v>-471</v>
       </c>
       <c r="E32" t="n">
-        <v>34740</v>
+        <v>34737</v>
       </c>
       <c r="F32" t="n">
-        <v>-5563</v>
+        <v>-5619</v>
       </c>
       <c r="G32" t="n">
-        <v>29177</v>
+        <v>29118</v>
       </c>
     </row>
     <row r="33">
@@ -9049,7 +9121,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="n">
-        <v>31577</v>
+        <v>31581</v>
       </c>
       <c r="C33" t="n">
         <v>3952</v>
@@ -9058,13 +9130,13 @@
         <v>-532</v>
       </c>
       <c r="E33" t="n">
-        <v>34996</v>
+        <v>35001</v>
       </c>
       <c r="F33" t="n">
-        <v>-6562</v>
+        <v>-6475</v>
       </c>
       <c r="G33" t="n">
-        <v>28434</v>
+        <v>28526</v>
       </c>
     </row>
     <row r="34">
@@ -9072,7 +9144,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>31686</v>
+        <v>31689</v>
       </c>
       <c r="C34" t="n">
         <v>3935</v>
@@ -9081,13 +9153,13 @@
         <v>-441</v>
       </c>
       <c r="E34" t="n">
-        <v>35180</v>
+        <v>35184</v>
       </c>
       <c r="F34" t="n">
-        <v>-5550</v>
+        <v>-5549</v>
       </c>
       <c r="G34" t="n">
-        <v>29630</v>
+        <v>29635</v>
       </c>
     </row>
     <row r="35">
@@ -9095,7 +9167,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>32172</v>
+        <v>32166</v>
       </c>
       <c r="C35" t="n">
         <v>3947</v>
@@ -9104,13 +9176,13 @@
         <v>-449</v>
       </c>
       <c r="E35" t="n">
-        <v>35670</v>
+        <v>35664</v>
       </c>
       <c r="F35" t="n">
-        <v>-5222</v>
+        <v>-5255</v>
       </c>
       <c r="G35" t="n">
-        <v>30449</v>
+        <v>30410</v>
       </c>
     </row>
     <row r="36">
@@ -9118,7 +9190,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="n">
-        <v>32717</v>
+        <v>32719</v>
       </c>
       <c r="C36" t="n">
         <v>4188</v>
@@ -9127,13 +9199,13 @@
         <v>-482</v>
       </c>
       <c r="E36" t="n">
-        <v>36423</v>
+        <v>36425</v>
       </c>
       <c r="F36" t="n">
-        <v>-5023</v>
+        <v>-5079</v>
       </c>
       <c r="G36" t="n">
-        <v>31400</v>
+        <v>31346</v>
       </c>
     </row>
     <row r="37">
@@ -9141,7 +9213,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="n">
-        <v>34442</v>
+        <v>34443</v>
       </c>
       <c r="C37" t="n">
         <v>4344</v>
@@ -9150,13 +9222,13 @@
         <v>-510</v>
       </c>
       <c r="E37" t="n">
-        <v>38276</v>
+        <v>38277</v>
       </c>
       <c r="F37" t="n">
-        <v>-5975</v>
+        <v>-5888</v>
       </c>
       <c r="G37" t="n">
-        <v>32300</v>
+        <v>32389</v>
       </c>
     </row>
     <row r="38">
@@ -9164,7 +9236,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="n">
-        <v>34131</v>
+        <v>34125</v>
       </c>
       <c r="C38" t="n">
         <v>4431</v>
@@ -9173,13 +9245,13 @@
         <v>-542</v>
       </c>
       <c r="E38" t="n">
-        <v>38020</v>
+        <v>38014</v>
       </c>
       <c r="F38" t="n">
-        <v>-5503</v>
+        <v>-5502</v>
       </c>
       <c r="G38" t="n">
-        <v>32517</v>
+        <v>32512</v>
       </c>
     </row>
     <row r="39">
@@ -9187,7 +9259,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="n">
-        <v>34825</v>
+        <v>34817</v>
       </c>
       <c r="C39" t="n">
         <v>4583</v>
@@ -9196,13 +9268,13 @@
         <v>-489</v>
       </c>
       <c r="E39" t="n">
-        <v>38919</v>
+        <v>38911</v>
       </c>
       <c r="F39" t="n">
-        <v>-5626</v>
+        <v>-5659</v>
       </c>
       <c r="G39" t="n">
-        <v>33293</v>
+        <v>33253</v>
       </c>
     </row>
     <row r="40">
@@ -9210,7 +9282,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="n">
-        <v>34835</v>
+        <v>34848</v>
       </c>
       <c r="C40" t="n">
         <v>4613</v>
@@ -9219,13 +9291,13 @@
         <v>-402</v>
       </c>
       <c r="E40" t="n">
-        <v>39046</v>
+        <v>39059</v>
       </c>
       <c r="F40" t="n">
-        <v>-5544</v>
+        <v>-5600</v>
       </c>
       <c r="G40" t="n">
-        <v>33502</v>
+        <v>33460</v>
       </c>
     </row>
     <row r="41">
@@ -9233,7 +9305,7 @@
         <v>46</v>
       </c>
       <c r="B41" t="n">
-        <v>35963</v>
+        <v>35962</v>
       </c>
       <c r="C41" t="n">
         <v>4793</v>
@@ -9242,13 +9314,13 @@
         <v>-498</v>
       </c>
       <c r="E41" t="n">
-        <v>40258</v>
+        <v>40257</v>
       </c>
       <c r="F41" t="n">
-        <v>-6318</v>
+        <v>-6231</v>
       </c>
       <c r="G41" t="n">
-        <v>33940</v>
+        <v>34026</v>
       </c>
     </row>
     <row r="42">
@@ -9256,7 +9328,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="n">
-        <v>36875</v>
+        <v>36861</v>
       </c>
       <c r="C42" t="n">
         <v>4921</v>
@@ -9265,13 +9337,13 @@
         <v>-303</v>
       </c>
       <c r="E42" t="n">
-        <v>41493</v>
+        <v>41479</v>
       </c>
       <c r="F42" t="n">
-        <v>-5958</v>
+        <v>-5957</v>
       </c>
       <c r="G42" t="n">
-        <v>35535</v>
+        <v>35522</v>
       </c>
     </row>
     <row r="43">
@@ -9279,7 +9351,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="n">
-        <v>37427</v>
+        <v>37417</v>
       </c>
       <c r="C43" t="n">
         <v>5164</v>
@@ -9288,13 +9360,13 @@
         <v>-317</v>
       </c>
       <c r="E43" t="n">
-        <v>42274</v>
+        <v>42264</v>
       </c>
       <c r="F43" t="n">
-        <v>-6741</v>
+        <v>-6774</v>
       </c>
       <c r="G43" t="n">
-        <v>35532</v>
+        <v>35490</v>
       </c>
     </row>
     <row r="44">
@@ -9302,7 +9374,7 @@
         <v>49</v>
       </c>
       <c r="B44" t="n">
-        <v>37672</v>
+        <v>37686</v>
       </c>
       <c r="C44" t="n">
         <v>5362</v>
@@ -9311,13 +9383,13 @@
         <v>-275</v>
       </c>
       <c r="E44" t="n">
-        <v>42758</v>
+        <v>42772</v>
       </c>
       <c r="F44" t="n">
-        <v>-5733</v>
+        <v>-5788</v>
       </c>
       <c r="G44" t="n">
-        <v>37026</v>
+        <v>36984</v>
       </c>
     </row>
     <row r="45">
@@ -9325,7 +9397,7 @@
         <v>50</v>
       </c>
       <c r="B45" t="n">
-        <v>39124</v>
+        <v>39128</v>
       </c>
       <c r="C45" t="n">
         <v>5238</v>
@@ -9334,13 +9406,13 @@
         <v>-457</v>
       </c>
       <c r="E45" t="n">
-        <v>43906</v>
+        <v>43910</v>
       </c>
       <c r="F45" t="n">
-        <v>-6387</v>
+        <v>-6300</v>
       </c>
       <c r="G45" t="n">
-        <v>37519</v>
+        <v>37610</v>
       </c>
     </row>
     <row r="46">
@@ -9348,7 +9420,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="n">
-        <v>39910</v>
+        <v>39883</v>
       </c>
       <c r="C46" t="n">
         <v>5694</v>
@@ -9357,13 +9429,13 @@
         <v>-256</v>
       </c>
       <c r="E46" t="n">
-        <v>45347</v>
+        <v>45321</v>
       </c>
       <c r="F46" t="n">
-        <v>-6033</v>
+        <v>-6032</v>
       </c>
       <c r="G46" t="n">
-        <v>39314</v>
+        <v>39289</v>
       </c>
     </row>
     <row r="47">
@@ -9380,13 +9452,13 @@
         <v>-263</v>
       </c>
       <c r="E47" t="n">
-        <v>45772</v>
+        <v>45773</v>
       </c>
       <c r="F47" t="n">
-        <v>-5678</v>
+        <v>-5711</v>
       </c>
       <c r="G47" t="n">
-        <v>40095</v>
+        <v>40062</v>
       </c>
     </row>
     <row r="48">
@@ -9394,7 +9466,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="n">
-        <v>40871</v>
+        <v>40886</v>
       </c>
       <c r="C48" t="n">
         <v>6006</v>
@@ -9403,13 +9475,13 @@
         <v>-306</v>
       </c>
       <c r="E48" t="n">
-        <v>46572</v>
+        <v>46587</v>
       </c>
       <c r="F48" t="n">
-        <v>-6902</v>
+        <v>-6957</v>
       </c>
       <c r="G48" t="n">
-        <v>39670</v>
+        <v>39630</v>
       </c>
     </row>
     <row r="49">
@@ -9417,7 +9489,7 @@
         <v>54</v>
       </c>
       <c r="B49" t="n">
-        <v>41261</v>
+        <v>41264</v>
       </c>
       <c r="C49" t="n">
         <v>5983</v>
@@ -9426,13 +9498,13 @@
         <v>-247</v>
       </c>
       <c r="E49" t="n">
-        <v>46998</v>
+        <v>47000</v>
       </c>
       <c r="F49" t="n">
-        <v>-5663</v>
+        <v>-5576</v>
       </c>
       <c r="G49" t="n">
-        <v>41334</v>
+        <v>41424</v>
       </c>
     </row>
     <row r="50">
@@ -9440,7 +9512,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="n">
-        <v>43787</v>
+        <v>43765</v>
       </c>
       <c r="C50" t="n">
         <v>6236</v>
@@ -9449,13 +9521,13 @@
         <v>-301</v>
       </c>
       <c r="E50" t="n">
-        <v>49722</v>
+        <v>49701</v>
       </c>
       <c r="F50" t="n">
-        <v>-7296</v>
+        <v>-7295</v>
       </c>
       <c r="G50" t="n">
-        <v>42427</v>
+        <v>42406</v>
       </c>
     </row>
     <row r="51">
@@ -9463,7 +9535,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>43561</v>
+        <v>43567</v>
       </c>
       <c r="C51" t="n">
         <v>6275</v>
@@ -9472,13 +9544,13 @@
         <v>-319</v>
       </c>
       <c r="E51" t="n">
-        <v>49518</v>
+        <v>49524</v>
       </c>
       <c r="F51" t="n">
-        <v>-7325</v>
+        <v>-7358</v>
       </c>
       <c r="G51" t="n">
-        <v>42193</v>
+        <v>42166</v>
       </c>
     </row>
     <row r="52">
@@ -9486,7 +9558,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="n">
-        <v>42844</v>
+        <v>42847</v>
       </c>
       <c r="C52" t="n">
         <v>5811</v>
@@ -9495,13 +9567,13 @@
         <v>-348</v>
       </c>
       <c r="E52" t="n">
-        <v>48307</v>
+        <v>48310</v>
       </c>
       <c r="F52" t="n">
-        <v>-6362</v>
+        <v>-6417</v>
       </c>
       <c r="G52" t="n">
-        <v>41946</v>
+        <v>41893</v>
       </c>
     </row>
     <row r="53">
@@ -9509,7 +9581,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="n">
-        <v>43770</v>
+        <v>43787</v>
       </c>
       <c r="C53" t="n">
         <v>5740</v>
@@ -9518,13 +9590,13 @@
         <v>-226</v>
       </c>
       <c r="E53" t="n">
-        <v>49285</v>
+        <v>49301</v>
       </c>
       <c r="F53" t="n">
-        <v>-7167</v>
+        <v>-7079</v>
       </c>
       <c r="G53" t="n">
-        <v>42118</v>
+        <v>42222</v>
       </c>
     </row>
     <row r="54">
@@ -9532,7 +9604,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="n">
-        <v>42798</v>
+        <v>42794</v>
       </c>
       <c r="C54" t="n">
         <v>5599</v>
@@ -9541,13 +9613,13 @@
         <v>-370</v>
       </c>
       <c r="E54" t="n">
-        <v>48027</v>
+        <v>48023</v>
       </c>
       <c r="F54" t="n">
-        <v>-6333</v>
+        <v>-6332</v>
       </c>
       <c r="G54" t="n">
-        <v>41694</v>
+        <v>41691</v>
       </c>
     </row>
     <row r="55">
@@ -9555,7 +9627,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="n">
-        <v>42259</v>
+        <v>42250</v>
       </c>
       <c r="C55" t="n">
         <v>5315</v>
@@ -9564,13 +9636,13 @@
         <v>-341</v>
       </c>
       <c r="E55" t="n">
-        <v>47233</v>
+        <v>47225</v>
       </c>
       <c r="F55" t="n">
-        <v>-6351</v>
+        <v>-6384</v>
       </c>
       <c r="G55" t="n">
-        <v>40882</v>
+        <v>40840</v>
       </c>
     </row>
     <row r="56">
@@ -9578,7 +9650,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="n">
-        <v>42155</v>
+        <v>42158</v>
       </c>
       <c r="C56" t="n">
         <v>5135</v>
@@ -9587,13 +9659,13 @@
         <v>-339</v>
       </c>
       <c r="E56" t="n">
-        <v>46951</v>
+        <v>46954</v>
       </c>
       <c r="F56" t="n">
-        <v>-7439</v>
+        <v>-7495</v>
       </c>
       <c r="G56" t="n">
-        <v>39512</v>
+        <v>39460</v>
       </c>
     </row>
     <row r="57">
@@ -9601,7 +9673,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="n">
-        <v>40821</v>
+        <v>40819</v>
       </c>
       <c r="C57" t="n">
         <v>4473</v>
@@ -9610,13 +9682,13 @@
         <v>-236</v>
       </c>
       <c r="E57" t="n">
-        <v>45058</v>
+        <v>45057</v>
       </c>
       <c r="F57" t="n">
-        <v>-6594</v>
+        <v>-6506</v>
       </c>
       <c r="G57" t="n">
-        <v>38464</v>
+        <v>38551</v>
       </c>
     </row>
     <row r="58">
@@ -9624,7 +9696,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="n">
-        <v>39298</v>
+        <v>39293</v>
       </c>
       <c r="C58" t="n">
         <v>4045</v>
@@ -9633,13 +9705,13 @@
         <v>-303</v>
       </c>
       <c r="E58" t="n">
-        <v>43040</v>
+        <v>43035</v>
       </c>
       <c r="F58" t="n">
-        <v>-7206</v>
+        <v>-7205</v>
       </c>
       <c r="G58" t="n">
-        <v>35834</v>
+        <v>35830</v>
       </c>
     </row>
     <row r="59">
@@ -9647,7 +9719,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="n">
-        <v>39248</v>
+        <v>39240</v>
       </c>
       <c r="C59" t="n">
         <v>4198</v>
@@ -9656,13 +9728,13 @@
         <v>-328</v>
       </c>
       <c r="E59" t="n">
-        <v>43118</v>
+        <v>43110</v>
       </c>
       <c r="F59" t="n">
-        <v>-7486</v>
+        <v>-7519</v>
       </c>
       <c r="G59" t="n">
-        <v>35631</v>
+        <v>35591</v>
       </c>
     </row>
     <row r="60">
@@ -9670,7 +9742,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="n">
-        <v>38165</v>
+        <v>38167</v>
       </c>
       <c r="C60" t="n">
         <v>4194</v>
@@ -9679,13 +9751,13 @@
         <v>-304</v>
       </c>
       <c r="E60" t="n">
-        <v>42055</v>
+        <v>42056</v>
       </c>
       <c r="F60" t="n">
-        <v>-7728</v>
+        <v>-7783</v>
       </c>
       <c r="G60" t="n">
-        <v>34327</v>
+        <v>34273</v>
       </c>
     </row>
     <row r="61">
@@ -9693,7 +9765,7 @@
         <v>66</v>
       </c>
       <c r="B61" t="n">
-        <v>37742</v>
+        <v>37754</v>
       </c>
       <c r="C61" t="n">
         <v>4044</v>
@@ -9702,13 +9774,13 @@
         <v>-311</v>
       </c>
       <c r="E61" t="n">
-        <v>41475</v>
+        <v>41487</v>
       </c>
       <c r="F61" t="n">
-        <v>-6993</v>
+        <v>-6906</v>
       </c>
       <c r="G61" t="n">
-        <v>34482</v>
+        <v>34581</v>
       </c>
     </row>
     <row r="62">
@@ -9716,7 +9788,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="n">
-        <v>37872</v>
+        <v>37855</v>
       </c>
       <c r="C62" t="n">
         <v>3954</v>
@@ -9725,13 +9797,13 @@
         <v>-299</v>
       </c>
       <c r="E62" t="n">
-        <v>41527</v>
+        <v>41510</v>
       </c>
       <c r="F62" t="n">
         <v>-7809</v>
       </c>
       <c r="G62" t="n">
-        <v>33717</v>
+        <v>33702</v>
       </c>
     </row>
     <row r="63">
@@ -9739,7 +9811,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="n">
-        <v>37893</v>
+        <v>37886</v>
       </c>
       <c r="C63" t="n">
         <v>4087</v>
@@ -9748,13 +9820,13 @@
         <v>-242</v>
       </c>
       <c r="E63" t="n">
-        <v>41738</v>
+        <v>41730</v>
       </c>
       <c r="F63" t="n">
-        <v>-7660</v>
+        <v>-7693</v>
       </c>
       <c r="G63" t="n">
-        <v>34077</v>
+        <v>34037</v>
       </c>
     </row>
     <row r="64">
@@ -9762,7 +9834,7 @@
         <v>69</v>
       </c>
       <c r="B64" t="n">
-        <v>38127</v>
+        <v>38147</v>
       </c>
       <c r="C64" t="n">
         <v>4192</v>
@@ -9771,13 +9843,13 @@
         <v>-272</v>
       </c>
       <c r="E64" t="n">
-        <v>42047</v>
+        <v>42067</v>
       </c>
       <c r="F64" t="n">
-        <v>-7204</v>
+        <v>-7259</v>
       </c>
       <c r="G64" t="n">
-        <v>34843</v>
+        <v>34808</v>
       </c>
     </row>
     <row r="65">
@@ -9785,7 +9857,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="n">
-        <v>38218</v>
+        <v>38214</v>
       </c>
       <c r="C65" t="n">
         <v>4066</v>
@@ -9794,13 +9866,13 @@
         <v>-290</v>
       </c>
       <c r="E65" t="n">
-        <v>41994</v>
+        <v>41990</v>
       </c>
       <c r="F65" t="n">
-        <v>-5783</v>
+        <v>-5696</v>
       </c>
       <c r="G65" t="n">
-        <v>36211</v>
+        <v>36295</v>
       </c>
     </row>
     <row r="66">
@@ -9808,7 +9880,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="n">
-        <v>38950</v>
+        <v>38922</v>
       </c>
       <c r="C66" t="n">
         <v>4030</v>
@@ -9817,13 +9889,13 @@
         <v>-270</v>
       </c>
       <c r="E66" t="n">
-        <v>42709</v>
+        <v>42682</v>
       </c>
       <c r="F66" t="n">
-        <v>-8201</v>
+        <v>-8200</v>
       </c>
       <c r="G66" t="n">
-        <v>34509</v>
+        <v>34482</v>
       </c>
     </row>
     <row r="67">
@@ -9831,7 +9903,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="n">
-        <v>39696</v>
+        <v>39704</v>
       </c>
       <c r="C67" t="n">
         <v>3939</v>
@@ -9840,13 +9912,13 @@
         <v>-271</v>
       </c>
       <c r="E67" t="n">
-        <v>43365</v>
+        <v>43372</v>
       </c>
       <c r="F67" t="n">
-        <v>-8448</v>
+        <v>-8481</v>
       </c>
       <c r="G67" t="n">
-        <v>34917</v>
+        <v>34891</v>
       </c>
     </row>
     <row r="68">
@@ -9854,7 +9926,7 @@
         <v>73</v>
       </c>
       <c r="B68" t="n">
-        <v>39461</v>
+        <v>39474</v>
       </c>
       <c r="C68" t="n">
         <v>3890</v>
@@ -9863,13 +9935,13 @@
         <v>-266</v>
       </c>
       <c r="E68" t="n">
-        <v>43084</v>
+        <v>43098</v>
       </c>
       <c r="F68" t="n">
-        <v>-8392</v>
+        <v>-8447</v>
       </c>
       <c r="G68" t="n">
-        <v>34693</v>
+        <v>34651</v>
       </c>
     </row>
     <row r="69">
@@ -9877,7 +9949,7 @@
         <v>74</v>
       </c>
       <c r="B69" t="n">
-        <v>38706</v>
+        <v>38707</v>
       </c>
       <c r="C69" t="n">
         <v>4107</v>
@@ -9889,10 +9961,10 @@
         <v>42538</v>
       </c>
       <c r="F69" t="n">
-        <v>-8747</v>
+        <v>-8660</v>
       </c>
       <c r="G69" t="n">
-        <v>33790</v>
+        <v>33878</v>
       </c>
     </row>
     <row r="70">
@@ -9900,7 +9972,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="n">
-        <v>40114</v>
+        <v>40085</v>
       </c>
       <c r="C70" t="n">
         <v>4052</v>
@@ -9909,13 +9981,13 @@
         <v>-269</v>
       </c>
       <c r="E70" t="n">
-        <v>43896</v>
+        <v>43868</v>
       </c>
       <c r="F70" t="n">
         <v>-9196</v>
       </c>
       <c r="G70" t="n">
-        <v>34700</v>
+        <v>34672</v>
       </c>
     </row>
     <row r="71">
@@ -9923,7 +9995,7 @@
         <v>76</v>
       </c>
       <c r="B71" t="n">
-        <v>40204</v>
+        <v>40222</v>
       </c>
       <c r="C71" t="n">
         <v>4042</v>
@@ -9932,13 +10004,13 @@
         <v>-279</v>
       </c>
       <c r="E71" t="n">
-        <v>43967</v>
+        <v>43985</v>
       </c>
       <c r="F71" t="n">
-        <v>-8476</v>
+        <v>-8509</v>
       </c>
       <c r="G71" t="n">
-        <v>35492</v>
+        <v>35476</v>
       </c>
     </row>
     <row r="72">
@@ -9946,7 +10018,7 @@
         <v>77</v>
       </c>
       <c r="B72" t="n">
-        <v>39813</v>
+        <v>39819</v>
       </c>
       <c r="C72" t="n">
         <v>4167</v>
@@ -9955,13 +10027,13 @@
         <v>-270</v>
       </c>
       <c r="E72" t="n">
-        <v>43710</v>
+        <v>43716</v>
       </c>
       <c r="F72" t="n">
-        <v>-8989</v>
+        <v>-9045</v>
       </c>
       <c r="G72" t="n">
-        <v>34721</v>
+        <v>34671</v>
       </c>
     </row>
     <row r="73">
@@ -9969,7 +10041,7 @@
         <v>78</v>
       </c>
       <c r="B73" t="n">
-        <v>39745</v>
+        <v>39755</v>
       </c>
       <c r="C73" t="n">
         <v>4065</v>
@@ -9978,13 +10050,13 @@
         <v>-302</v>
       </c>
       <c r="E73" t="n">
-        <v>43508</v>
+        <v>43518</v>
       </c>
       <c r="F73" t="n">
-        <v>-8684</v>
+        <v>-8596</v>
       </c>
       <c r="G73" t="n">
-        <v>34824</v>
+        <v>34922</v>
       </c>
     </row>
     <row r="74">
@@ -9992,7 +10064,7 @@
         <v>79</v>
       </c>
       <c r="B74" t="n">
-        <v>39594</v>
+        <v>39568</v>
       </c>
       <c r="C74" t="n">
         <v>4257</v>
@@ -10001,13 +10073,13 @@
         <v>-283</v>
       </c>
       <c r="E74" t="n">
-        <v>43568</v>
+        <v>43542</v>
       </c>
       <c r="F74" t="n">
-        <v>-7232</v>
+        <v>-7231</v>
       </c>
       <c r="G74" t="n">
-        <v>36336</v>
+        <v>36311</v>
       </c>
     </row>
     <row r="75">
@@ -10015,7 +10087,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="n">
-        <v>40836</v>
+        <v>40851</v>
       </c>
       <c r="C75" t="n">
         <v>4133</v>
@@ -10024,13 +10096,13 @@
         <v>-286</v>
       </c>
       <c r="E75" t="n">
-        <v>44682</v>
+        <v>44698</v>
       </c>
       <c r="F75" t="n">
-        <v>-8037</v>
+        <v>-8070</v>
       </c>
       <c r="G75" t="n">
-        <v>36645</v>
+        <v>36628</v>
       </c>
     </row>
     <row r="76">
@@ -10038,22 +10110,22 @@
         <v>81</v>
       </c>
       <c r="B76" t="n">
-        <v>41188</v>
+        <v>41186</v>
       </c>
       <c r="C76" t="n">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="D76" t="n">
         <v>-279</v>
       </c>
       <c r="E76" t="n">
-        <v>45227</v>
+        <v>45226</v>
       </c>
       <c r="F76" t="n">
-        <v>-7474</v>
+        <v>-7530</v>
       </c>
       <c r="G76" t="n">
-        <v>37753</v>
+        <v>37696</v>
       </c>
     </row>
     <row r="77">
@@ -10061,7 +10133,7 @@
         <v>82</v>
       </c>
       <c r="B77" t="n">
-        <v>41648</v>
+        <v>41664</v>
       </c>
       <c r="C77" t="n">
         <v>4250</v>
@@ -10070,13 +10142,13 @@
         <v>-239</v>
       </c>
       <c r="E77" t="n">
-        <v>45659</v>
+        <v>45675</v>
       </c>
       <c r="F77" t="n">
-        <v>-6542</v>
+        <v>-6454</v>
       </c>
       <c r="G77" t="n">
-        <v>39117</v>
+        <v>39220</v>
       </c>
     </row>
     <row r="78">
@@ -10084,7 +10156,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="n">
-        <v>42585</v>
+        <v>42560</v>
       </c>
       <c r="C78" t="n">
         <v>4435</v>
@@ -10093,13 +10165,13 @@
         <v>-250</v>
       </c>
       <c r="E78" t="n">
-        <v>46770</v>
+        <v>46745</v>
       </c>
       <c r="F78" t="n">
-        <v>-7614</v>
+        <v>-7613</v>
       </c>
       <c r="G78" t="n">
-        <v>39156</v>
+        <v>39132</v>
       </c>
     </row>
     <row r="79">
@@ -10107,7 +10179,7 @@
         <v>84</v>
       </c>
       <c r="B79" t="n">
-        <v>44457</v>
+        <v>44465</v>
       </c>
       <c r="C79" t="n">
         <v>4703</v>
@@ -10116,13 +10188,13 @@
         <v>-249</v>
       </c>
       <c r="E79" t="n">
-        <v>48911</v>
+        <v>48919</v>
       </c>
       <c r="F79" t="n">
-        <v>-8029</v>
+        <v>-8062</v>
       </c>
       <c r="G79" t="n">
-        <v>40882</v>
+        <v>40857</v>
       </c>
     </row>
     <row r="80">
@@ -10130,7 +10202,7 @@
         <v>85</v>
       </c>
       <c r="B80" t="n">
-        <v>44504</v>
+        <v>44509</v>
       </c>
       <c r="C80" t="n">
         <v>4462</v>
@@ -10139,13 +10211,13 @@
         <v>-243</v>
       </c>
       <c r="E80" t="n">
-        <v>48723</v>
+        <v>48728</v>
       </c>
       <c r="F80" t="n">
-        <v>-8171</v>
+        <v>-8226</v>
       </c>
       <c r="G80" t="n">
-        <v>40553</v>
+        <v>40502</v>
       </c>
     </row>
     <row r="81">
@@ -10153,22 +10225,22 @@
         <v>86</v>
       </c>
       <c r="B81" t="n">
-        <v>45551</v>
+        <v>45565</v>
       </c>
       <c r="C81" t="n">
-        <v>4999</v>
+        <v>5000</v>
       </c>
       <c r="D81" t="n">
         <v>-243</v>
       </c>
       <c r="E81" t="n">
-        <v>50308</v>
+        <v>50322</v>
       </c>
       <c r="F81" t="n">
-        <v>-7593</v>
+        <v>-7506</v>
       </c>
       <c r="G81" t="n">
-        <v>42714</v>
+        <v>42816</v>
       </c>
     </row>
     <row r="82">
@@ -10176,7 +10248,7 @@
         <v>87</v>
       </c>
       <c r="B82" t="n">
-        <v>59065</v>
+        <v>59036</v>
       </c>
       <c r="C82" t="n">
         <v>4765</v>
@@ -10185,13 +10257,13 @@
         <v>-224</v>
       </c>
       <c r="E82" t="n">
-        <v>63606</v>
+        <v>63577</v>
       </c>
       <c r="F82" t="n">
-        <v>-16112</v>
+        <v>-16111</v>
       </c>
       <c r="G82" t="n">
-        <v>47494</v>
+        <v>47466</v>
       </c>
     </row>
     <row r="83">
@@ -10199,7 +10271,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="n">
-        <v>59241</v>
+        <v>59233</v>
       </c>
       <c r="C83" t="n">
         <v>4973</v>
@@ -10208,13 +10280,13 @@
         <v>-223</v>
       </c>
       <c r="E83" t="n">
-        <v>63991</v>
+        <v>63984</v>
       </c>
       <c r="F83" t="n">
-        <v>-11347</v>
+        <v>-11380</v>
       </c>
       <c r="G83" t="n">
-        <v>52645</v>
+        <v>52604</v>
       </c>
     </row>
     <row r="84">
@@ -10222,7 +10294,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="n">
-        <v>61268</v>
+        <v>61287</v>
       </c>
       <c r="C84" t="n">
         <v>4965</v>
@@ -10231,13 +10303,13 @@
         <v>-226</v>
       </c>
       <c r="E84" t="n">
-        <v>66006</v>
+        <v>66026</v>
       </c>
       <c r="F84" t="n">
-        <v>-18134</v>
+        <v>-18190</v>
       </c>
       <c r="G84" t="n">
-        <v>47872</v>
+        <v>47836</v>
       </c>
     </row>
     <row r="85">
@@ -10245,7 +10317,7 @@
         <v>90</v>
       </c>
       <c r="B85" t="n">
-        <v>64463</v>
+        <v>64469</v>
       </c>
       <c r="C85" t="n">
         <v>4964</v>
@@ -10254,13 +10326,13 @@
         <v>-222</v>
       </c>
       <c r="E85" t="n">
-        <v>69205</v>
+        <v>69211</v>
       </c>
       <c r="F85" t="n">
-        <v>-16450</v>
+        <v>-16362</v>
       </c>
       <c r="G85" t="n">
-        <v>52755</v>
+        <v>52849</v>
       </c>
     </row>
     <row r="86">
@@ -10268,7 +10340,7 @@
         <v>91</v>
       </c>
       <c r="B86" t="n">
-        <v>60017</v>
+        <v>59961</v>
       </c>
       <c r="C86" t="n">
         <v>5256</v>
@@ -10277,13 +10349,13 @@
         <v>-234</v>
       </c>
       <c r="E86" t="n">
-        <v>65039</v>
+        <v>64983</v>
       </c>
       <c r="F86" t="n">
         <v>-11072</v>
       </c>
       <c r="G86" t="n">
-        <v>53967</v>
+        <v>53911</v>
       </c>
     </row>
     <row r="87">
@@ -10291,22 +10363,22 @@
         <v>92</v>
       </c>
       <c r="B87" t="n">
-        <v>59658</v>
+        <v>59641</v>
       </c>
       <c r="C87" t="n">
         <v>5388</v>
       </c>
       <c r="D87" t="n">
-        <v>-233</v>
+        <v>-234</v>
       </c>
       <c r="E87" t="n">
-        <v>64812</v>
+        <v>64795</v>
       </c>
       <c r="F87" t="n">
-        <v>-11254</v>
+        <v>-11288</v>
       </c>
       <c r="G87" t="n">
-        <v>53558</v>
+        <v>53507</v>
       </c>
     </row>
     <row r="88">
@@ -10314,7 +10386,7 @@
         <v>93</v>
       </c>
       <c r="B88" t="n">
-        <v>61463</v>
+        <v>61514</v>
       </c>
       <c r="C88" t="n">
         <v>5111</v>
@@ -10323,13 +10395,13 @@
         <v>-233</v>
       </c>
       <c r="E88" t="n">
-        <v>66341</v>
+        <v>66392</v>
       </c>
       <c r="F88" t="n">
-        <v>-14734</v>
+        <v>-14789</v>
       </c>
       <c r="G88" t="n">
-        <v>51607</v>
+        <v>51603</v>
       </c>
     </row>
     <row r="89">
@@ -10337,22 +10409,22 @@
         <v>94</v>
       </c>
       <c r="B89" t="n">
-        <v>68084</v>
+        <v>68123</v>
       </c>
       <c r="C89" t="n">
-        <v>5163</v>
+        <v>5164</v>
       </c>
       <c r="D89" t="n">
         <v>-238</v>
       </c>
       <c r="E89" t="n">
-        <v>73009</v>
+        <v>73049</v>
       </c>
       <c r="F89" t="n">
-        <v>-14021</v>
+        <v>-13933</v>
       </c>
       <c r="G89" t="n">
-        <v>58988</v>
+        <v>59116</v>
       </c>
     </row>
     <row r="90">
@@ -10360,22 +10432,22 @@
         <v>95</v>
       </c>
       <c r="B90" t="n">
-        <v>64661</v>
+        <v>64580</v>
       </c>
       <c r="C90" t="n">
-        <v>5481</v>
+        <v>5480</v>
       </c>
       <c r="D90" t="n">
         <v>-237</v>
       </c>
       <c r="E90" t="n">
-        <v>69905</v>
+        <v>69823</v>
       </c>
       <c r="F90" t="n">
-        <v>-15204</v>
+        <v>-15203</v>
       </c>
       <c r="G90" t="n">
-        <v>54702</v>
+        <v>54620</v>
       </c>
     </row>
     <row r="91">
@@ -10383,22 +10455,22 @@
         <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>67278</v>
+        <v>67262</v>
       </c>
       <c r="C91" t="n">
-        <v>5157</v>
+        <v>5158</v>
       </c>
       <c r="D91" t="n">
         <v>-237</v>
       </c>
       <c r="E91" t="n">
-        <v>72199</v>
+        <v>72183</v>
       </c>
       <c r="F91" t="n">
-        <v>-16306</v>
+        <v>-16340</v>
       </c>
       <c r="G91" t="n">
-        <v>55893</v>
+        <v>55843</v>
       </c>
     </row>
     <row r="92">
@@ -10406,22 +10478,22 @@
         <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>69209</v>
+        <v>69290</v>
       </c>
       <c r="C92" t="n">
         <v>5410</v>
       </c>
       <c r="D92" t="n">
-        <v>-240</v>
+        <v>-241</v>
       </c>
       <c r="E92" t="n">
-        <v>74379</v>
+        <v>74459</v>
       </c>
       <c r="F92" t="n">
-        <v>-14211</v>
+        <v>-14267</v>
       </c>
       <c r="G92" t="n">
-        <v>60167</v>
+        <v>60193</v>
       </c>
     </row>
     <row r="93">
@@ -10429,22 +10501,22 @@
         <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>73923</v>
+        <v>73965</v>
       </c>
       <c r="C93" t="n">
         <v>5623</v>
       </c>
       <c r="D93" t="n">
-        <v>-246</v>
+        <v>-245</v>
       </c>
       <c r="E93" t="n">
-        <v>79300</v>
+        <v>79344</v>
       </c>
       <c r="F93" t="n">
-        <v>-16530</v>
+        <v>-16443</v>
       </c>
       <c r="G93" t="n">
-        <v>62769</v>
+        <v>62901</v>
       </c>
     </row>
     <row r="94">
@@ -10452,22 +10524,22 @@
         <v>99</v>
       </c>
       <c r="B94" t="n">
-        <v>75007</v>
+        <v>74900</v>
       </c>
       <c r="C94" t="n">
-        <v>5477</v>
+        <v>5475</v>
       </c>
       <c r="D94" t="n">
-        <v>-249</v>
+        <v>-250</v>
       </c>
       <c r="E94" t="n">
-        <v>80235</v>
+        <v>80125</v>
       </c>
       <c r="F94" t="n">
-        <v>-18123</v>
+        <v>-18122</v>
       </c>
       <c r="G94" t="n">
-        <v>62112</v>
+        <v>62003</v>
       </c>
     </row>
     <row r="95">
@@ -10475,7 +10547,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="n">
-        <v>76266</v>
+        <v>76235</v>
       </c>
       <c r="C95" t="n">
         <v>5475</v>
@@ -10484,13 +10556,13 @@
         <v>-251</v>
       </c>
       <c r="E95" t="n">
-        <v>81490</v>
+        <v>81459</v>
       </c>
       <c r="F95" t="n">
-        <v>-17232</v>
+        <v>-17265</v>
       </c>
       <c r="G95" t="n">
-        <v>64258</v>
+        <v>64193</v>
       </c>
     </row>
     <row r="96">
@@ -10498,22 +10570,22 @@
         <v>101</v>
       </c>
       <c r="B96" t="n">
-        <v>76065</v>
+        <v>76208</v>
       </c>
       <c r="C96" t="n">
-        <v>5762</v>
+        <v>5763</v>
       </c>
       <c r="D96" t="n">
-        <v>-258</v>
+        <v>-259</v>
       </c>
       <c r="E96" t="n">
-        <v>81569</v>
+        <v>81712</v>
       </c>
       <c r="F96" t="n">
-        <v>-17933</v>
+        <v>-17988</v>
       </c>
       <c r="G96" t="n">
-        <v>63637</v>
+        <v>63724</v>
       </c>
     </row>
     <row r="97">
@@ -10521,22 +10593,22 @@
         <v>102</v>
       </c>
       <c r="B97" t="n">
-        <v>76740</v>
+        <v>76785</v>
       </c>
       <c r="C97" t="n">
-        <v>5709</v>
+        <v>5710</v>
       </c>
       <c r="D97" t="n">
-        <v>-266</v>
+        <v>-263</v>
       </c>
       <c r="E97" t="n">
-        <v>82183</v>
+        <v>82232</v>
       </c>
       <c r="F97" t="n">
-        <v>-21367</v>
+        <v>-21279</v>
       </c>
       <c r="G97" t="n">
-        <v>60816</v>
+        <v>60953</v>
       </c>
     </row>
     <row r="98">
@@ -10544,22 +10616,22 @@
         <v>103</v>
       </c>
       <c r="B98" t="n">
-        <v>80615</v>
+        <v>80470</v>
       </c>
       <c r="C98" t="n">
-        <v>6028</v>
+        <v>6026</v>
       </c>
       <c r="D98" t="n">
-        <v>-242</v>
+        <v>-246</v>
       </c>
       <c r="E98" t="n">
-        <v>86401</v>
+        <v>86250</v>
       </c>
       <c r="F98" t="n">
-        <v>-19682</v>
+        <v>-19681</v>
       </c>
       <c r="G98" t="n">
-        <v>66719</v>
+        <v>66569</v>
       </c>
     </row>
     <row r="99">
@@ -10567,22 +10639,22 @@
         <v>104</v>
       </c>
       <c r="B99" t="n">
-        <v>82945</v>
+        <v>82876</v>
       </c>
       <c r="C99" t="n">
         <v>6066</v>
       </c>
       <c r="D99" t="n">
-        <v>-248</v>
+        <v>-247</v>
       </c>
       <c r="E99" t="n">
-        <v>88764</v>
+        <v>88695</v>
       </c>
       <c r="F99" t="n">
-        <v>-21069</v>
+        <v>-21102</v>
       </c>
       <c r="G99" t="n">
-        <v>67695</v>
+        <v>67593</v>
       </c>
     </row>
     <row r="100">
@@ -10590,22 +10662,22 @@
         <v>105</v>
       </c>
       <c r="B100" t="n">
-        <v>83680</v>
+        <v>83892</v>
       </c>
       <c r="C100" t="n">
-        <v>6004</v>
+        <v>6005</v>
       </c>
       <c r="D100" t="n">
-        <v>-258</v>
+        <v>-259</v>
       </c>
       <c r="E100" t="n">
-        <v>89426</v>
+        <v>89638</v>
       </c>
       <c r="F100" t="n">
-        <v>-20387</v>
+        <v>-20442</v>
       </c>
       <c r="G100" t="n">
-        <v>69039</v>
+        <v>69196</v>
       </c>
     </row>
     <row r="101">
@@ -10613,22 +10685,22 @@
         <v>106</v>
       </c>
       <c r="B101" t="n">
-        <v>85591</v>
+        <v>85672</v>
       </c>
       <c r="C101" t="n">
-        <v>6148</v>
+        <v>6152</v>
       </c>
       <c r="D101" t="n">
-        <v>-268</v>
+        <v>-264</v>
       </c>
       <c r="E101" t="n">
-        <v>91471</v>
+        <v>91560</v>
       </c>
       <c r="F101" t="n">
-        <v>-19814</v>
+        <v>-19727</v>
       </c>
       <c r="G101" t="n">
-        <v>71656</v>
+        <v>71833</v>
       </c>
     </row>
     <row r="102">
@@ -10636,22 +10708,22 @@
         <v>107</v>
       </c>
       <c r="B102" t="n">
-        <v>88830</v>
+        <v>88571</v>
       </c>
       <c r="C102" t="n">
-        <v>4504</v>
+        <v>4499</v>
       </c>
       <c r="D102" t="n">
-        <v>-304</v>
+        <v>-311</v>
       </c>
       <c r="E102" t="n">
-        <v>93030</v>
+        <v>92760</v>
       </c>
       <c r="F102" t="n">
-        <v>-21038</v>
+        <v>-21037</v>
       </c>
       <c r="G102" t="n">
-        <v>71991</v>
+        <v>71722</v>
       </c>
     </row>
     <row r="103">
@@ -10659,22 +10731,22 @@
         <v>108</v>
       </c>
       <c r="B103" t="n">
-        <v>83315</v>
+        <v>83233</v>
       </c>
       <c r="C103" t="n">
-        <v>5793</v>
+        <v>5795</v>
       </c>
       <c r="D103" t="n">
-        <v>-316</v>
+        <v>-315</v>
       </c>
       <c r="E103" t="n">
-        <v>88792</v>
+        <v>88714</v>
       </c>
       <c r="F103" t="n">
-        <v>-21586</v>
+        <v>-21619</v>
       </c>
       <c r="G103" t="n">
-        <v>67206</v>
+        <v>67095</v>
       </c>
     </row>
     <row r="104">
@@ -10682,22 +10754,22 @@
         <v>109</v>
       </c>
       <c r="B104" t="n">
-        <v>91437</v>
+        <v>91745</v>
       </c>
       <c r="C104" t="n">
-        <v>5725</v>
+        <v>5724</v>
       </c>
       <c r="D104" t="n">
         <v>-289</v>
       </c>
       <c r="E104" t="n">
-        <v>96873</v>
+        <v>97180</v>
       </c>
       <c r="F104" t="n">
-        <v>-29075</v>
+        <v>-29130</v>
       </c>
       <c r="G104" t="n">
-        <v>67798</v>
+        <v>68049</v>
       </c>
     </row>
     <row r="105">
@@ -10705,22 +10777,22 @@
         <v>110</v>
       </c>
       <c r="B105" t="n">
-        <v>88031</v>
+        <v>88226</v>
       </c>
       <c r="C105" t="n">
-        <v>5679</v>
+        <v>5687</v>
       </c>
       <c r="D105" t="n">
-        <v>-307</v>
+        <v>-302</v>
       </c>
       <c r="E105" t="n">
-        <v>93403</v>
+        <v>93611</v>
       </c>
       <c r="F105" t="n">
-        <v>-18536</v>
+        <v>-18449</v>
       </c>
       <c r="G105" t="n">
-        <v>74866</v>
+        <v>75162</v>
       </c>
     </row>
     <row r="106">
@@ -10728,22 +10800,22 @@
         <v>111</v>
       </c>
       <c r="B106" t="n">
-        <v>94988</v>
+        <v>94451</v>
       </c>
       <c r="C106" t="n">
-        <v>5967</v>
+        <v>5958</v>
       </c>
       <c r="D106" t="n">
-        <v>-342</v>
+        <v>-352</v>
       </c>
       <c r="E106" t="n">
-        <v>100613</v>
+        <v>100057</v>
       </c>
       <c r="F106" t="n">
-        <v>-28349</v>
+        <v>-28348</v>
       </c>
       <c r="G106" t="n">
-        <v>72264</v>
+        <v>71709</v>
       </c>
     </row>
     <row r="107">
@@ -10751,22 +10823,22 @@
         <v>112</v>
       </c>
       <c r="B107" t="n">
-        <v>99814</v>
+        <v>99737</v>
       </c>
       <c r="C107" t="n">
-        <v>6422</v>
+        <v>6427</v>
       </c>
       <c r="D107" t="n">
-        <v>-343</v>
+        <v>-341</v>
       </c>
       <c r="E107" t="n">
-        <v>105892</v>
+        <v>105823</v>
       </c>
       <c r="F107" t="n">
-        <v>-28918</v>
+        <v>-28951</v>
       </c>
       <c r="G107" t="n">
-        <v>76974</v>
+        <v>76873</v>
       </c>
     </row>
     <row r="108">
@@ -10774,22 +10846,22 @@
         <v>113</v>
       </c>
       <c r="B108" t="n">
-        <v>102918</v>
+        <v>103333</v>
       </c>
       <c r="C108" t="n">
-        <v>6688</v>
+        <v>6683</v>
       </c>
       <c r="D108" t="n">
-        <v>-362</v>
+        <v>-361</v>
       </c>
       <c r="E108" t="n">
-        <v>109244</v>
+        <v>109655</v>
       </c>
       <c r="F108" t="n">
-        <v>-26886</v>
+        <v>-26942</v>
       </c>
       <c r="G108" t="n">
-        <v>82357</v>
+        <v>82713</v>
       </c>
     </row>
     <row r="109">
@@ -10797,22 +10869,45 @@
         <v>114</v>
       </c>
       <c r="B109" t="n">
-        <v>98398</v>
+        <v>98761</v>
       </c>
       <c r="C109" t="n">
-        <v>6865</v>
+        <v>6880</v>
       </c>
       <c r="D109" t="n">
-        <v>-375</v>
+        <v>-368</v>
       </c>
       <c r="E109" t="n">
-        <v>104887</v>
+        <v>105273</v>
       </c>
       <c r="F109" t="n">
-        <v>-23310</v>
+        <v>-23222</v>
       </c>
       <c r="G109" t="n">
-        <v>81578</v>
+        <v>82050</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" t="n">
+        <v>110065</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7105</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-357</v>
+      </c>
+      <c r="E110" t="n">
+        <v>116812</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-34876</v>
+      </c>
+      <c r="G110" t="n">
+        <v>81936</v>
       </c>
     </row>
   </sheetData>
